--- a/1.xlsx
+++ b/1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>to_address</t>
   </si>
@@ -19,124 +19,109 @@
     <t>amount</t>
   </si>
   <si>
-    <t>dungeon1zexcqk2w9pdj2hn23ujkmwz6tvcf2qx7xnsvse</t>
-  </si>
-  <si>
-    <t>dungeon1tvchej59tprtld6mtvqn3nqkgjc0a3aymafl8l</t>
-  </si>
-  <si>
-    <t>dungeon17wlrd03t7llhytfw0frfcn4a0vkhvtc0lumgef</t>
-  </si>
-  <si>
-    <t>dungeon15dq3mzgs6j2xp5f250qjrtgwlxxd98alz90ycx</t>
-  </si>
-  <si>
-    <t>dungeon1ye3ku6ygpalzjd7q9585959fphapdwttfv2e5e</t>
-  </si>
-  <si>
-    <t>dungeon16kjdkaftzn8852qgfttkh7y83v0cpk7cm8kaje</t>
-  </si>
-  <si>
-    <t>dungeon1dcf5n3ma9clwl339ed59atak0d8jtmvl22h0x7</t>
-  </si>
-  <si>
-    <t>dungeon14k8f2cd27z8laj9v0f7zmqgptu68afu72nqrjk</t>
-  </si>
-  <si>
-    <t>dungeon1hv608p09rq2udv25lrzmk6h79e86hnlmthz3r3</t>
-  </si>
-  <si>
-    <t>dungeon1swupmn6pdl8lwyuwsl84r4yzq3zlag0hqx87mx</t>
-  </si>
-  <si>
-    <t>dungeon1q6z6exv3zde7rdsftu2senvpedly7f3sjy08de</t>
-  </si>
-  <si>
-    <t>dungeon16z6ahjltu87d3y62qlw62r3zma3qt9kd2nfdqv</t>
-  </si>
-  <si>
-    <t>dungeon18d9cu975ddk30c6mvr8htwzqwrsq8spnr3yjzl</t>
-  </si>
-  <si>
-    <t>dungeon1r92uujg5z00fad8zntasy9kg0rqq77hsqra7f0</t>
-  </si>
-  <si>
-    <t>dungeon133vmrf8sqfcfwupu8dztfcqhcrw9xp208hjj0r</t>
-  </si>
-  <si>
-    <t>dungeon1282wj872wgs7t0xe7mde64l5cdjnt2cw6nj5xu</t>
-  </si>
-  <si>
-    <t>dungeon1kw4r3pp2n6hqx2a2mzvrcypwhdk8a7z7f2s37d</t>
-  </si>
-  <si>
-    <t>dungeon1uzzghj3xqculgtlmvrgtwydx90cl22c5s7nh69</t>
-  </si>
-  <si>
-    <t>dungeon1tc8g5524k0egznmh2cu7l9s5nv4d3gugle2rxp</t>
-  </si>
-  <si>
-    <t>dungeon1qwuf0ks2dyjqysr46m7pwatarm99egjgsxv5wy</t>
-  </si>
-  <si>
-    <t>dungeon14vu2urlnu3v09u8pxztund2mt0sm8dkfals595</t>
-  </si>
-  <si>
-    <t>dungeon174ckj3x7eq7me4g32z0kh73dgzu7mzsst567zu</t>
-  </si>
-  <si>
-    <t>dungeon1ff3u566at0llakc9uwe2u6s2al9us5j5gn5mgn</t>
-  </si>
-  <si>
-    <t>dungeon1yxnndr8elmyw8wrm7hpfeqrzuuft3qektjuye7</t>
-  </si>
-  <si>
-    <t>dungeon14ns62pmjxkgwkdn703e226n4dhddqx35lf5rh6</t>
-  </si>
-  <si>
-    <t>dungeon1ffznclvy9jmaugravkavwa0fzselpl5xd0u7xe</t>
-  </si>
-  <si>
-    <t>dungeon1n50u09vdcd489xjlyahdekxkd8ztjrnvyl640a</t>
-  </si>
-  <si>
-    <t>dungeon1w0eqcttx4wtgv5jurd7nhcljy5zw2l3ffm54pp</t>
-  </si>
-  <si>
-    <t>dungeon1ajecvaq3chm6h8rdzyzs4jpst066yxac8xc65u</t>
-  </si>
-  <si>
-    <t>dungeon1f97964nshfmhgy5ztwlxmqdurhhlqfmf2ghcel</t>
-  </si>
-  <si>
-    <t>dungeon1deuhmxnzy5fd92wfjcyl3hzekfn0qnlq23t6ja</t>
-  </si>
-  <si>
-    <t>dungeon1gqytj9phtr4qcpepvlf6juzd43g50nfpu4vq5r</t>
-  </si>
-  <si>
-    <t>dungeon10s9sqs6jgwwtz2kr8a7cng9awa3ehfa6duzy3x</t>
-  </si>
-  <si>
-    <t>dungeon18t2ar8hgrsxh95nfqd4lgldfz2ql79xd4tc5r0</t>
-  </si>
-  <si>
-    <t>dungeon12j875ph43qgfj4qcg6kefjd0hlk3rv9e58vzt4</t>
-  </si>
-  <si>
-    <t>dungeon1tdtkc4y0kvr0gyfccsvhhufqv65sf2e4pgen7c</t>
-  </si>
-  <si>
-    <t>dungeon1euxfwgtt4ss6dg3j06rusyva7mw9wadt5ehrrd</t>
-  </si>
-  <si>
-    <t>dungeon1qezr4ukq0zwqqt8vsxhq2ylvtnaft9tmd2fufy</t>
-  </si>
-  <si>
-    <t>dungeon1kf6jjy9f94p0elrqrpdzvkxjcawawgjh43ls4g</t>
-  </si>
-  <si>
-    <t>dungeon1jkj29yle4wexhwex8a4fy3zxs7cwwhhu3aatqu</t>
+    <t>dungeon1tl5p77d4yukar0nv2xej000zpcz4cy0yfzmxwg</t>
+  </si>
+  <si>
+    <t>dungeon15skhw2n9lrtcfsefguntsvq63azdvn0vulgpyg</t>
+  </si>
+  <si>
+    <t>dungeon1y6g5utk0453c2lw000q7uyhymy6aflcp8va5vw</t>
+  </si>
+  <si>
+    <t>dungeon1jhqss9nqa87ttz68khhxn5gmmud600ce9wylzz</t>
+  </si>
+  <si>
+    <t>dungeon19n2lgth2tnwdxcfyda72rpgxkkk2cmc5m7qztw</t>
+  </si>
+  <si>
+    <t>dungeon1q6aercpmqrx55t86hq060vuxs8us3h0syducj4</t>
+  </si>
+  <si>
+    <t>dungeon10dzmj2p06p9zg3mudsjz5xq7uwztfvxw0sjam3</t>
+  </si>
+  <si>
+    <t>dungeon1gxp6glc36kqqh24d2vyp6gu9aepl3up6479pu9</t>
+  </si>
+  <si>
+    <t>dungeon1x07k96tzrralhwu7md3wn9pt90zllezkmymjwf</t>
+  </si>
+  <si>
+    <t>dungeon1t9m8e3a9yehd8m6r2xa4kfj65z0e3nn6zl493l</t>
+  </si>
+  <si>
+    <t>dungeon1xh7f24dwa9ln08mmmel30j9l3m2g87x8x54k8n</t>
+  </si>
+  <si>
+    <t>dungeon16eawf5zztura60cfvc0rxzhlu9gtaf0ec75vhk</t>
+  </si>
+  <si>
+    <t>dungeon18lyvl56rzxdswqp2rtvjppucnw2rhu76m68h4r</t>
+  </si>
+  <si>
+    <t>dungeon1spptcknyvexx4casgasucyyh3cjtj0nd8j9cj4</t>
+  </si>
+  <si>
+    <t>dungeon1v8tkaflztu5hfwqqty02ytvwg59s352jnp2emt</t>
+  </si>
+  <si>
+    <t>dungeon1eru2jf77e3a0vd6tz3uduq54fpmsa7fp0dyznu</t>
+  </si>
+  <si>
+    <t>dungeon1n745e9uq9jk2te6mxg5r2q9z4dsf209j0eudpu</t>
+  </si>
+  <si>
+    <t>dungeon1w87j69stmfmv8wehfwl8yt5jwa6uftmh5kfpgf</t>
+  </si>
+  <si>
+    <t>dungeon1ae2erds0djegvu9ec4tut7ftm2sgcfda5ruuyg</t>
+  </si>
+  <si>
+    <t>dungeon1knnvvtvuy4vedjurf2a2wp5s8knmpa4lhjgzfc</t>
+  </si>
+  <si>
+    <t>dungeon13f3tvaunfm8p3qufjnrspe3p7l39jq4srruthg</t>
+  </si>
+  <si>
+    <t>dungeon1t94qavjyk8glzg8mr9kpsactvug6qk5y8gst6k</t>
+  </si>
+  <si>
+    <t>dungeon1389sm0accsmec2wqf9j746yut96qvwuyzt5hm5</t>
+  </si>
+  <si>
+    <t>dungeon1q8s73724dfzk8muw2jjmwd5evxcv7nxfzqz0st</t>
+  </si>
+  <si>
+    <t>dungeon1yntm0j9pdr8p8cnja72f2ylx2qeuze7qehlmvp</t>
+  </si>
+  <si>
+    <t>dungeon1nc5tk2xhmnlsm5wcy9qazjn7jcjj640tymsywa</t>
+  </si>
+  <si>
+    <t>dungeon1pz4kwtda8grjgdahayvujtpaz4xwmceuanajcz</t>
+  </si>
+  <si>
+    <t>dungeon1m9522vsv4v6gvx970ummvqnr9ul2uh0wp4h8c5</t>
+  </si>
+  <si>
+    <t>dungeon10qd0q0cjcqs4mtuemjuk92s8uczdudfwj0cr86</t>
+  </si>
+  <si>
+    <t>dungeon1t3lm20ka20l5ag496phzvptw6pmrg5wdxjxyaj</t>
+  </si>
+  <si>
+    <t>dungeon1us274rl6gat7trsrgm0yxfhgq4fqpdlky660qu</t>
+  </si>
+  <si>
+    <t>dungeon1dycvuk8xxqr9mt4vatev3ygdmt7csazu4za6le</t>
+  </si>
+  <si>
+    <t>dungeon1rrjpuey8xuqgggjwm3nse502squt3qapth8pku</t>
+  </si>
+  <si>
+    <t>dungeon1l7mux9t0d36myza2n4d352jrcxz606c3fxwcdz</t>
+  </si>
+  <si>
+    <t>dungeon17d3r0yr9htsnchsm6rf2p7365nm8q66hrrra0e</t>
   </si>
 </sst>
 </file>
@@ -481,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2450.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>245.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>245.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>245.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="8">
@@ -537,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>490.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>245.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="15">
@@ -585,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>245.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="16">
@@ -593,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>1.225</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="17">
@@ -601,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>1.225</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="18">
@@ -609,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>1.225</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>245.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="20">
@@ -625,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>245.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="21">
@@ -649,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>490.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="24">
@@ -657,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>490.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="25">
@@ -697,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>490.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="30">
@@ -705,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>490.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="31">
@@ -713,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>1.225</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>490.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="33">
@@ -729,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>490.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="34">
@@ -753,54 +738,6 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>245.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1">
-        <v>245.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1">
-        <v>245.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1">
-        <v>490.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
-        <v>245.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1.225</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
         <v>245.0</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>to_address</t>
   </si>
@@ -19,251 +19,386 @@
     <t>amount</t>
   </si>
   <si>
-    <t>cosmos1qr22vsf8c9dawxqgacg8hswrpvj26t5ttvwy9k</t>
-  </si>
-  <si>
-    <t>cosmos1qy7tgrq7wvd7etzv2h5axdla8tur7jfwdwja56</t>
-  </si>
-  <si>
-    <t>cosmos1q2898je3udqg338znkv02v8rjh8lxsj6fzl75z</t>
-  </si>
-  <si>
-    <t>cosmos1qvcy2gqxrdgnnypgsjcr2xz57lf4cs6n2sr6fj</t>
-  </si>
-  <si>
-    <t>cosmos1qdj33jvvj67vyyhh454q6u7u8scplhvqfldy0t</t>
-  </si>
-  <si>
-    <t>cosmos1qwf8zz98kzts5q34cvg98usgl6ava9tlkrwx8l</t>
-  </si>
-  <si>
-    <t>cosmos1qsk978h60zhad3qrsc02lgp0v0jv72d6z9e825</t>
-  </si>
-  <si>
-    <t>cosmos1q4c6fl2uczr7jvzn999rtpwq7fhedrcs4rhgg0</t>
-  </si>
-  <si>
-    <t>cosmos1qesvevs2p7p8apr5murjjz20sk0jsvf95m50zn</t>
-  </si>
-  <si>
-    <t>cosmos1q7fe09ft8wj483hkwk4zr500jpdlq2hasgad6m</t>
-  </si>
-  <si>
-    <t>cosmos1q77pp2skywhf792avwnxjg2hw3zr030v2zek2q</t>
-  </si>
-  <si>
-    <t>cosmos1qluz5u8nxmv6rw9lwxnjyvgm3scr6yz4phfmc5</t>
-  </si>
-  <si>
-    <t>cosmos1pq0hgq9f5fs08kctgd74adyu7e5eph395c4lhu</t>
-  </si>
-  <si>
-    <t>cosmos1pqsechewh3k430s2v8rngr7cehzq7ukpt8rltn</t>
-  </si>
-  <si>
-    <t>cosmos1ppscx7eckh9hsftq8cgptg9d7cll2r9xu08c49</t>
-  </si>
-  <si>
-    <t>cosmos1pyfg4ztr8drzyja5uwm2z82waypp88wchxqrj5</t>
-  </si>
-  <si>
-    <t>cosmos1pwpflqaa4jrjueyss55p0u7lyh6zr3hrylf33a</t>
-  </si>
-  <si>
-    <t>cosmos1pwh69yww9h5dqkjtlfdcs8zqvktzngk58zcy4r</t>
-  </si>
-  <si>
-    <t>cosmos1p3n2f2q9tewmq2kl922z4tlqmgf9tjgdk0pn5w</t>
-  </si>
-  <si>
-    <t>cosmos1p4304z6uxj5s6vwz8l6nd52tg0esemp3afek3j</t>
-  </si>
-  <si>
-    <t>cosmos1pe8e0wd4cs2fj6lzt6u9ek3503qpmkm30ew7rd</t>
-  </si>
-  <si>
-    <t>cosmos1p6s3nqc8rr02j5n9qhtmt7zkf4ur2j0v80fxze</t>
-  </si>
-  <si>
-    <t>cosmos1pme8tquascj9t2kay0qxh42f688x5cmr33us5p</t>
-  </si>
-  <si>
-    <t>cosmos1zq54z7d3qhc2fruy3sql9qesgunf47trqtqjxu</t>
-  </si>
-  <si>
-    <t>cosmos1zyyht9qajphrdc8yef09fyd5647a5f4udnf72k</t>
-  </si>
-  <si>
-    <t>cosmos1zxprgrhmf6zwkvrwmk08kgtlhu4ptk6sdygq4f</t>
-  </si>
-  <si>
-    <t>cosmos1zsf4lp9t3c8lu7p4qspmq9vefmkmppuwh3cvps</t>
-  </si>
-  <si>
-    <t>cosmos1z3h4mm4f6n9cswxf6p4y6r73hzjy5uexkke6nw</t>
-  </si>
-  <si>
-    <t>cosmos1zj2vpvjp2cr2950r350zp67py5wsnn6e20rhm8</t>
-  </si>
-  <si>
-    <t>cosmos1zj04hzjgvdeqt3rl3ym4phf999hh89uqz6rh97</t>
-  </si>
-  <si>
-    <t>cosmos1z449svm08e9p0544grvq7skv4ltfev6hkgmzvp</t>
-  </si>
-  <si>
-    <t>cosmos1zaxzzkleu5cn4gy4rr2p03mfsn7sr0ej73n4d2</t>
-  </si>
-  <si>
-    <t>cosmos1zah9a5wx467syjz9frjhq9xhrq2fyugsuq7jph</t>
-  </si>
-  <si>
-    <t>cosmos1z7a6glgggrqhe8hzehc75lml3dz26mwdxxzhgj</t>
-  </si>
-  <si>
-    <t>cosmos1rp88lsash8lg0ltfq7pum6seqvgl49mj5gulkr</t>
-  </si>
-  <si>
-    <t>cosmos1rrykp3pf9q9k93tlrgmyvcav05467kzwchclt0</t>
-  </si>
-  <si>
-    <t>cosmos1ry3e3fvjn6e6276ym5kt8f0xr0padqtjnkm8jq</t>
-  </si>
-  <si>
-    <t>cosmos1r93c20xuwtxadwgfkh9m2swkkvn49jdeeaxwyp</t>
-  </si>
-  <si>
-    <t>cosmos1r9lglxgtxvuh8033mu7utazagm4l9jtsl2638r</t>
-  </si>
-  <si>
-    <t>cosmos1rxqas2m8n3jjvulgzsmks0ekzqp32arvrar2m8</t>
-  </si>
-  <si>
-    <t>cosmos1rfrfnkjc3t9zh9hn96p327cjyytk48fchav3xd</t>
-  </si>
-  <si>
-    <t>cosmos1rta9aa5dzsr3kvcf2x8x8zeycd0yw4stwwztuu</t>
-  </si>
-  <si>
-    <t>cosmos1rd0cp2qfztcs5hp9wkt4u6mpr7ctz7p406empf</t>
-  </si>
-  <si>
-    <t>cosmos1rd6lz9zajs92c7ya6n46zh9syjzpcrndzchvwx</t>
-  </si>
-  <si>
-    <t>cosmos1rw2nsr4tkeqsymjtk88wd059k75m2crv93vwda</t>
-  </si>
-  <si>
-    <t>cosmos1rw6v0t6amwcz3dnur7szqvkl23qqgrw5neh4jg</t>
-  </si>
-  <si>
-    <t>cosmos1r39vukxnda00vv4urhfmqpjvfzknr7jrl0xugs</t>
-  </si>
-  <si>
-    <t>cosmos1rj4lwlzwhgka8ryuu9kagzw6wdg4j9896063g6</t>
-  </si>
-  <si>
-    <t>cosmos1rnl8nvajwyv252ku5vyed4e30tlculla6hf6ra</t>
-  </si>
-  <si>
-    <t>cosmos1rkz3xqptzh2zurhmggtrup2mp0pncvhav96ezc</t>
-  </si>
-  <si>
-    <t>cosmos1rc6zk2k0las34k4zn5msp4d48yuukg0jqhcgwl</t>
-  </si>
-  <si>
-    <t>cosmos1rmvy6zqfxgat2905wekyhm528vqhu989dz4tfw</t>
-  </si>
-  <si>
-    <t>cosmos1r7sp8qf07jtj437tcz47jpthlqw3ffthhh7zyk</t>
-  </si>
-  <si>
-    <t>cosmos1yq7n7f6ekn8rcxmlc033ea58kw5z0ly3q4pr3k</t>
-  </si>
-  <si>
-    <t>cosmos1yyxsxmf635pxvm0hlfucdegprh55xsxprcgalp</t>
-  </si>
-  <si>
-    <t>cosmos1yxp72ytnak32kv4c4hpp74x4myf3u424m6p7c5</t>
-  </si>
-  <si>
-    <t>cosmos1y2swuf9serylhpx8ydz2rm96rtqhmy99qs6k0m</t>
-  </si>
-  <si>
-    <t>cosmos1ysthp74n2wxt4flmzyxrhza8rvxzr9mc3f9he5</t>
-  </si>
-  <si>
-    <t>cosmos1yng27xvqv0z7uszrzvcfkggdpnxgartq2qft63</t>
-  </si>
-  <si>
-    <t>cosmos1y440lzheawd2hnxlw8xdavx0ad67ret3vmws3c</t>
-  </si>
-  <si>
-    <t>cosmos1ykyk43nxapm48n60ft0sr8ndrg8deu9pydglqn</t>
-  </si>
-  <si>
-    <t>cosmos1ycvqap8apkyd9u5j7hu9ukklzx34v6es02ycnl</t>
-  </si>
-  <si>
-    <t>cosmos1y6h23fxgqvqdms62k04js0fa5kh79az7renjr5</t>
-  </si>
-  <si>
-    <t>cosmos1ymwgg85shgthy4gsp7qf59jpf0pz4c3rnmvs6k</t>
-  </si>
-  <si>
-    <t>cosmos1y7ysuyhsl30trd6qhss3qpc7mxta40gsw9ekqx</t>
-  </si>
-  <si>
-    <t>cosmos1y798r0cg0s4nscwcs0aet5rmkzq9eel8eeuffe</t>
-  </si>
-  <si>
-    <t>cosmos19yk6wz0nszymsk76gnvm5w89gzeh69eq5f0nxm</t>
-  </si>
-  <si>
-    <t>cosmos19xuvslp4za626qlpg6vrqu20gvh6n9lj45dmmp</t>
-  </si>
-  <si>
-    <t>cosmos198uernvg4gwrrgxm83fha4jywml0wr2jsl9m86</t>
-  </si>
-  <si>
-    <t>cosmos19wmlrdhyf85fly7mqhm4a0jr5qa4hlvqpregkl</t>
-  </si>
-  <si>
-    <t>cosmos190wj3tp2m9r9u42grsfhdm7errkca3uwgnfqrz</t>
-  </si>
-  <si>
-    <t>cosmos195uet0szm7hwaps2k99ywscsdl7hjcy8c7u720</t>
-  </si>
-  <si>
-    <t>cosmos194px257lyndy5sldjkqqr2evxljd9yme8hd2k8</t>
-  </si>
-  <si>
-    <t>cosmos194sg0pj6p5nk7dpnuh7wwm0evlwhw8zy7w8um4</t>
-  </si>
-  <si>
-    <t>cosmos19kwsexd87fd49srdw4k6ltsfxg8xlnhw70xq3x</t>
-  </si>
-  <si>
-    <t>cosmos19k650hvvlzxp09c2y7qz6ahz594ecqu7fa5q2l</t>
-  </si>
-  <si>
-    <t>cosmos19uga3gpvacvlyuv2mf027n4xqrv4tssegzdfsx</t>
-  </si>
-  <si>
-    <t>cosmos19u539q85fun7nax92w853gcqtl74kr0e0x6gvn</t>
-  </si>
-  <si>
-    <t>cosmos197djzpsht39797hkq7g3lfyk6pltmhzzevtquf</t>
-  </si>
-  <si>
-    <t>cosmos197lc4ceg0xz4d874m87dhf2z0asugnukm93jpx</t>
+    <t>atone1q2833t82zthataz0v6zracejyu7xfqh7mu2sw4</t>
+  </si>
+  <si>
+    <t>atone1qvcy2gqxrdgnnypgsjcr2xz57lf4cs6nyslal2</t>
+  </si>
+  <si>
+    <t>atone1qs4eqtc0f28943s9q8jzcncr5pkmcgkf07lenq</t>
+  </si>
+  <si>
+    <t>atone1q648z887yenz2gxkq4msa252nvp427tfsvh8hu</t>
+  </si>
+  <si>
+    <t>atone1pz0gys67zv6dl0g69dree3yees48plzun5xcek</t>
+  </si>
+  <si>
+    <t>atone1zgs5nnwhpxg4sjyw7xerm4humluxua90ejay73</t>
+  </si>
+  <si>
+    <t>atone1zsv6cvpd9y86hhxzatpgzu6ymxdeuc5njypdru</t>
+  </si>
+  <si>
+    <t>atone1rxwnxskx7w9jjecfzjve35juw3qxughs9nwku7</t>
+  </si>
+  <si>
+    <t>atone1rf0s9p99t3m0vnwcf0jy98hwedlrul90tsvp4s</t>
+  </si>
+  <si>
+    <t>atone1r2nujddqfxvw3nuvdfgsnskxgrdhpfz76a0msu</t>
+  </si>
+  <si>
+    <t>atone1rta9aa5dzsr3kvcf2x8x8zeycd0yw4stqw7v2y</t>
+  </si>
+  <si>
+    <t>atone1rhyz30vg0c6ed69rmz43h35wn92ucksrclvndw</t>
+  </si>
+  <si>
+    <t>atone1rhgsg2qedccgwrpws524tagm4v7rlpdre0m4kz</t>
+  </si>
+  <si>
+    <t>atone1yyvdwarlwt4sz6qslzs5sx5jlzu6guajpduunn</t>
+  </si>
+  <si>
+    <t>atone1ysthp74n2wxt4flmzyxrhza8rvxzr9mclfes0v</t>
+  </si>
+  <si>
+    <t>atone1ykyk43nxapm48n60ft0sr8ndrg8deu9p2d5ckt</t>
+  </si>
+  <si>
+    <t>atone19g9flltdr2ahajrkefdqxc34h5uc532d4xgk5s</t>
+  </si>
+  <si>
+    <t>atone1923utg7e27z6cztq7ky89hx5n5k0awkhfv0l50</t>
+  </si>
+  <si>
+    <t>atone19dej9nex9sj3424eernwjs83pw75rt3k25hv90</t>
+  </si>
+  <si>
+    <t>atone193d2qsuk25e9mx0quan2msl2y9fqtt0gw6vxe9</t>
+  </si>
+  <si>
+    <t>atone19jhlpyjx3p4kqh347323azjuhnnew95r0a5z2u</t>
+  </si>
+  <si>
+    <t>atone18gd7nsv2qrx9rv8n0gh37l0x8qmwnrhad9r40u</t>
+  </si>
+  <si>
+    <t>atone185fkw70ntyc0vlvrf30grsxurfw2d7cplyp8ep</t>
+  </si>
+  <si>
+    <t>atone1850rdjq4sf488sad4qsj64sj2s8h53z0hhu7q7</t>
+  </si>
+  <si>
+    <t>atone18crvw4qkw8ju6s9jqyw6w3wx5ghh3unvd6zgw5</t>
+  </si>
+  <si>
+    <t>atone18ank35aua8ftetpmvcsxwdqy4pheltee3wzc2f</t>
+  </si>
+  <si>
+    <t>atone1gzwmgc096jgunp47tnn7j7ulzgc97ce8s82dzw</t>
+  </si>
+  <si>
+    <t>atone1gd6twrfw7p04797dznh0u98q9ykc7d240qac6a</t>
+  </si>
+  <si>
+    <t>atone1g37mcad2p7w4d8zes77mly0tawrmhvamjkdp22</t>
+  </si>
+  <si>
+    <t>atone1gn6w54uge5drhx0gskdgva4372d8guxh0wyz6n</t>
+  </si>
+  <si>
+    <t>atone1gnasfq4qq9kuwphp7ytq50pg6f4pzqs4gqu73d</t>
+  </si>
+  <si>
+    <t>atone1frwewwrswegyuxsz800zeaqesq5k678xe5hd9p</t>
+  </si>
+  <si>
+    <t>atone1f9dge7nrtrlxg24qekrwk24nxzmzlappuw8q39</t>
+  </si>
+  <si>
+    <t>atone1f8qxs3n4pstp3ddfzt7773w9wl3c6c04nj7r0d</t>
+  </si>
+  <si>
+    <t>atone1f44qd2yw4f007dqddltptaqyqly9qs05n8edum</t>
+  </si>
+  <si>
+    <t>atone1fcygwdcfwdnt8gpuv0rr5j6llnexsw6655j42g</t>
+  </si>
+  <si>
+    <t>atone1f6w3gudyw02vg7jql2kqyte9us8qa5kxfpkwva</t>
+  </si>
+  <si>
+    <t>atone1fud5k0utxxjm27je5t72h82tyten72acpns7n3</t>
+  </si>
+  <si>
+    <t>atone12pjgwmk672r98fhjrpxg9xz2j29vmu9r472x4s</t>
+  </si>
+  <si>
+    <t>atone122xq6xe80jk5zkhul6zzh80n2k69yr2eh34ht4</t>
+  </si>
+  <si>
+    <t>atone12v736nuytn9rjl5dpqtfxzdg40vtlwqqwcx2h8</t>
+  </si>
+  <si>
+    <t>atone12dz0vh9gk50wsjc7jvefs7l8fafraalc7stqkl</t>
+  </si>
+  <si>
+    <t>atone124rxmmffm329znr5ww8tats35gjq2jzj3m2f8e</t>
+  </si>
+  <si>
+    <t>atone12el8k6fz3n80mv2czz6apdxplsnpxznawsllcl</t>
+  </si>
+  <si>
+    <t>atone1tyu6854q0vlsqpmvaasr9043cwfrtmu4494s50</t>
+  </si>
+  <si>
+    <t>atone1tk9ecdjc59ek3r3dsqe83026jxvtlr0kst3j2z</t>
+  </si>
+  <si>
+    <t>atone1vkngvnelw4tgahyn20sr0kvk9jq8wrfefvh2lr</t>
+  </si>
+  <si>
+    <t>atone1dqf5rg4kccq558f29qa02wurmcmrapchm6xkhf</t>
+  </si>
+  <si>
+    <t>atone1d93ggvd6t3qnna3w280ax9g6j9jzr69envan9n</t>
+  </si>
+  <si>
+    <t>atone1dxlzv3nym93x72t6d5rtaqzre7skke3nk3nzwg</t>
+  </si>
+  <si>
+    <t>atone1d27jtvp26d2ul4lwy6th9mqmwxvp68pje4lzj2</t>
+  </si>
+  <si>
+    <t>atone1ddg9tjkf0vmd3t2mdqpxk2pkk6zssvduphf7js</t>
+  </si>
+  <si>
+    <t>atone1dn54g3fpsp853jmux297fpj89uufn3zxgmuqfh</t>
+  </si>
+  <si>
+    <t>atone1dkqem467z8l7vjktx7ldg93r82e056qs0m3skm</t>
+  </si>
+  <si>
+    <t>atone1de88sp2h3955ktrjgnm0jkhy8dttsgdzmnu3s9</t>
+  </si>
+  <si>
+    <t>atone1w9gcxhaxj8f0rjlkwwu36e7elj9aqmj3txzhp8</t>
+  </si>
+  <si>
+    <t>atone1wkep6k06rqh2vls8t5q2jjkdn4z803alu5e235</t>
+  </si>
+  <si>
+    <t>atone1w64nk0hmjelradw68twzs8zngk253y3g27s0sr</t>
+  </si>
+  <si>
+    <t>atone10yp8ey37pjt4y5cr6nl2dstqjyz9f5k93nqlx2</t>
+  </si>
+  <si>
+    <t>atone10gzg69ktz2ku6swm400ghtpfj77u9hg7ua0t55</t>
+  </si>
+  <si>
+    <t>atone10guvn4243qg2l8ey8gy9zwttz6v23232k9wm5k</t>
+  </si>
+  <si>
+    <t>atone1sn0gq7jlk5cscurvnsrlxc644p2dkwq56anjm7</t>
+  </si>
+  <si>
+    <t>atone1su0p2tyhph4hv6ud22c057rz3f8gfvrsly8kyy</t>
+  </si>
+  <si>
+    <t>atone13zzlsjnauafxz764nvj6mgagrkt5vke37jskxy</t>
+  </si>
+  <si>
+    <t>atone130umlsvuey3ss03p9pnmnww4mx3zta4skzath6</t>
+  </si>
+  <si>
+    <t>atone1jfwp4d5mg93sapd67r4274f8y8tg4xn768d2cz</t>
+  </si>
+  <si>
+    <t>atone1jtustv4ghy997d6catge3mgklszkvve6uhm576</t>
+  </si>
+  <si>
+    <t>atone1jujullnrumr8mplckscuxzfnzkspfm6lfjncpt</t>
+  </si>
+  <si>
+    <t>atone1npurzcjvq9rd29k29atvxd90732z4lwml7ft4e</t>
+  </si>
+  <si>
+    <t>atone1npu9lyaf0ve5hrr30xdc8r57jje98tu5ljgw62</t>
+  </si>
+  <si>
+    <t>atone1n9wl97cms52tkhc2j40mmktgew0e08aw6e23j2</t>
+  </si>
+  <si>
+    <t>atone1nf5f04rk9t56pzdwve6rhe5gvneq6gvkhscwk7</t>
+  </si>
+  <si>
+    <t>atone1n45t2sknp6gjj85f25sazprq7q8kyweqv4lc0n</t>
+  </si>
+  <si>
+    <t>atone15plqyst4mg0tz7mgdjglleztv54rm887mdx8n5</t>
+  </si>
+  <si>
+    <t>atone15rgk9gkgc0rfsflyh6ygkcn8vnnhnq49arvcdg</t>
+  </si>
+  <si>
+    <t>atone15gq8zpzagw6e5gzed8pfggsyvjdfmsss3l22dr</t>
+  </si>
+  <si>
+    <t>atone15wdtw54qpamprk4g4ea0w7elmhl9mhcva90alm</t>
+  </si>
+  <si>
+    <t>atone150q6ppu366x468pkhm7zcw7jk5jegg0swa8dn2</t>
+  </si>
+  <si>
+    <t>atone15n9me5yykqtedf80zsnk46lckeu07eeg33535k</t>
+  </si>
+  <si>
+    <t>atone15hmqrc245kryaehxlch7scl9d9znxa58wka40n</t>
+  </si>
+  <si>
+    <t>atone157qu9jpq3pasuc9s50tpd4hwu3tm45lrhs7vx4</t>
+  </si>
+  <si>
+    <t>atone14f5vpj2hdw37rng9zct7llkqax2znrhyg4vg84</t>
+  </si>
+  <si>
+    <t>atone1ky4l8why7jctxpwwxwy2en5txagy8j7x5kpc8n</t>
+  </si>
+  <si>
+    <t>atone1kal8h32wluskjd7gsqze9jlvk4zw7jp3fhq4l5</t>
+  </si>
+  <si>
+    <t>atone1hv4rlv94dwwsj3z7l6muye6ndmup0htacx6m3t</t>
+  </si>
+  <si>
+    <t>atone1hskks7nkcq4ys9u9frmj3rpj2pfdmp20w9mcr0</t>
+  </si>
+  <si>
+    <t>atone1h3l6dyvhg0zsh403q6v5c9xpne8ucl8jh72672</t>
+  </si>
+  <si>
+    <t>atone1h4yklnnd3a9tas43y0ey8z3vg5zzwjs0g2t8ma</t>
+  </si>
+  <si>
+    <t>atone1h4x2tx4679zjv77uet0x6e6v33dc8l82kgtzvx</t>
+  </si>
+  <si>
+    <t>atone1cqrky3t78np3a60kmdpylzyv594muagf04t72v</t>
+  </si>
+  <si>
+    <t>atone1cyhtq6e9x7f2haf6rn5l08svmhsrcqlvlkxzf6</t>
+  </si>
+  <si>
+    <t>atone1cgdty3246mz7jatqkg36h2aeqwnwf2m62hm7hv</t>
+  </si>
+  <si>
+    <t>atone1cthyr8req6svmza3euykd2sf5pzse6z2xk3dsz</t>
+  </si>
+  <si>
+    <t>atone1cdtyy29mre322xxpt2yvmz75crs3pl5tq0a30t</t>
+  </si>
+  <si>
+    <t>atone1c7pn0kv2x784cujvthxh5km8xxuftf85angsts</t>
+  </si>
+  <si>
+    <t>atone1ezr0cxsyt4qtsm2dd4ce50kdlps8w7wars8zrh</t>
+  </si>
+  <si>
+    <t>atone1eewlz3pl8rhs083nqrds45kfg93sm7vu7jafhk</t>
+  </si>
+  <si>
+    <t>atone1eujlkkfsyjf28ey9vce3yp0s0mdd0l94z7lxln</t>
+  </si>
+  <si>
+    <t>atone16yzm6qjjheafnyvlcjxnkmhj3hullgpl8u85xj</t>
+  </si>
+  <si>
+    <t>atone16tfjyefrgekf0l8zzccjy2c72nh2mscjvt8pxu</t>
+  </si>
+  <si>
+    <t>atone16wpn0gwepdalz0fnlq5nfy645wmwej2ctqmvyp</t>
+  </si>
+  <si>
+    <t>atone1602cse30jdmctgque3j8lc78w2frxzhnga4m5x</t>
+  </si>
+  <si>
+    <t>atone16j9m4s9hvz2ns2z6fk2s35egca5l6rw9rjupm8</t>
+  </si>
+  <si>
+    <t>atone166au0wp40n0p0yrj7vf9gce7yre3wyq0f7nmek</t>
+  </si>
+  <si>
+    <t>atone1mfq9n8ghfxga047m97wuvzp5t8t7ujxrmuwwzr</t>
+  </si>
+  <si>
+    <t>atone1mfje8fezn9mxc7dxnxzumr9kffhxtrn9xdggft</t>
+  </si>
+  <si>
+    <t>atone1m20wyugxnse56q2lfmm9txyk2fx39s6fq0l38r</t>
+  </si>
+  <si>
+    <t>atone1mhkuzfws4xgcpkq252nv22vtdk93j3xdyjt28l</t>
+  </si>
+  <si>
+    <t>atone1uznr6lmlyx66er4dvw54c7e25pyr0qg3at2q67</t>
+  </si>
+  <si>
+    <t>atone1ukt0nsy3drwzmm08ane6zarvmjpts27p0cxdls</t>
+  </si>
+  <si>
+    <t>atone1ucnzn86zszgjg8umz7ujzqvrcryxu46wjm3pfh</t>
+  </si>
+  <si>
+    <t>atone1uey077ygnn8zz78ce9g05vkzetf32er4vg50hj</t>
+  </si>
+  <si>
+    <t>atone1a3858f250ve4t6rp9ef2svpr7sj20aaxwlg6yk</t>
+  </si>
+  <si>
+    <t>atone17prz2ww2r89w8ds3nhjt32lf7rwu37enzh3tac</t>
+  </si>
+  <si>
+    <t>atone17zhqvql2khzue6kpmgmd9gz5m02j67vr53n24t</t>
+  </si>
+  <si>
+    <t>atone17yf8hsgezzhtl58gp3sqe7dcsj2wpqtzla05kh</t>
+  </si>
+  <si>
+    <t>atone17hr0kwjgklazhufht4sdpllmvm6047wd66z6s5</t>
+  </si>
+  <si>
+    <t>atone1lx2zuc7ls0rw0jf89y9366fg7w5l9clgu74lj3</t>
+  </si>
+  <si>
+    <t>atone1lx0my7kk7uy75y68r602ga62l7n8cwawxv8gts</t>
+  </si>
+  <si>
+    <t>atone1lft50ldy04u3szywhg38cnfpxfg7r548cx5ygl</t>
+  </si>
+  <si>
+    <t>atone1l2u72c838qe5yc2mn90an2cuqddehflm4hr07k</t>
+  </si>
+  <si>
+    <t>atone1ltdzw90gmtjslllkxz3a8mhw3lqyfuarl8z3vs</t>
+  </si>
+  <si>
+    <t>atone1l0tdzdyxsayestm8lu95xehgtc0s825pmq5rx5</t>
+  </si>
+  <si>
+    <t>atone1lul42lw2p4mv2mlte89cf4qnfg2jfduuz9syur</t>
+  </si>
+  <si>
+    <t>ъ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -279,11 +414,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -318,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -332,9 +462,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -569,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>8722.0</v>
+        <v>118436.0</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>4979.0</v>
+        <v>4969010.0</v>
       </c>
     </row>
     <row r="4">
@@ -585,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>11330.0</v>
+        <v>116947.0</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>281112.0</v>
+        <v>627844.0</v>
       </c>
     </row>
     <row r="6">
@@ -601,15 +734,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>37337.0</v>
-      </c>
+        <v>201349.0</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>15287.0</v>
+        <v>821833.0</v>
       </c>
     </row>
     <row r="8">
@@ -617,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>8907.0</v>
+        <v>184913.0</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>8907.0</v>
+        <v>452008.0</v>
       </c>
     </row>
     <row r="10">
@@ -633,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>8907.0</v>
+        <v>741710.0</v>
       </c>
     </row>
     <row r="11">
@@ -641,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>4505.0</v>
+        <v>419135.0</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>8085.0</v>
+        <v>410902.0</v>
       </c>
     </row>
     <row r="13">
@@ -657,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>123335.0</v>
+        <v>906446.0</v>
       </c>
     </row>
     <row r="14">
@@ -665,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>4505.0</v>
+        <v>1.1594649E7</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>4742.0</v>
+        <v>256034.0</v>
       </c>
     </row>
     <row r="16">
@@ -681,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>8922.0</v>
+        <v>205465.0</v>
       </c>
     </row>
     <row r="17">
@@ -689,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>8901.0</v>
+        <v>822777.0</v>
       </c>
     </row>
     <row r="18">
@@ -697,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>11584.0</v>
+        <v>308598.0</v>
       </c>
     </row>
     <row r="19">
@@ -705,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>7597.0</v>
+        <v>143821.0</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>4743.0</v>
+        <v>92456.0</v>
       </c>
     </row>
     <row r="21">
@@ -721,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>10262.0</v>
+        <v>164367.0</v>
       </c>
     </row>
     <row r="22">
@@ -729,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>16798.0</v>
+        <v>92045.0</v>
       </c>
     </row>
     <row r="23">
@@ -737,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>28740.0</v>
+        <v>707599.0</v>
       </c>
     </row>
     <row r="24">
@@ -745,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>27083.0</v>
+        <v>123614.0</v>
       </c>
     </row>
     <row r="25">
@@ -753,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>10551.0</v>
+        <v>410901.0</v>
       </c>
     </row>
     <row r="26">
@@ -761,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>7255.0</v>
+        <v>103467.0</v>
       </c>
     </row>
     <row r="27">
@@ -769,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>11877.0</v>
+        <v>89580.0</v>
       </c>
     </row>
     <row r="28">
@@ -777,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>10655.0</v>
+        <v>558310.0</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>8949.0</v>
+        <v>83411.0</v>
       </c>
     </row>
     <row r="30">
@@ -793,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>1663.0</v>
+        <v>410999.0</v>
       </c>
     </row>
     <row r="31">
@@ -801,7 +935,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4">
-        <v>5217.0</v>
+        <v>182858.0</v>
       </c>
     </row>
     <row r="32">
@@ -809,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4">
-        <v>3812.0</v>
+        <v>188801.0</v>
       </c>
     </row>
     <row r="33">
@@ -817,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4">
-        <v>9013.0</v>
+        <v>234592.0</v>
       </c>
     </row>
     <row r="34">
@@ -825,7 +959,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4">
-        <v>8939.0</v>
+        <v>91221.0</v>
       </c>
     </row>
     <row r="35">
@@ -833,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4">
-        <v>8931.0</v>
+        <v>123614.0</v>
       </c>
     </row>
     <row r="36">
@@ -841,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4">
-        <v>8907.0</v>
+        <v>90402.0</v>
       </c>
     </row>
     <row r="37">
@@ -849,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4">
-        <v>8892.0</v>
+        <v>205458.0</v>
       </c>
     </row>
     <row r="38">
@@ -857,7 +991,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4">
-        <v>7379.0</v>
+        <v>137725.0</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +999,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4">
-        <v>8933.0</v>
+        <v>205458.0</v>
       </c>
     </row>
     <row r="40">
@@ -873,7 +1007,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4">
-        <v>8907.0</v>
+        <v>400233.0</v>
       </c>
     </row>
     <row r="41">
@@ -881,7 +1015,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4">
-        <v>11054.0</v>
+        <v>246550.0</v>
       </c>
     </row>
     <row r="42">
@@ -889,7 +1023,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4">
-        <v>8830.0</v>
+        <v>229483.0</v>
       </c>
     </row>
     <row r="43">
@@ -897,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4">
-        <v>106606.0</v>
+        <v>229482.0</v>
       </c>
     </row>
     <row r="44">
@@ -905,7 +1039,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4">
-        <v>8909.0</v>
+        <v>205541.0</v>
       </c>
     </row>
     <row r="45">
@@ -913,7 +1047,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4">
-        <v>4505.0</v>
+        <v>2212992.0</v>
       </c>
     </row>
     <row r="46">
@@ -921,7 +1055,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4">
-        <v>10690.0</v>
+        <v>82594.0</v>
       </c>
     </row>
     <row r="47">
@@ -929,7 +1063,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4">
-        <v>12613.0</v>
+        <v>123432.0</v>
       </c>
     </row>
     <row r="48">
@@ -937,7 +1071,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4">
-        <v>8775.0</v>
+        <v>87037.0</v>
       </c>
     </row>
     <row r="49">
@@ -945,7 +1079,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4">
-        <v>4505.0</v>
+        <v>821819.0</v>
       </c>
     </row>
     <row r="50">
@@ -953,7 +1087,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4">
-        <v>11947.0</v>
+        <v>92045.0</v>
       </c>
     </row>
     <row r="51">
@@ -961,7 +1095,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4">
-        <v>8887.0</v>
+        <v>279881.0</v>
       </c>
     </row>
     <row r="52">
@@ -969,7 +1103,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4">
-        <v>9263.0</v>
+        <v>410901.0</v>
       </c>
     </row>
     <row r="53">
@@ -977,7 +1111,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4">
-        <v>8892.0</v>
+        <v>184913.0</v>
       </c>
     </row>
     <row r="54">
@@ -985,7 +1119,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4">
-        <v>9319.0</v>
+        <v>98039.0</v>
       </c>
     </row>
     <row r="55">
@@ -993,7 +1127,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4">
-        <v>5832.0</v>
+        <v>205458.0</v>
       </c>
     </row>
     <row r="56">
@@ -1001,7 +1135,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4">
-        <v>36170.0</v>
+        <v>174706.0</v>
       </c>
     </row>
     <row r="57">
@@ -1009,7 +1143,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4">
-        <v>11039.0</v>
+        <v>85471.0</v>
       </c>
     </row>
     <row r="58">
@@ -1017,7 +1151,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4">
-        <v>8932.0</v>
+        <v>164454.0</v>
       </c>
     </row>
     <row r="59">
@@ -1025,7 +1159,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4">
-        <v>14257.0</v>
+        <v>226004.0</v>
       </c>
     </row>
     <row r="60">
@@ -1033,7 +1167,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4">
-        <v>6734.0</v>
+        <v>164856.0</v>
       </c>
     </row>
     <row r="61">
@@ -1041,7 +1175,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4">
-        <v>4742.0</v>
+        <v>84751.0</v>
       </c>
     </row>
     <row r="62">
@@ -1049,7 +1183,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4">
-        <v>125807.0</v>
+        <v>613184.0</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1191,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4">
-        <v>29791.0</v>
+        <v>2.1674361E7</v>
       </c>
     </row>
     <row r="64">
@@ -1065,7 +1199,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4">
-        <v>8907.0</v>
+        <v>122065.0</v>
       </c>
     </row>
     <row r="65">
@@ -1073,7 +1207,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4">
-        <v>7754.0</v>
+        <v>457006.0</v>
       </c>
     </row>
     <row r="66">
@@ -1081,7 +1215,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4">
-        <v>10561.0</v>
+        <v>410901.0</v>
       </c>
     </row>
     <row r="67">
@@ -1089,7 +1223,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4">
-        <v>7769.0</v>
+        <v>147301.0</v>
       </c>
     </row>
     <row r="68">
@@ -1097,7 +1231,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4">
-        <v>8928.0</v>
+        <v>290148.0</v>
       </c>
     </row>
     <row r="69">
@@ -1105,7 +1239,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4">
-        <v>8897.0</v>
+        <v>143821.0</v>
       </c>
     </row>
     <row r="70">
@@ -1113,7 +1247,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4">
-        <v>8892.0</v>
+        <v>410917.0</v>
       </c>
     </row>
     <row r="71">
@@ -1121,7 +1255,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4">
-        <v>10987.0</v>
+        <v>188183.0</v>
       </c>
     </row>
     <row r="72">
@@ -1129,7 +1263,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4">
-        <v>8624.0</v>
+        <v>85893.0</v>
       </c>
     </row>
     <row r="73">
@@ -1137,7 +1271,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4">
-        <v>36158.0</v>
+        <v>229391.0</v>
       </c>
     </row>
     <row r="74">
@@ -1145,7 +1279,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4">
-        <v>89290.0</v>
+        <v>3090646.0</v>
       </c>
     </row>
     <row r="75">
@@ -1153,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4">
-        <v>34991.0</v>
+        <v>113457.0</v>
       </c>
     </row>
     <row r="76">
@@ -1161,7 +1295,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4">
-        <v>8998.0</v>
+        <v>3195699.0</v>
       </c>
     </row>
     <row r="77">
@@ -1169,7 +1303,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4">
-        <v>8907.0</v>
+        <v>1.6127759E7</v>
       </c>
     </row>
     <row r="78">
@@ -1177,7 +1311,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4">
-        <v>28740.0</v>
+        <v>167547.0</v>
       </c>
     </row>
     <row r="79">
@@ -1185,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4">
-        <v>16778.0</v>
+        <v>287070.0</v>
       </c>
     </row>
     <row r="80">
@@ -1193,7 +1327,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4">
-        <v>8939.0</v>
+        <v>360028.0</v>
       </c>
     </row>
     <row r="81">
@@ -1201,2765 +1335,3410 @@
         <v>81</v>
       </c>
       <c r="B81" s="4">
-        <v>19380.0</v>
+        <v>2.7635554E7</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5"/>
+      <c r="A82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="4">
+        <v>248605.0</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="5"/>
+      <c r="A83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="4">
+        <v>106124.0</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="5"/>
+      <c r="A84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="4">
+        <v>181210.0</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="5"/>
+      <c r="A85" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="4">
+        <v>766183.0</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="5"/>
+      <c r="A86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2023408.0</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="5"/>
+      <c r="A87" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="4">
+        <v>975684.0</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="5"/>
+      <c r="A88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="4">
+        <v>246550.0</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="5"/>
+      <c r="A89" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="4">
+        <v>103140.0</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="5"/>
+      <c r="A90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="4">
+        <v>123614.0</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="5"/>
+      <c r="A91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="4">
+        <v>206646.0</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="5"/>
+      <c r="A92" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1232750.0</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="5"/>
+      <c r="A93" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="4">
+        <v>410917.0</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="5"/>
+      <c r="A94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="4">
+        <v>188949.0</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="5"/>
+      <c r="A95" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="4">
+        <v>410902.0</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="5"/>
+      <c r="A96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="4">
+        <v>277933.0</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="5"/>
+      <c r="A97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="4">
+        <v>4520083.0</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="5"/>
+      <c r="A98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="4">
+        <v>84753.0</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="5"/>
+      <c r="A99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="4">
+        <v>205458.0</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
+      <c r="A100" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="4">
+        <v>229299.0</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="5"/>
+      <c r="A101" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="4">
+        <v>229369.0</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
+      <c r="A102" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="4">
+        <v>277940.0</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="5"/>
+      <c r="A103" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="4">
+        <v>103140.0</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="5"/>
+      <c r="A104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="4">
+        <v>217299.0</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="5"/>
+      <c r="A105" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="4">
+        <v>4428436.0</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="5"/>
+      <c r="A106" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="4">
+        <v>187288.0</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="5"/>
+      <c r="A107" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="4">
+        <v>123275.0</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="5"/>
+      <c r="A108" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="4">
+        <v>238365.0</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="5"/>
+      <c r="A109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="4">
+        <v>88347.0</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="5"/>
+      <c r="A110" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="4">
+        <v>821819.0</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="5"/>
+      <c r="A111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="4">
+        <v>98349.0</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="5"/>
+      <c r="A112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="4">
+        <v>86703.0</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="5"/>
+      <c r="A113" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="4">
+        <v>94909.0</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="5"/>
+      <c r="A114" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="4">
+        <v>86733.0</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="5"/>
+      <c r="A115" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="4">
+        <v>184913.0</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="5"/>
+      <c r="A116" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="4">
+        <v>259541.0</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="5"/>
+      <c r="A117" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1068383.0</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="5"/>
+      <c r="A118" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="4">
+        <v>206694.0</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="5"/>
+      <c r="A119" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="4">
+        <v>123432.0</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="5"/>
+      <c r="A120" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="4">
+        <v>176377.0</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="5"/>
+      <c r="A121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="4">
+        <v>823964.0</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="5"/>
+      <c r="A122" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="4">
+        <v>206452.0</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="5"/>
+      <c r="A123" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="4">
+        <v>91265.0</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="5"/>
+      <c r="A124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="4">
+        <v>4199255.0</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="5"/>
+      <c r="A125" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="4">
+        <v>528850.0</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="5"/>
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="5"/>
+      <c r="B127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="5"/>
+      <c r="B128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="5"/>
+      <c r="B129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="5"/>
+      <c r="B130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="5"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="5"/>
+      <c r="B132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="5"/>
+      <c r="B133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="5"/>
+      <c r="B134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="5"/>
+      <c r="B135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="5"/>
+      <c r="B136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="5"/>
+      <c r="B137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="5"/>
+      <c r="B138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="5"/>
+      <c r="B139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="5"/>
+      <c r="B140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="5"/>
+      <c r="B141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="5"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="5"/>
+      <c r="B143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="5"/>
+      <c r="B144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="5"/>
+      <c r="B145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="5"/>
+      <c r="B146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="5"/>
+      <c r="B147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="5"/>
+      <c r="B148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="5"/>
+      <c r="B149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="5"/>
+      <c r="B150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="5"/>
+      <c r="B151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="5"/>
+      <c r="B152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="5"/>
+      <c r="B153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="5"/>
+      <c r="B154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="5"/>
+      <c r="B155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="5"/>
+      <c r="B156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="5"/>
+      <c r="B157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="5"/>
+      <c r="B158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="5"/>
+      <c r="B159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="5"/>
+      <c r="B160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="5"/>
+      <c r="B161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="5"/>
+      <c r="B162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="5"/>
+      <c r="B163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="5"/>
+      <c r="B164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="5"/>
+      <c r="B165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="5"/>
+      <c r="B166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="5"/>
+      <c r="B167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="5"/>
+      <c r="B168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="5"/>
+      <c r="B169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="5"/>
+      <c r="B170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="5"/>
+      <c r="B171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="5"/>
+      <c r="B172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="5"/>
+      <c r="B173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="5"/>
+      <c r="B174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="5"/>
+      <c r="B175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="5"/>
+      <c r="B176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="5"/>
+      <c r="B177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="5"/>
+      <c r="B178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="5"/>
+      <c r="B179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="5"/>
+      <c r="B180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="5"/>
+      <c r="B181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="5"/>
+      <c r="B182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="5"/>
+      <c r="B183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="5"/>
+      <c r="B184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="5"/>
+      <c r="B185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="5"/>
+      <c r="B186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="5"/>
+      <c r="B187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="5"/>
+      <c r="B188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="5"/>
+      <c r="B189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="5"/>
+      <c r="B190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="5"/>
+      <c r="B191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="5"/>
+      <c r="B192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="5"/>
+      <c r="B193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="5"/>
+      <c r="B194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="5"/>
+      <c r="B195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="5"/>
+      <c r="B196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="5"/>
+      <c r="B197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="5"/>
+      <c r="B198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="5"/>
+      <c r="B199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="5"/>
+      <c r="B200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="5"/>
+      <c r="B201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="5"/>
+      <c r="B202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="5"/>
+      <c r="B203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="5"/>
+      <c r="B204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="5"/>
+      <c r="B205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="5"/>
+      <c r="B206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="5"/>
+      <c r="B207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="5"/>
+      <c r="B208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="5"/>
+      <c r="B209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="5"/>
+      <c r="B210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="5"/>
+      <c r="B211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="5"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="5"/>
+      <c r="B213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="5"/>
+      <c r="B214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="5"/>
+      <c r="B215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="5"/>
+      <c r="B216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="5"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="5"/>
+      <c r="B218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="5"/>
+      <c r="B219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="5"/>
+      <c r="B220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="5"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="5"/>
+      <c r="B222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="5"/>
+      <c r="B223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="5"/>
+      <c r="B224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="5"/>
+      <c r="B225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="5"/>
+      <c r="B226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="5"/>
+      <c r="B227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="5"/>
+      <c r="B228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="5"/>
+      <c r="B229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="5"/>
+      <c r="B230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="5"/>
+      <c r="B231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="5"/>
+      <c r="B232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="5"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="5"/>
+      <c r="B234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="5"/>
+      <c r="B235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="5"/>
+      <c r="B236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="5"/>
+      <c r="B237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="5"/>
+      <c r="B238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="5"/>
+      <c r="B239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="5"/>
+      <c r="B240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="5"/>
+      <c r="B241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="5"/>
+      <c r="B242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="5"/>
+      <c r="B243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="5"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="5"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="5"/>
+      <c r="B246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="5"/>
+      <c r="B247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="5"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="5"/>
+      <c r="B249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="5"/>
+      <c r="B250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="5"/>
+      <c r="B251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="5"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="5"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="5"/>
+      <c r="B254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="5"/>
+      <c r="B255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="5"/>
+      <c r="B256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="5"/>
+      <c r="B257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="5"/>
+      <c r="B258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="5"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="5"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="5"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="5"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="5"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="5"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="5"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="5"/>
+      <c r="B266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="5"/>
+      <c r="B267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="5"/>
+      <c r="B268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="5"/>
+      <c r="B269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="5"/>
+      <c r="B270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="5"/>
+      <c r="B271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="5"/>
+      <c r="B272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="5"/>
+      <c r="B273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="5"/>
+      <c r="B274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="5"/>
+      <c r="B275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="5"/>
+      <c r="B276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="5"/>
+      <c r="B277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="5"/>
+      <c r="B278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="5"/>
+      <c r="B279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="5"/>
+      <c r="B280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="5"/>
+      <c r="B281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="5"/>
+      <c r="B282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="5"/>
+      <c r="B283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="5"/>
+      <c r="B284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="5"/>
+      <c r="B285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="5"/>
+      <c r="B286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="5"/>
+      <c r="B287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="5"/>
+      <c r="B288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="5"/>
+      <c r="B289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="5"/>
+      <c r="B290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="5"/>
+      <c r="B291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="5"/>
+      <c r="B292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="5"/>
+      <c r="B293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="5"/>
+      <c r="B294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="5"/>
+      <c r="B295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="5"/>
+      <c r="B296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="5"/>
+      <c r="B297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="5"/>
+      <c r="B298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="5"/>
+      <c r="B299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="5"/>
+      <c r="B300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="5"/>
+      <c r="B301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="5"/>
+      <c r="B302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="5"/>
+      <c r="B303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="5"/>
+      <c r="B304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="5"/>
+      <c r="B305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="5"/>
+      <c r="B306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="5"/>
+      <c r="B307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="5"/>
+      <c r="B308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="5"/>
+      <c r="B309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="5"/>
+      <c r="B310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="5"/>
+      <c r="B311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="5"/>
+      <c r="B312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="5"/>
+      <c r="B313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="5"/>
+      <c r="B314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="5"/>
+      <c r="B315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="5"/>
+      <c r="B316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="5"/>
+      <c r="B317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="5"/>
+      <c r="B318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="5"/>
+      <c r="B319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="5"/>
+      <c r="B320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="5"/>
+      <c r="B321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="5"/>
+      <c r="B322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="5"/>
+      <c r="B323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="5"/>
+      <c r="B324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="5"/>
+      <c r="B325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="5"/>
+      <c r="B326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="5"/>
+      <c r="B327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="5"/>
+      <c r="B328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="5"/>
+      <c r="B329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="5"/>
+      <c r="B330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="5"/>
+      <c r="B331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="5"/>
+      <c r="B332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="5"/>
+      <c r="B333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="5"/>
+      <c r="B334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="5"/>
+      <c r="B335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="5"/>
+      <c r="B336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="5"/>
+      <c r="B337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="5"/>
+      <c r="B338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="5"/>
+      <c r="B339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="5"/>
+      <c r="B340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="5"/>
+      <c r="B341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="5"/>
+      <c r="B342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="5"/>
+      <c r="B343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="5"/>
+      <c r="B344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="5"/>
+      <c r="B345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="5"/>
+      <c r="B346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="5"/>
+      <c r="B347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="5"/>
+      <c r="B348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="5"/>
+      <c r="B349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="5"/>
+      <c r="B350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="5"/>
+      <c r="B351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="5"/>
+      <c r="B352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="5"/>
+      <c r="B353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="5"/>
+      <c r="B354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="5"/>
+      <c r="B355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="5"/>
+      <c r="B356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="5"/>
+      <c r="B357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="5"/>
+      <c r="B358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="5"/>
+      <c r="B359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="5"/>
+      <c r="B360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="5"/>
+      <c r="B361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="5"/>
+      <c r="B362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="5"/>
+      <c r="B363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="5"/>
+      <c r="B364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="5"/>
+      <c r="B365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="5"/>
+      <c r="B366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="5"/>
+      <c r="B367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="5"/>
+      <c r="B368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="5"/>
+      <c r="B369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="5"/>
+      <c r="B370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="5"/>
+      <c r="B371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="5"/>
+      <c r="B372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="5"/>
+      <c r="B373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="5"/>
+      <c r="B374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="5"/>
+      <c r="B375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="5"/>
+      <c r="B376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="5"/>
+      <c r="B377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="5"/>
+      <c r="B378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="5"/>
+      <c r="B379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="5"/>
+      <c r="B380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="5"/>
+      <c r="B381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="5"/>
+      <c r="B382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="5"/>
+      <c r="B383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="5"/>
+      <c r="B384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="5"/>
+      <c r="B385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="5"/>
+      <c r="B386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="5"/>
+      <c r="B387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="5"/>
+      <c r="B388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="5"/>
+      <c r="B389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="5"/>
+      <c r="B390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="5"/>
+      <c r="B391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="5"/>
+      <c r="B392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="5"/>
+      <c r="B393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="5"/>
+      <c r="B394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="5"/>
+      <c r="B395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="5"/>
+      <c r="B396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="5"/>
+      <c r="B397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="5"/>
+      <c r="B398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="5"/>
+      <c r="B399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="5"/>
+      <c r="B400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="5"/>
+      <c r="B401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="5"/>
+      <c r="B402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="5"/>
+      <c r="B403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="5"/>
+      <c r="B404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="5"/>
+      <c r="B405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="5"/>
+      <c r="B406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="5"/>
+      <c r="B407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="5"/>
+      <c r="B408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="5"/>
+      <c r="B409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="5"/>
+      <c r="B410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="5"/>
+      <c r="B411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="5"/>
+      <c r="B412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="5"/>
+      <c r="B413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="5"/>
+      <c r="B414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="5"/>
+      <c r="B415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="5"/>
+      <c r="B416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="5"/>
+      <c r="B417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="5"/>
+      <c r="B418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="5"/>
+      <c r="B419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="5"/>
+      <c r="B420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="5"/>
+      <c r="B421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="5"/>
+      <c r="B422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="5"/>
+      <c r="B423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="5"/>
+      <c r="B424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="5"/>
+      <c r="B425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="5"/>
+      <c r="B426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="5"/>
+      <c r="B427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="5"/>
+      <c r="B428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="5"/>
+      <c r="B429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="5"/>
+      <c r="B430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="5"/>
+      <c r="B431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="5"/>
+      <c r="B432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="5"/>
+      <c r="B433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="5"/>
+      <c r="B434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="5"/>
+      <c r="B435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="5"/>
+      <c r="B436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="5"/>
+      <c r="B437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="5"/>
+      <c r="B438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="5"/>
+      <c r="B439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="5"/>
+      <c r="B440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="5"/>
+      <c r="B441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="5"/>
+      <c r="B442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="5"/>
+      <c r="B443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="5"/>
+      <c r="B444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="5"/>
+      <c r="B445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="5"/>
+      <c r="B446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="5"/>
+      <c r="B447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="5"/>
+      <c r="B448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="5"/>
+      <c r="B449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="5"/>
+      <c r="B450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="5"/>
+      <c r="B451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="5"/>
+      <c r="B452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="5"/>
+      <c r="B453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="5"/>
+      <c r="B454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="5"/>
+      <c r="B455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="5"/>
+      <c r="B456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="5"/>
+      <c r="B457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="5"/>
+      <c r="B458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="5"/>
+      <c r="B459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="5"/>
+      <c r="B460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="5"/>
+      <c r="B461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="5"/>
+      <c r="B462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="5"/>
+      <c r="B463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="5"/>
+      <c r="B464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="5"/>
+      <c r="B465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="5"/>
+      <c r="B466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="5"/>
+      <c r="B467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="5"/>
+      <c r="B468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="5"/>
+      <c r="B469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="5"/>
+      <c r="B470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="5"/>
+      <c r="B471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="5"/>
+      <c r="B472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="5"/>
+      <c r="B473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="5"/>
+      <c r="B474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="5"/>
+      <c r="B475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="5"/>
+      <c r="B476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="5"/>
+      <c r="B477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="5"/>
+      <c r="B478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="5"/>
+      <c r="B479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="5"/>
+      <c r="B480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="5"/>
+      <c r="B481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="5"/>
+      <c r="B482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="5"/>
+      <c r="B483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="5"/>
+      <c r="B484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="5"/>
+      <c r="B485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="5"/>
+      <c r="B486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="5"/>
+      <c r="B487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="5"/>
+      <c r="B488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="5"/>
+      <c r="B489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="5"/>
+      <c r="B490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="5"/>
+      <c r="B491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="5"/>
+      <c r="B492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="5"/>
+      <c r="B493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="5"/>
+      <c r="B494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="5"/>
+      <c r="B495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="5"/>
+      <c r="B496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="5"/>
+      <c r="B497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="5"/>
+      <c r="B498" s="4"/>
     </row>
     <row r="499">
       <c r="A499" s="5"/>
+      <c r="B499" s="4"/>
     </row>
     <row r="500">
       <c r="A500" s="5"/>
+      <c r="B500" s="4"/>
     </row>
     <row r="501">
       <c r="A501" s="5"/>
+      <c r="B501" s="4"/>
     </row>
     <row r="502">
       <c r="A502" s="5"/>
+      <c r="B502" s="4"/>
     </row>
     <row r="503">
       <c r="A503" s="5"/>
+      <c r="B503" s="4"/>
     </row>
     <row r="504">
       <c r="A504" s="5"/>
+      <c r="B504" s="4"/>
     </row>
     <row r="505">
       <c r="A505" s="5"/>
+      <c r="B505" s="4"/>
     </row>
     <row r="506">
       <c r="A506" s="5"/>
+      <c r="B506" s="4"/>
     </row>
     <row r="507">
       <c r="A507" s="5"/>
+      <c r="B507" s="4"/>
     </row>
     <row r="508">
       <c r="A508" s="5"/>
+      <c r="B508" s="4"/>
     </row>
     <row r="509">
       <c r="A509" s="5"/>
+      <c r="B509" s="4"/>
     </row>
     <row r="510">
       <c r="A510" s="5"/>
+      <c r="B510" s="4"/>
     </row>
     <row r="511">
       <c r="A511" s="5"/>
+      <c r="B511" s="4"/>
     </row>
     <row r="512">
       <c r="A512" s="5"/>
+      <c r="B512" s="4"/>
     </row>
     <row r="513">
       <c r="A513" s="5"/>
+      <c r="B513" s="4"/>
     </row>
     <row r="514">
       <c r="A514" s="5"/>
+      <c r="B514" s="4"/>
     </row>
     <row r="515">
       <c r="A515" s="5"/>
+      <c r="B515" s="4"/>
     </row>
     <row r="516">
       <c r="A516" s="5"/>
+      <c r="B516" s="4"/>
     </row>
     <row r="517">
       <c r="A517" s="5"/>
+      <c r="B517" s="4"/>
     </row>
     <row r="518">
       <c r="A518" s="5"/>
+      <c r="B518" s="4"/>
     </row>
     <row r="519">
       <c r="A519" s="5"/>
+      <c r="B519" s="4"/>
     </row>
     <row r="520">
       <c r="A520" s="5"/>
+      <c r="B520" s="4"/>
     </row>
     <row r="521">
       <c r="A521" s="5"/>
+      <c r="B521" s="4"/>
     </row>
     <row r="522">
       <c r="A522" s="5"/>
+      <c r="B522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="5"/>
+      <c r="B523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="5"/>
+      <c r="B524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="5"/>
+      <c r="B525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="5"/>
+      <c r="B526" s="4"/>
     </row>
     <row r="527">
       <c r="A527" s="5"/>
+      <c r="B527" s="4"/>
     </row>
     <row r="528">
       <c r="A528" s="5"/>
+      <c r="B528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="5"/>
+      <c r="B529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="5"/>
+      <c r="B530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="5"/>
+      <c r="B531" s="4"/>
     </row>
     <row r="532">
       <c r="A532" s="5"/>
+      <c r="B532" s="4"/>
     </row>
     <row r="533">
       <c r="A533" s="5"/>
+      <c r="B533" s="4"/>
     </row>
     <row r="534">
       <c r="A534" s="5"/>
+      <c r="B534" s="4"/>
     </row>
     <row r="535">
       <c r="A535" s="5"/>
+      <c r="B535" s="4"/>
     </row>
     <row r="536">
       <c r="A536" s="5"/>
+      <c r="B536" s="4"/>
     </row>
     <row r="537">
       <c r="A537" s="5"/>
+      <c r="B537" s="4"/>
     </row>
     <row r="538">
       <c r="A538" s="5"/>
+      <c r="B538" s="4"/>
     </row>
     <row r="539">
       <c r="A539" s="5"/>
+      <c r="B539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="5"/>
+      <c r="B540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="5"/>
+      <c r="B541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="5"/>
+      <c r="B542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="5"/>
+      <c r="B543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="5"/>
+      <c r="B544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="5"/>
+      <c r="B545" s="4"/>
     </row>
     <row r="546">
       <c r="A546" s="5"/>
+      <c r="B546" s="4"/>
     </row>
     <row r="547">
       <c r="A547" s="5"/>
+      <c r="B547" s="4"/>
     </row>
     <row r="548">
       <c r="A548" s="5"/>
+      <c r="B548" s="4"/>
     </row>
     <row r="549">
       <c r="A549" s="5"/>
+      <c r="B549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="5"/>
+      <c r="B550" s="4"/>
     </row>
     <row r="551">
       <c r="A551" s="5"/>
+      <c r="B551" s="4"/>
     </row>
     <row r="552">
       <c r="A552" s="5"/>
+      <c r="B552" s="4"/>
     </row>
     <row r="553">
       <c r="A553" s="5"/>
+      <c r="B553" s="4"/>
     </row>
     <row r="554">
       <c r="A554" s="5"/>
+      <c r="B554" s="4"/>
     </row>
     <row r="555">
       <c r="A555" s="5"/>
+      <c r="B555" s="4"/>
     </row>
     <row r="556">
       <c r="A556" s="5"/>
+      <c r="B556" s="4"/>
     </row>
     <row r="557">
       <c r="A557" s="5"/>
+      <c r="B557" s="4"/>
     </row>
     <row r="558">
       <c r="A558" s="5"/>
+      <c r="B558" s="4"/>
     </row>
     <row r="559">
       <c r="A559" s="5"/>
+      <c r="B559" s="4"/>
     </row>
     <row r="560">
       <c r="A560" s="5"/>
+      <c r="B560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="5"/>
+      <c r="B561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="5"/>
+      <c r="B562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="5"/>
+      <c r="B563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="5"/>
+      <c r="B564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="5"/>
+      <c r="B565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="5"/>
+      <c r="B566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="5"/>
+      <c r="B567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="5"/>
+      <c r="B568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="5"/>
+      <c r="B569" s="4"/>
     </row>
     <row r="570">
       <c r="A570" s="5"/>
+      <c r="B570" s="4"/>
     </row>
     <row r="571">
       <c r="A571" s="5"/>
+      <c r="B571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="5"/>
+      <c r="B572" s="4"/>
     </row>
     <row r="573">
       <c r="A573" s="5"/>
+      <c r="B573" s="4"/>
     </row>
     <row r="574">
       <c r="A574" s="5"/>
+      <c r="B574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="5"/>
+      <c r="B575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="5"/>
+      <c r="B576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="5"/>
+      <c r="B577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="5"/>
+      <c r="B578" s="4"/>
     </row>
     <row r="579">
       <c r="A579" s="5"/>
+      <c r="B579" s="4"/>
     </row>
     <row r="580">
       <c r="A580" s="5"/>
+      <c r="B580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="5"/>
+      <c r="B581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="5"/>
+      <c r="B582" s="4"/>
     </row>
     <row r="583">
       <c r="A583" s="5"/>
+      <c r="B583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="5"/>
+      <c r="B584" s="4"/>
     </row>
     <row r="585">
       <c r="A585" s="5"/>
+      <c r="B585" s="4"/>
     </row>
     <row r="586">
       <c r="A586" s="5"/>
+      <c r="B586" s="4"/>
     </row>
     <row r="587">
       <c r="A587" s="5"/>
+      <c r="B587" s="4"/>
     </row>
     <row r="588">
       <c r="A588" s="5"/>
+      <c r="B588" s="4"/>
     </row>
     <row r="589">
       <c r="A589" s="5"/>
+      <c r="B589" s="4"/>
     </row>
     <row r="590">
       <c r="A590" s="5"/>
+      <c r="B590" s="4"/>
     </row>
     <row r="591">
       <c r="A591" s="5"/>
+      <c r="B591" s="4"/>
     </row>
     <row r="592">
       <c r="A592" s="5"/>
+      <c r="B592" s="4"/>
     </row>
     <row r="593">
       <c r="A593" s="5"/>
+      <c r="B593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="5"/>
+      <c r="B594" s="4"/>
     </row>
     <row r="595">
       <c r="A595" s="5"/>
+      <c r="B595" s="4"/>
     </row>
     <row r="596">
       <c r="A596" s="5"/>
+      <c r="B596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="5"/>
+      <c r="B597" s="4"/>
     </row>
     <row r="598">
       <c r="A598" s="5"/>
+      <c r="B598" s="4"/>
     </row>
     <row r="599">
       <c r="A599" s="5"/>
+      <c r="B599" s="4"/>
     </row>
     <row r="600">
       <c r="A600" s="5"/>
+      <c r="B600" s="4"/>
     </row>
     <row r="601">
       <c r="A601" s="5"/>
+      <c r="B601" s="4"/>
     </row>
     <row r="602">
       <c r="A602" s="5"/>
+      <c r="B602" s="4"/>
     </row>
     <row r="603">
       <c r="A603" s="5"/>
+      <c r="B603" s="4"/>
     </row>
     <row r="604">
       <c r="A604" s="5"/>
+      <c r="B604" s="4"/>
     </row>
     <row r="605">
       <c r="A605" s="5"/>
+      <c r="B605" s="4"/>
     </row>
     <row r="606">
       <c r="A606" s="5"/>
+      <c r="B606" s="4"/>
     </row>
     <row r="607">
       <c r="A607" s="5"/>
+      <c r="B607" s="4"/>
     </row>
     <row r="608">
       <c r="A608" s="5"/>
+      <c r="B608" s="4"/>
     </row>
     <row r="609">
       <c r="A609" s="5"/>
+      <c r="B609" s="4"/>
     </row>
     <row r="610">
       <c r="A610" s="5"/>
+      <c r="B610" s="4"/>
     </row>
     <row r="611">
       <c r="A611" s="5"/>
+      <c r="B611" s="4"/>
     </row>
     <row r="612">
       <c r="A612" s="5"/>
+      <c r="B612" s="4"/>
     </row>
     <row r="613">
       <c r="A613" s="5"/>
+      <c r="B613" s="4"/>
     </row>
     <row r="614">
       <c r="A614" s="5"/>
+      <c r="B614" s="4"/>
     </row>
     <row r="615">
       <c r="A615" s="5"/>
+      <c r="B615" s="4"/>
     </row>
     <row r="616">
       <c r="A616" s="5"/>
+      <c r="B616" s="4"/>
     </row>
     <row r="617">
       <c r="A617" s="5"/>
+      <c r="B617" s="4"/>
     </row>
     <row r="618">
       <c r="A618" s="5"/>
+      <c r="B618" s="4"/>
     </row>
     <row r="619">
       <c r="A619" s="5"/>
+      <c r="B619" s="4"/>
     </row>
     <row r="620">
       <c r="A620" s="5"/>
+      <c r="B620" s="4"/>
     </row>
     <row r="621">
       <c r="A621" s="5"/>
+      <c r="B621" s="4"/>
     </row>
     <row r="622">
       <c r="A622" s="5"/>
+      <c r="B622" s="4"/>
     </row>
     <row r="623">
       <c r="A623" s="5"/>
+      <c r="B623" s="4"/>
     </row>
     <row r="624">
       <c r="A624" s="5"/>
+      <c r="B624" s="4"/>
     </row>
     <row r="625">
       <c r="A625" s="5"/>
+      <c r="B625" s="4"/>
     </row>
     <row r="626">
       <c r="A626" s="5"/>
+      <c r="B626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="5"/>
+      <c r="B627" s="4"/>
     </row>
     <row r="628">
       <c r="A628" s="5"/>
+      <c r="B628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="5"/>
+      <c r="B629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="5"/>
+      <c r="B630" s="4"/>
     </row>
     <row r="631">
       <c r="A631" s="5"/>
+      <c r="B631" s="4"/>
     </row>
     <row r="632">
       <c r="A632" s="5"/>
+      <c r="B632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="5"/>
+      <c r="B633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="5"/>
+      <c r="B634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="5"/>
+      <c r="B635" s="4"/>
     </row>
     <row r="636">
       <c r="A636" s="5"/>
+      <c r="B636" s="4"/>
     </row>
     <row r="637">
       <c r="A637" s="5"/>
+      <c r="B637" s="4"/>
     </row>
     <row r="638">
       <c r="A638" s="5"/>
+      <c r="B638" s="4"/>
     </row>
     <row r="639">
-      <c r="A639" s="5"/>
+      <c r="A639" s="6"/>
     </row>
     <row r="640">
-      <c r="A640" s="5"/>
+      <c r="A640" s="6"/>
     </row>
     <row r="641">
-      <c r="A641" s="5"/>
+      <c r="A641" s="6"/>
     </row>
     <row r="642">
-      <c r="A642" s="5"/>
+      <c r="A642" s="6"/>
     </row>
     <row r="643">
-      <c r="A643" s="5"/>
+      <c r="A643" s="6"/>
     </row>
     <row r="644">
-      <c r="A644" s="5"/>
+      <c r="A644" s="6"/>
     </row>
     <row r="645">
-      <c r="A645" s="5"/>
+      <c r="A645" s="6"/>
     </row>
     <row r="646">
-      <c r="A646" s="5"/>
+      <c r="A646" s="6"/>
     </row>
     <row r="647">
-      <c r="A647" s="5"/>
+      <c r="A647" s="6"/>
     </row>
     <row r="648">
-      <c r="A648" s="5"/>
+      <c r="A648" s="6"/>
     </row>
     <row r="649">
-      <c r="A649" s="5"/>
+      <c r="A649" s="6"/>
     </row>
     <row r="650">
-      <c r="A650" s="5"/>
+      <c r="A650" s="6"/>
     </row>
     <row r="651">
-      <c r="A651" s="5"/>
+      <c r="A651" s="6"/>
     </row>
     <row r="652">
-      <c r="A652" s="5"/>
+      <c r="A652" s="6"/>
     </row>
     <row r="653">
-      <c r="A653" s="5"/>
+      <c r="A653" s="6"/>
     </row>
     <row r="654">
-      <c r="A654" s="5"/>
+      <c r="A654" s="6"/>
     </row>
     <row r="655">
-      <c r="A655" s="5"/>
+      <c r="A655" s="6"/>
     </row>
     <row r="656">
-      <c r="A656" s="5"/>
+      <c r="A656" s="6"/>
     </row>
     <row r="657">
-      <c r="A657" s="5"/>
+      <c r="A657" s="6"/>
     </row>
     <row r="658">
-      <c r="A658" s="5"/>
+      <c r="A658" s="6"/>
     </row>
     <row r="659">
-      <c r="A659" s="5"/>
+      <c r="A659" s="6"/>
     </row>
     <row r="660">
-      <c r="A660" s="5"/>
+      <c r="A660" s="6"/>
     </row>
     <row r="661">
-      <c r="A661" s="5"/>
+      <c r="A661" s="6"/>
     </row>
     <row r="662">
-      <c r="A662" s="5"/>
+      <c r="A662" s="6"/>
     </row>
     <row r="663">
-      <c r="A663" s="5"/>
+      <c r="A663" s="6"/>
     </row>
     <row r="664">
-      <c r="A664" s="5"/>
+      <c r="A664" s="6"/>
     </row>
     <row r="665">
-      <c r="A665" s="5"/>
+      <c r="A665" s="6"/>
     </row>
     <row r="666">
-      <c r="A666" s="5"/>
+      <c r="A666" s="6"/>
     </row>
     <row r="667">
-      <c r="A667" s="5"/>
+      <c r="A667" s="6"/>
     </row>
     <row r="668">
-      <c r="A668" s="5"/>
+      <c r="A668" s="6"/>
     </row>
     <row r="669">
-      <c r="A669" s="5"/>
+      <c r="A669" s="6"/>
     </row>
     <row r="670">
-      <c r="A670" s="5"/>
+      <c r="A670" s="6"/>
     </row>
     <row r="671">
-      <c r="A671" s="5"/>
+      <c r="A671" s="6"/>
     </row>
     <row r="672">
-      <c r="A672" s="5"/>
+      <c r="A672" s="6"/>
     </row>
     <row r="673">
-      <c r="A673" s="5"/>
+      <c r="A673" s="6"/>
     </row>
     <row r="674">
-      <c r="A674" s="5"/>
+      <c r="A674" s="6"/>
     </row>
     <row r="675">
-      <c r="A675" s="5"/>
+      <c r="A675" s="6"/>
     </row>
     <row r="676">
-      <c r="A676" s="5"/>
+      <c r="A676" s="6"/>
     </row>
     <row r="677">
-      <c r="A677" s="5"/>
+      <c r="A677" s="6"/>
     </row>
     <row r="678">
-      <c r="A678" s="5"/>
+      <c r="A678" s="6"/>
     </row>
     <row r="679">
-      <c r="A679" s="5"/>
+      <c r="A679" s="6"/>
     </row>
     <row r="680">
-      <c r="A680" s="5"/>
+      <c r="A680" s="6"/>
     </row>
     <row r="681">
-      <c r="A681" s="5"/>
+      <c r="A681" s="6"/>
     </row>
     <row r="682">
-      <c r="A682" s="5"/>
+      <c r="A682" s="6"/>
     </row>
     <row r="683">
-      <c r="A683" s="5"/>
+      <c r="A683" s="6"/>
     </row>
     <row r="684">
-      <c r="A684" s="5"/>
+      <c r="A684" s="6"/>
     </row>
     <row r="685">
-      <c r="A685" s="5"/>
+      <c r="A685" s="6"/>
     </row>
     <row r="686">
-      <c r="A686" s="5"/>
+      <c r="A686" s="6"/>
     </row>
     <row r="687">
-      <c r="A687" s="5"/>
+      <c r="A687" s="6"/>
     </row>
     <row r="688">
-      <c r="A688" s="5"/>
+      <c r="A688" s="6"/>
     </row>
     <row r="689">
-      <c r="A689" s="5"/>
+      <c r="A689" s="6"/>
     </row>
     <row r="690">
-      <c r="A690" s="5"/>
+      <c r="A690" s="6"/>
     </row>
     <row r="691">
-      <c r="A691" s="5"/>
+      <c r="A691" s="6"/>
     </row>
     <row r="692">
-      <c r="A692" s="5"/>
+      <c r="A692" s="6"/>
     </row>
     <row r="693">
-      <c r="A693" s="5"/>
+      <c r="A693" s="6"/>
     </row>
     <row r="694">
-      <c r="A694" s="5"/>
+      <c r="A694" s="6"/>
     </row>
     <row r="695">
-      <c r="A695" s="5"/>
+      <c r="A695" s="6"/>
     </row>
     <row r="696">
-      <c r="A696" s="5"/>
+      <c r="A696" s="6"/>
     </row>
     <row r="697">
-      <c r="A697" s="5"/>
+      <c r="A697" s="6"/>
     </row>
     <row r="698">
-      <c r="A698" s="5"/>
+      <c r="A698" s="6"/>
     </row>
     <row r="699">
-      <c r="A699" s="5"/>
+      <c r="A699" s="6"/>
     </row>
     <row r="700">
-      <c r="A700" s="5"/>
+      <c r="A700" s="6"/>
     </row>
     <row r="701">
-      <c r="A701" s="5"/>
+      <c r="A701" s="6"/>
     </row>
     <row r="702">
-      <c r="A702" s="5"/>
+      <c r="A702" s="6"/>
     </row>
     <row r="703">
-      <c r="A703" s="5"/>
+      <c r="A703" s="6"/>
     </row>
     <row r="704">
-      <c r="A704" s="5"/>
+      <c r="A704" s="6"/>
     </row>
     <row r="705">
-      <c r="A705" s="5"/>
+      <c r="A705" s="6"/>
     </row>
     <row r="706">
-      <c r="A706" s="5"/>
+      <c r="A706" s="6"/>
     </row>
     <row r="707">
-      <c r="A707" s="5"/>
+      <c r="A707" s="6"/>
     </row>
     <row r="708">
-      <c r="A708" s="5"/>
+      <c r="A708" s="6"/>
     </row>
     <row r="709">
-      <c r="A709" s="5"/>
+      <c r="A709" s="6"/>
     </row>
     <row r="710">
-      <c r="A710" s="5"/>
+      <c r="A710" s="6"/>
     </row>
     <row r="711">
-      <c r="A711" s="5"/>
+      <c r="A711" s="6"/>
     </row>
     <row r="712">
-      <c r="A712" s="5"/>
+      <c r="A712" s="6"/>
     </row>
     <row r="713">
-      <c r="A713" s="5"/>
+      <c r="A713" s="6"/>
     </row>
     <row r="714">
-      <c r="A714" s="5"/>
+      <c r="A714" s="6"/>
     </row>
     <row r="715">
-      <c r="A715" s="5"/>
+      <c r="A715" s="6"/>
     </row>
     <row r="716">
-      <c r="A716" s="5"/>
+      <c r="A716" s="6"/>
     </row>
     <row r="717">
-      <c r="A717" s="5"/>
+      <c r="A717" s="6"/>
     </row>
     <row r="718">
-      <c r="A718" s="5"/>
+      <c r="A718" s="6"/>
     </row>
     <row r="719">
-      <c r="A719" s="5"/>
+      <c r="A719" s="6"/>
     </row>
     <row r="720">
-      <c r="A720" s="5"/>
+      <c r="A720" s="6"/>
     </row>
     <row r="721">
-      <c r="A721" s="5"/>
+      <c r="A721" s="6"/>
     </row>
     <row r="722">
-      <c r="A722" s="5"/>
+      <c r="A722" s="6"/>
     </row>
     <row r="723">
-      <c r="A723" s="5"/>
+      <c r="A723" s="6"/>
     </row>
     <row r="724">
-      <c r="A724" s="5"/>
+      <c r="A724" s="6"/>
     </row>
     <row r="725">
-      <c r="A725" s="5"/>
+      <c r="A725" s="6"/>
     </row>
     <row r="726">
-      <c r="A726" s="5"/>
+      <c r="A726" s="6"/>
     </row>
     <row r="727">
-      <c r="A727" s="5"/>
+      <c r="A727" s="6"/>
     </row>
     <row r="728">
-      <c r="A728" s="5"/>
+      <c r="A728" s="6"/>
     </row>
     <row r="729">
-      <c r="A729" s="5"/>
+      <c r="A729" s="6"/>
     </row>
     <row r="730">
-      <c r="A730" s="5"/>
+      <c r="A730" s="6"/>
     </row>
     <row r="731">
-      <c r="A731" s="5"/>
+      <c r="A731" s="6"/>
     </row>
     <row r="732">
-      <c r="A732" s="5"/>
+      <c r="A732" s="6"/>
     </row>
     <row r="733">
-      <c r="A733" s="5"/>
+      <c r="A733" s="6"/>
     </row>
     <row r="734">
-      <c r="A734" s="5"/>
+      <c r="A734" s="6"/>
     </row>
     <row r="735">
-      <c r="A735" s="5"/>
+      <c r="A735" s="6"/>
     </row>
     <row r="736">
-      <c r="A736" s="5"/>
+      <c r="A736" s="6"/>
     </row>
     <row r="737">
-      <c r="A737" s="5"/>
+      <c r="A737" s="6"/>
     </row>
     <row r="738">
-      <c r="A738" s="5"/>
+      <c r="A738" s="6"/>
     </row>
     <row r="739">
-      <c r="A739" s="5"/>
+      <c r="A739" s="6"/>
     </row>
     <row r="740">
-      <c r="A740" s="5"/>
+      <c r="A740" s="6"/>
     </row>
     <row r="741">
-      <c r="A741" s="5"/>
+      <c r="A741" s="6"/>
     </row>
     <row r="742">
-      <c r="A742" s="5"/>
+      <c r="A742" s="6"/>
     </row>
     <row r="743">
-      <c r="A743" s="5"/>
+      <c r="A743" s="6"/>
     </row>
     <row r="744">
-      <c r="A744" s="5"/>
+      <c r="A744" s="6"/>
     </row>
     <row r="745">
-      <c r="A745" s="5"/>
+      <c r="A745" s="6"/>
     </row>
     <row r="746">
-      <c r="A746" s="5"/>
+      <c r="A746" s="6"/>
     </row>
     <row r="747">
-      <c r="A747" s="5"/>
+      <c r="A747" s="6"/>
     </row>
     <row r="748">
-      <c r="A748" s="5"/>
+      <c r="A748" s="6"/>
     </row>
     <row r="749">
-      <c r="A749" s="5"/>
+      <c r="A749" s="6"/>
     </row>
     <row r="750">
-      <c r="A750" s="5"/>
+      <c r="A750" s="6"/>
     </row>
     <row r="751">
-      <c r="A751" s="5"/>
+      <c r="A751" s="6"/>
     </row>
     <row r="752">
-      <c r="A752" s="5"/>
+      <c r="A752" s="6"/>
     </row>
     <row r="753">
-      <c r="A753" s="5"/>
+      <c r="A753" s="6"/>
     </row>
     <row r="754">
-      <c r="A754" s="5"/>
+      <c r="A754" s="6"/>
     </row>
     <row r="755">
-      <c r="A755" s="5"/>
+      <c r="A755" s="6"/>
     </row>
     <row r="756">
-      <c r="A756" s="5"/>
+      <c r="A756" s="6"/>
     </row>
     <row r="757">
-      <c r="A757" s="5"/>
+      <c r="A757" s="6"/>
     </row>
     <row r="758">
-      <c r="A758" s="5"/>
+      <c r="A758" s="6"/>
     </row>
     <row r="759">
-      <c r="A759" s="5"/>
+      <c r="A759" s="6"/>
     </row>
     <row r="760">
-      <c r="A760" s="5"/>
+      <c r="A760" s="6"/>
     </row>
     <row r="761">
-      <c r="A761" s="5"/>
+      <c r="A761" s="6"/>
     </row>
     <row r="762">
-      <c r="A762" s="5"/>
+      <c r="A762" s="6"/>
     </row>
     <row r="763">
-      <c r="A763" s="5"/>
+      <c r="A763" s="6"/>
     </row>
     <row r="764">
-      <c r="A764" s="5"/>
+      <c r="A764" s="6"/>
     </row>
     <row r="765">
-      <c r="A765" s="5"/>
+      <c r="A765" s="6"/>
     </row>
     <row r="766">
-      <c r="A766" s="5"/>
+      <c r="A766" s="6"/>
     </row>
     <row r="767">
-      <c r="A767" s="5"/>
+      <c r="A767" s="6"/>
     </row>
     <row r="768">
-      <c r="A768" s="5"/>
+      <c r="A768" s="6"/>
     </row>
     <row r="769">
-      <c r="A769" s="5"/>
+      <c r="A769" s="6"/>
     </row>
     <row r="770">
-      <c r="A770" s="5"/>
+      <c r="A770" s="6"/>
     </row>
     <row r="771">
-      <c r="A771" s="5"/>
+      <c r="A771" s="6"/>
     </row>
     <row r="772">
-      <c r="A772" s="5"/>
+      <c r="A772" s="6"/>
     </row>
     <row r="773">
-      <c r="A773" s="5"/>
+      <c r="A773" s="6"/>
     </row>
     <row r="774">
-      <c r="A774" s="5"/>
+      <c r="A774" s="6"/>
     </row>
     <row r="775">
-      <c r="A775" s="5"/>
+      <c r="A775" s="6"/>
     </row>
     <row r="776">
-      <c r="A776" s="5"/>
+      <c r="A776" s="6"/>
     </row>
     <row r="777">
-      <c r="A777" s="5"/>
+      <c r="A777" s="6"/>
     </row>
     <row r="778">
-      <c r="A778" s="5"/>
+      <c r="A778" s="6"/>
     </row>
     <row r="779">
-      <c r="A779" s="5"/>
+      <c r="A779" s="6"/>
     </row>
     <row r="780">
-      <c r="A780" s="5"/>
+      <c r="A780" s="6"/>
     </row>
     <row r="781">
-      <c r="A781" s="5"/>
+      <c r="A781" s="6"/>
     </row>
     <row r="782">
-      <c r="A782" s="5"/>
+      <c r="A782" s="6"/>
     </row>
     <row r="783">
-      <c r="A783" s="5"/>
+      <c r="A783" s="6"/>
     </row>
     <row r="784">
-      <c r="A784" s="5"/>
+      <c r="A784" s="6"/>
     </row>
     <row r="785">
-      <c r="A785" s="5"/>
+      <c r="A785" s="6"/>
     </row>
     <row r="786">
-      <c r="A786" s="5"/>
+      <c r="A786" s="6"/>
     </row>
     <row r="787">
-      <c r="A787" s="5"/>
+      <c r="A787" s="6"/>
     </row>
     <row r="788">
-      <c r="A788" s="5"/>
+      <c r="A788" s="6"/>
     </row>
     <row r="789">
-      <c r="A789" s="5"/>
+      <c r="A789" s="6"/>
     </row>
     <row r="790">
-      <c r="A790" s="5"/>
+      <c r="A790" s="6"/>
     </row>
     <row r="791">
-      <c r="A791" s="5"/>
+      <c r="A791" s="6"/>
     </row>
     <row r="792">
-      <c r="A792" s="5"/>
+      <c r="A792" s="6"/>
     </row>
     <row r="793">
-      <c r="A793" s="5"/>
+      <c r="A793" s="6"/>
     </row>
     <row r="794">
-      <c r="A794" s="5"/>
+      <c r="A794" s="6"/>
     </row>
     <row r="795">
-      <c r="A795" s="5"/>
+      <c r="A795" s="6"/>
     </row>
     <row r="796">
-      <c r="A796" s="5"/>
+      <c r="A796" s="6"/>
     </row>
     <row r="797">
-      <c r="A797" s="5"/>
+      <c r="A797" s="6"/>
     </row>
     <row r="798">
-      <c r="A798" s="5"/>
+      <c r="A798" s="6"/>
     </row>
     <row r="799">
-      <c r="A799" s="5"/>
+      <c r="A799" s="6"/>
     </row>
     <row r="800">
-      <c r="A800" s="5"/>
+      <c r="A800" s="6"/>
     </row>
     <row r="801">
-      <c r="A801" s="5"/>
+      <c r="A801" s="6"/>
     </row>
     <row r="802">
-      <c r="A802" s="5"/>
+      <c r="A802" s="6"/>
     </row>
     <row r="803">
-      <c r="A803" s="5"/>
+      <c r="A803" s="6"/>
     </row>
     <row r="804">
-      <c r="A804" s="5"/>
+      <c r="A804" s="6"/>
     </row>
     <row r="805">
-      <c r="A805" s="5"/>
+      <c r="A805" s="6"/>
     </row>
     <row r="806">
-      <c r="A806" s="5"/>
+      <c r="A806" s="6"/>
     </row>
     <row r="807">
-      <c r="A807" s="5"/>
+      <c r="A807" s="6"/>
     </row>
     <row r="808">
-      <c r="A808" s="5"/>
+      <c r="A808" s="6"/>
     </row>
     <row r="809">
-      <c r="A809" s="5"/>
+      <c r="A809" s="6"/>
     </row>
     <row r="810">
-      <c r="A810" s="5"/>
+      <c r="A810" s="6"/>
     </row>
     <row r="811">
-      <c r="A811" s="5"/>
+      <c r="A811" s="6"/>
     </row>
     <row r="812">
-      <c r="A812" s="5"/>
+      <c r="A812" s="6"/>
     </row>
     <row r="813">
-      <c r="A813" s="5"/>
+      <c r="A813" s="6"/>
     </row>
     <row r="814">
-      <c r="A814" s="5"/>
+      <c r="A814" s="6"/>
     </row>
     <row r="815">
-      <c r="A815" s="5"/>
+      <c r="A815" s="6"/>
     </row>
     <row r="816">
-      <c r="A816" s="5"/>
+      <c r="A816" s="6"/>
     </row>
     <row r="817">
-      <c r="A817" s="5"/>
+      <c r="A817" s="6"/>
     </row>
     <row r="818">
-      <c r="A818" s="5"/>
+      <c r="A818" s="6"/>
     </row>
     <row r="819">
-      <c r="A819" s="5"/>
+      <c r="A819" s="6"/>
     </row>
     <row r="820">
-      <c r="A820" s="5"/>
+      <c r="A820" s="6"/>
     </row>
     <row r="821">
-      <c r="A821" s="5"/>
+      <c r="A821" s="6"/>
     </row>
     <row r="822">
-      <c r="A822" s="5"/>
+      <c r="A822" s="6"/>
     </row>
     <row r="823">
-      <c r="A823" s="5"/>
+      <c r="A823" s="6"/>
     </row>
     <row r="824">
-      <c r="A824" s="5"/>
+      <c r="A824" s="6"/>
     </row>
     <row r="825">
-      <c r="A825" s="5"/>
+      <c r="A825" s="6"/>
     </row>
     <row r="826">
-      <c r="A826" s="5"/>
+      <c r="A826" s="6"/>
     </row>
     <row r="827">
-      <c r="A827" s="5"/>
+      <c r="A827" s="6"/>
     </row>
     <row r="828">
-      <c r="A828" s="5"/>
+      <c r="A828" s="6"/>
     </row>
     <row r="829">
-      <c r="A829" s="5"/>
+      <c r="A829" s="6"/>
     </row>
     <row r="830">
-      <c r="A830" s="5"/>
+      <c r="A830" s="6"/>
     </row>
     <row r="831">
-      <c r="A831" s="5"/>
+      <c r="A831" s="6"/>
     </row>
     <row r="832">
-      <c r="A832" s="5"/>
+      <c r="A832" s="6"/>
     </row>
     <row r="833">
-      <c r="A833" s="5"/>
+      <c r="A833" s="6"/>
     </row>
     <row r="834">
-      <c r="A834" s="5"/>
+      <c r="A834" s="6"/>
     </row>
     <row r="835">
-      <c r="A835" s="5"/>
+      <c r="A835" s="6"/>
     </row>
     <row r="836">
-      <c r="A836" s="5"/>
+      <c r="A836" s="6"/>
     </row>
     <row r="837">
-      <c r="A837" s="5"/>
+      <c r="A837" s="6"/>
     </row>
     <row r="838">
-      <c r="A838" s="5"/>
+      <c r="A838" s="6"/>
     </row>
     <row r="839">
-      <c r="A839" s="5"/>
+      <c r="A839" s="6"/>
     </row>
     <row r="840">
-      <c r="A840" s="5"/>
+      <c r="A840" s="6"/>
     </row>
     <row r="841">
-      <c r="A841" s="5"/>
+      <c r="A841" s="6"/>
     </row>
     <row r="842">
-      <c r="A842" s="5"/>
+      <c r="A842" s="6"/>
     </row>
     <row r="843">
-      <c r="A843" s="5"/>
+      <c r="A843" s="6"/>
     </row>
     <row r="844">
-      <c r="A844" s="5"/>
+      <c r="A844" s="6"/>
     </row>
     <row r="845">
-      <c r="A845" s="5"/>
+      <c r="A845" s="6"/>
     </row>
     <row r="846">
-      <c r="A846" s="5"/>
+      <c r="A846" s="6"/>
     </row>
     <row r="847">
-      <c r="A847" s="5"/>
+      <c r="A847" s="6"/>
     </row>
     <row r="848">
-      <c r="A848" s="5"/>
+      <c r="A848" s="6"/>
     </row>
     <row r="849">
-      <c r="A849" s="5"/>
+      <c r="A849" s="6"/>
     </row>
     <row r="850">
-      <c r="A850" s="5"/>
+      <c r="A850" s="6"/>
     </row>
     <row r="851">
-      <c r="A851" s="5"/>
+      <c r="A851" s="6"/>
     </row>
     <row r="852">
-      <c r="A852" s="5"/>
+      <c r="A852" s="6"/>
     </row>
     <row r="853">
-      <c r="A853" s="5"/>
+      <c r="A853" s="6"/>
     </row>
     <row r="854">
-      <c r="A854" s="5"/>
+      <c r="A854" s="6"/>
     </row>
     <row r="855">
-      <c r="A855" s="5"/>
+      <c r="A855" s="6"/>
     </row>
     <row r="856">
-      <c r="A856" s="5"/>
+      <c r="A856" s="6"/>
     </row>
     <row r="857">
-      <c r="A857" s="5"/>
+      <c r="A857" s="6"/>
     </row>
     <row r="858">
-      <c r="A858" s="5"/>
+      <c r="A858" s="6"/>
     </row>
     <row r="859">
-      <c r="A859" s="5"/>
+      <c r="A859" s="6"/>
     </row>
     <row r="860">
-      <c r="A860" s="5"/>
+      <c r="A860" s="6"/>
     </row>
     <row r="861">
-      <c r="A861" s="5"/>
+      <c r="A861" s="6"/>
     </row>
     <row r="862">
-      <c r="A862" s="5"/>
+      <c r="A862" s="6"/>
     </row>
     <row r="863">
-      <c r="A863" s="5"/>
+      <c r="A863" s="6"/>
     </row>
     <row r="864">
-      <c r="A864" s="5"/>
+      <c r="A864" s="6"/>
     </row>
     <row r="865">
-      <c r="A865" s="5"/>
+      <c r="A865" s="6"/>
     </row>
     <row r="866">
-      <c r="A866" s="5"/>
+      <c r="A866" s="6"/>
     </row>
     <row r="867">
-      <c r="A867" s="5"/>
+      <c r="A867" s="6"/>
     </row>
     <row r="868">
-      <c r="A868" s="5"/>
+      <c r="A868" s="6"/>
     </row>
     <row r="869">
-      <c r="A869" s="5"/>
+      <c r="A869" s="6"/>
     </row>
     <row r="870">
-      <c r="A870" s="5"/>
+      <c r="A870" s="6"/>
     </row>
     <row r="871">
-      <c r="A871" s="5"/>
+      <c r="A871" s="6"/>
     </row>
     <row r="872">
-      <c r="A872" s="5"/>
+      <c r="A872" s="6"/>
     </row>
     <row r="873">
-      <c r="A873" s="5"/>
+      <c r="A873" s="6"/>
     </row>
     <row r="874">
-      <c r="A874" s="5"/>
+      <c r="A874" s="6"/>
     </row>
     <row r="875">
-      <c r="A875" s="5"/>
+      <c r="A875" s="6"/>
     </row>
     <row r="876">
-      <c r="A876" s="5"/>
+      <c r="A876" s="6"/>
     </row>
     <row r="877">
-      <c r="A877" s="5"/>
+      <c r="A877" s="6"/>
     </row>
     <row r="878">
-      <c r="A878" s="5"/>
+      <c r="A878" s="6"/>
     </row>
     <row r="879">
-      <c r="A879" s="5"/>
+      <c r="A879" s="6"/>
     </row>
     <row r="880">
-      <c r="A880" s="5"/>
+      <c r="A880" s="6"/>
     </row>
     <row r="881">
-      <c r="A881" s="5"/>
+      <c r="A881" s="6"/>
     </row>
     <row r="882">
-      <c r="A882" s="5"/>
+      <c r="A882" s="6"/>
     </row>
     <row r="883">
-      <c r="A883" s="5"/>
+      <c r="A883" s="6"/>
     </row>
     <row r="884">
-      <c r="A884" s="5"/>
+      <c r="A884" s="6"/>
     </row>
     <row r="885">
-      <c r="A885" s="5"/>
+      <c r="A885" s="6"/>
     </row>
     <row r="886">
-      <c r="A886" s="5"/>
+      <c r="A886" s="6"/>
     </row>
     <row r="887">
-      <c r="A887" s="5"/>
+      <c r="A887" s="6"/>
     </row>
     <row r="888">
-      <c r="A888" s="5"/>
+      <c r="A888" s="6"/>
     </row>
     <row r="889">
-      <c r="A889" s="5"/>
+      <c r="A889" s="6"/>
     </row>
     <row r="890">
-      <c r="A890" s="5"/>
+      <c r="A890" s="6"/>
     </row>
     <row r="891">
-      <c r="A891" s="5"/>
+      <c r="A891" s="6"/>
     </row>
     <row r="892">
-      <c r="A892" s="5"/>
+      <c r="A892" s="6"/>
     </row>
     <row r="893">
-      <c r="A893" s="5"/>
+      <c r="A893" s="6"/>
     </row>
     <row r="894">
-      <c r="A894" s="5"/>
+      <c r="A894" s="6"/>
     </row>
     <row r="895">
-      <c r="A895" s="5"/>
+      <c r="A895" s="6"/>
     </row>
     <row r="896">
-      <c r="A896" s="5"/>
+      <c r="A896" s="6"/>
     </row>
     <row r="897">
-      <c r="A897" s="5"/>
+      <c r="A897" s="6"/>
     </row>
     <row r="898">
-      <c r="A898" s="5"/>
+      <c r="A898" s="6"/>
     </row>
     <row r="899">
-      <c r="A899" s="5"/>
+      <c r="A899" s="6"/>
     </row>
     <row r="900">
-      <c r="A900" s="5"/>
+      <c r="A900" s="6"/>
     </row>
     <row r="901">
-      <c r="A901" s="5"/>
+      <c r="A901" s="6"/>
     </row>
     <row r="902">
-      <c r="A902" s="5"/>
+      <c r="A902" s="6"/>
     </row>
     <row r="903">
-      <c r="A903" s="5"/>
+      <c r="A903" s="6"/>
     </row>
     <row r="904">
-      <c r="A904" s="5"/>
+      <c r="A904" s="6"/>
     </row>
     <row r="905">
-      <c r="A905" s="5"/>
+      <c r="A905" s="6"/>
     </row>
     <row r="906">
-      <c r="A906" s="5"/>
+      <c r="A906" s="6"/>
     </row>
     <row r="907">
-      <c r="A907" s="5"/>
+      <c r="A907" s="6"/>
     </row>
     <row r="908">
-      <c r="A908" s="5"/>
+      <c r="A908" s="6"/>
     </row>
     <row r="909">
-      <c r="A909" s="5"/>
+      <c r="A909" s="6"/>
     </row>
     <row r="910">
-      <c r="A910" s="5"/>
+      <c r="A910" s="6"/>
     </row>
     <row r="911">
-      <c r="A911" s="5"/>
+      <c r="A911" s="6"/>
     </row>
     <row r="912">
-      <c r="A912" s="5"/>
+      <c r="A912" s="6"/>
     </row>
     <row r="913">
-      <c r="A913" s="5"/>
+      <c r="A913" s="6"/>
     </row>
     <row r="914">
-      <c r="A914" s="5"/>
+      <c r="A914" s="6"/>
     </row>
     <row r="915">
-      <c r="A915" s="5"/>
+      <c r="A915" s="6"/>
     </row>
     <row r="916">
-      <c r="A916" s="5"/>
+      <c r="A916" s="6"/>
     </row>
     <row r="917">
-      <c r="A917" s="5"/>
+      <c r="A917" s="6"/>
     </row>
     <row r="918">
-      <c r="A918" s="5"/>
+      <c r="A918" s="6"/>
     </row>
     <row r="919">
-      <c r="A919" s="5"/>
+      <c r="A919" s="6"/>
     </row>
     <row r="920">
-      <c r="A920" s="5"/>
+      <c r="A920" s="6"/>
     </row>
     <row r="921">
-      <c r="A921" s="5"/>
+      <c r="A921" s="6"/>
     </row>
     <row r="922">
-      <c r="A922" s="5"/>
+      <c r="A922" s="6"/>
     </row>
     <row r="923">
-      <c r="A923" s="5"/>
+      <c r="A923" s="6"/>
     </row>
     <row r="924">
-      <c r="A924" s="5"/>
+      <c r="A924" s="6"/>
     </row>
     <row r="925">
-      <c r="A925" s="5"/>
+      <c r="A925" s="6"/>
     </row>
     <row r="926">
-      <c r="A926" s="5"/>
+      <c r="A926" s="6"/>
     </row>
     <row r="927">
-      <c r="A927" s="5"/>
+      <c r="A927" s="6"/>
     </row>
     <row r="928">
-      <c r="A928" s="5"/>
+      <c r="A928" s="6"/>
     </row>
     <row r="929">
-      <c r="A929" s="5"/>
+      <c r="A929" s="6"/>
     </row>
     <row r="930">
-      <c r="A930" s="5"/>
+      <c r="A930" s="6"/>
     </row>
     <row r="931">
-      <c r="A931" s="5"/>
+      <c r="A931" s="6"/>
     </row>
     <row r="932">
-      <c r="A932" s="5"/>
+      <c r="A932" s="6"/>
     </row>
     <row r="933">
-      <c r="A933" s="5"/>
+      <c r="A933" s="6"/>
     </row>
     <row r="934">
-      <c r="A934" s="5"/>
+      <c r="A934" s="6"/>
     </row>
     <row r="935">
-      <c r="A935" s="5"/>
+      <c r="A935" s="6"/>
     </row>
     <row r="936">
-      <c r="A936" s="5"/>
+      <c r="A936" s="6"/>
     </row>
     <row r="937">
-      <c r="A937" s="5"/>
+      <c r="A937" s="6"/>
     </row>
     <row r="938">
-      <c r="A938" s="5"/>
+      <c r="A938" s="6"/>
     </row>
     <row r="939">
-      <c r="A939" s="5"/>
+      <c r="A939" s="6"/>
     </row>
     <row r="940">
-      <c r="A940" s="5"/>
+      <c r="A940" s="6"/>
     </row>
     <row r="941">
-      <c r="A941" s="5"/>
+      <c r="A941" s="6"/>
     </row>
     <row r="942">
-      <c r="A942" s="5"/>
+      <c r="A942" s="6"/>
     </row>
     <row r="943">
-      <c r="A943" s="5"/>
+      <c r="A943" s="6"/>
     </row>
     <row r="944">
-      <c r="A944" s="5"/>
+      <c r="A944" s="6"/>
     </row>
     <row r="945">
-      <c r="A945" s="5"/>
+      <c r="A945" s="6"/>
     </row>
     <row r="946">
-      <c r="A946" s="5"/>
+      <c r="A946" s="6"/>
     </row>
     <row r="947">
-      <c r="A947" s="5"/>
+      <c r="A947" s="6"/>
     </row>
     <row r="948">
-      <c r="A948" s="5"/>
+      <c r="A948" s="6"/>
     </row>
     <row r="949">
-      <c r="A949" s="5"/>
+      <c r="A949" s="6"/>
     </row>
     <row r="950">
-      <c r="A950" s="5"/>
+      <c r="A950" s="6"/>
     </row>
     <row r="951">
-      <c r="A951" s="5"/>
+      <c r="A951" s="6"/>
     </row>
     <row r="952">
-      <c r="A952" s="5"/>
+      <c r="A952" s="6"/>
     </row>
     <row r="953">
-      <c r="A953" s="5"/>
+      <c r="A953" s="6"/>
     </row>
     <row r="954">
-      <c r="A954" s="5"/>
+      <c r="A954" s="6"/>
     </row>
     <row r="955">
-      <c r="A955" s="5"/>
+      <c r="A955" s="6"/>
     </row>
     <row r="956">
-      <c r="A956" s="5"/>
+      <c r="A956" s="6"/>
     </row>
     <row r="957">
-      <c r="A957" s="5"/>
+      <c r="A957" s="6"/>
     </row>
     <row r="958">
-      <c r="A958" s="5"/>
+      <c r="A958" s="6"/>
     </row>
     <row r="959">
-      <c r="A959" s="5"/>
+      <c r="A959" s="6"/>
     </row>
     <row r="960">
-      <c r="A960" s="5"/>
+      <c r="A960" s="6"/>
     </row>
     <row r="961">
-      <c r="A961" s="5"/>
+      <c r="A961" s="6"/>
     </row>
     <row r="962">
-      <c r="A962" s="5"/>
+      <c r="A962" s="6"/>
     </row>
     <row r="963">
-      <c r="A963" s="5"/>
+      <c r="A963" s="6"/>
     </row>
     <row r="964">
-      <c r="A964" s="5"/>
+      <c r="A964" s="6"/>
     </row>
     <row r="965">
-      <c r="A965" s="5"/>
+      <c r="A965" s="6"/>
     </row>
     <row r="966">
-      <c r="A966" s="5"/>
+      <c r="A966" s="6"/>
     </row>
     <row r="967">
-      <c r="A967" s="5"/>
+      <c r="A967" s="6"/>
     </row>
     <row r="968">
-      <c r="A968" s="5"/>
+      <c r="A968" s="6"/>
     </row>
     <row r="969">
-      <c r="A969" s="5"/>
+      <c r="A969" s="6"/>
     </row>
     <row r="970">
-      <c r="A970" s="5"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="5"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="5"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="5"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="5"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="5"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="5"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="5"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="5"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="5"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="5"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="5"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="5"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="5"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="5"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="5"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="5"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="5"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="5"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="5"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="5"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="5"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="5"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="5"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="5"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="5"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="5"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="5"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="5"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="5"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="5"/>
+      <c r="A970" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>to_address</t>
   </si>
@@ -19,379 +19,238 @@
     <t>amount</t>
   </si>
   <si>
-    <t>atone1q2833t82zthataz0v6zracejyu7xfqh7mu2sw4</t>
-  </si>
-  <si>
-    <t>atone1qvcy2gqxrdgnnypgsjcr2xz57lf4cs6nyslal2</t>
-  </si>
-  <si>
-    <t>atone1qs4eqtc0f28943s9q8jzcncr5pkmcgkf07lenq</t>
-  </si>
-  <si>
-    <t>atone1q648z887yenz2gxkq4msa252nvp427tfsvh8hu</t>
-  </si>
-  <si>
-    <t>atone1pz0gys67zv6dl0g69dree3yees48plzun5xcek</t>
-  </si>
-  <si>
-    <t>atone1zgs5nnwhpxg4sjyw7xerm4humluxua90ejay73</t>
-  </si>
-  <si>
-    <t>atone1zsv6cvpd9y86hhxzatpgzu6ymxdeuc5njypdru</t>
-  </si>
-  <si>
-    <t>atone1rxwnxskx7w9jjecfzjve35juw3qxughs9nwku7</t>
-  </si>
-  <si>
-    <t>atone1rf0s9p99t3m0vnwcf0jy98hwedlrul90tsvp4s</t>
-  </si>
-  <si>
-    <t>atone1r2nujddqfxvw3nuvdfgsnskxgrdhpfz76a0msu</t>
-  </si>
-  <si>
-    <t>atone1rta9aa5dzsr3kvcf2x8x8zeycd0yw4stqw7v2y</t>
-  </si>
-  <si>
-    <t>atone1rhyz30vg0c6ed69rmz43h35wn92ucksrclvndw</t>
-  </si>
-  <si>
-    <t>atone1rhgsg2qedccgwrpws524tagm4v7rlpdre0m4kz</t>
-  </si>
-  <si>
-    <t>atone1yyvdwarlwt4sz6qslzs5sx5jlzu6guajpduunn</t>
-  </si>
-  <si>
-    <t>atone1ysthp74n2wxt4flmzyxrhza8rvxzr9mclfes0v</t>
-  </si>
-  <si>
-    <t>atone1ykyk43nxapm48n60ft0sr8ndrg8deu9p2d5ckt</t>
-  </si>
-  <si>
-    <t>atone19g9flltdr2ahajrkefdqxc34h5uc532d4xgk5s</t>
-  </si>
-  <si>
-    <t>atone1923utg7e27z6cztq7ky89hx5n5k0awkhfv0l50</t>
-  </si>
-  <si>
-    <t>atone19dej9nex9sj3424eernwjs83pw75rt3k25hv90</t>
-  </si>
-  <si>
-    <t>atone193d2qsuk25e9mx0quan2msl2y9fqtt0gw6vxe9</t>
-  </si>
-  <si>
-    <t>atone19jhlpyjx3p4kqh347323azjuhnnew95r0a5z2u</t>
-  </si>
-  <si>
-    <t>atone18gd7nsv2qrx9rv8n0gh37l0x8qmwnrhad9r40u</t>
-  </si>
-  <si>
-    <t>atone185fkw70ntyc0vlvrf30grsxurfw2d7cplyp8ep</t>
-  </si>
-  <si>
-    <t>atone1850rdjq4sf488sad4qsj64sj2s8h53z0hhu7q7</t>
-  </si>
-  <si>
-    <t>atone18crvw4qkw8ju6s9jqyw6w3wx5ghh3unvd6zgw5</t>
-  </si>
-  <si>
-    <t>atone18ank35aua8ftetpmvcsxwdqy4pheltee3wzc2f</t>
-  </si>
-  <si>
-    <t>atone1gzwmgc096jgunp47tnn7j7ulzgc97ce8s82dzw</t>
-  </si>
-  <si>
-    <t>atone1gd6twrfw7p04797dznh0u98q9ykc7d240qac6a</t>
-  </si>
-  <si>
-    <t>atone1g37mcad2p7w4d8zes77mly0tawrmhvamjkdp22</t>
-  </si>
-  <si>
-    <t>atone1gn6w54uge5drhx0gskdgva4372d8guxh0wyz6n</t>
-  </si>
-  <si>
-    <t>atone1gnasfq4qq9kuwphp7ytq50pg6f4pzqs4gqu73d</t>
-  </si>
-  <si>
-    <t>atone1frwewwrswegyuxsz800zeaqesq5k678xe5hd9p</t>
-  </si>
-  <si>
-    <t>atone1f9dge7nrtrlxg24qekrwk24nxzmzlappuw8q39</t>
-  </si>
-  <si>
-    <t>atone1f8qxs3n4pstp3ddfzt7773w9wl3c6c04nj7r0d</t>
-  </si>
-  <si>
-    <t>atone1f44qd2yw4f007dqddltptaqyqly9qs05n8edum</t>
-  </si>
-  <si>
-    <t>atone1fcygwdcfwdnt8gpuv0rr5j6llnexsw6655j42g</t>
-  </si>
-  <si>
-    <t>atone1f6w3gudyw02vg7jql2kqyte9us8qa5kxfpkwva</t>
-  </si>
-  <si>
-    <t>atone1fud5k0utxxjm27je5t72h82tyten72acpns7n3</t>
-  </si>
-  <si>
-    <t>atone12pjgwmk672r98fhjrpxg9xz2j29vmu9r472x4s</t>
-  </si>
-  <si>
-    <t>atone122xq6xe80jk5zkhul6zzh80n2k69yr2eh34ht4</t>
-  </si>
-  <si>
-    <t>atone12v736nuytn9rjl5dpqtfxzdg40vtlwqqwcx2h8</t>
-  </si>
-  <si>
-    <t>atone12dz0vh9gk50wsjc7jvefs7l8fafraalc7stqkl</t>
-  </si>
-  <si>
-    <t>atone124rxmmffm329znr5ww8tats35gjq2jzj3m2f8e</t>
-  </si>
-  <si>
-    <t>atone12el8k6fz3n80mv2czz6apdxplsnpxznawsllcl</t>
-  </si>
-  <si>
-    <t>atone1tyu6854q0vlsqpmvaasr9043cwfrtmu4494s50</t>
-  </si>
-  <si>
-    <t>atone1tk9ecdjc59ek3r3dsqe83026jxvtlr0kst3j2z</t>
-  </si>
-  <si>
-    <t>atone1vkngvnelw4tgahyn20sr0kvk9jq8wrfefvh2lr</t>
-  </si>
-  <si>
-    <t>atone1dqf5rg4kccq558f29qa02wurmcmrapchm6xkhf</t>
-  </si>
-  <si>
-    <t>atone1d93ggvd6t3qnna3w280ax9g6j9jzr69envan9n</t>
-  </si>
-  <si>
-    <t>atone1dxlzv3nym93x72t6d5rtaqzre7skke3nk3nzwg</t>
-  </si>
-  <si>
-    <t>atone1d27jtvp26d2ul4lwy6th9mqmwxvp68pje4lzj2</t>
-  </si>
-  <si>
-    <t>atone1ddg9tjkf0vmd3t2mdqpxk2pkk6zssvduphf7js</t>
-  </si>
-  <si>
-    <t>atone1dn54g3fpsp853jmux297fpj89uufn3zxgmuqfh</t>
-  </si>
-  <si>
-    <t>atone1dkqem467z8l7vjktx7ldg93r82e056qs0m3skm</t>
-  </si>
-  <si>
-    <t>atone1de88sp2h3955ktrjgnm0jkhy8dttsgdzmnu3s9</t>
-  </si>
-  <si>
-    <t>atone1w9gcxhaxj8f0rjlkwwu36e7elj9aqmj3txzhp8</t>
-  </si>
-  <si>
-    <t>atone1wkep6k06rqh2vls8t5q2jjkdn4z803alu5e235</t>
-  </si>
-  <si>
-    <t>atone1w64nk0hmjelradw68twzs8zngk253y3g27s0sr</t>
-  </si>
-  <si>
-    <t>atone10yp8ey37pjt4y5cr6nl2dstqjyz9f5k93nqlx2</t>
-  </si>
-  <si>
-    <t>atone10gzg69ktz2ku6swm400ghtpfj77u9hg7ua0t55</t>
-  </si>
-  <si>
-    <t>atone10guvn4243qg2l8ey8gy9zwttz6v23232k9wm5k</t>
-  </si>
-  <si>
-    <t>atone1sn0gq7jlk5cscurvnsrlxc644p2dkwq56anjm7</t>
-  </si>
-  <si>
-    <t>atone1su0p2tyhph4hv6ud22c057rz3f8gfvrsly8kyy</t>
-  </si>
-  <si>
-    <t>atone13zzlsjnauafxz764nvj6mgagrkt5vke37jskxy</t>
-  </si>
-  <si>
-    <t>atone130umlsvuey3ss03p9pnmnww4mx3zta4skzath6</t>
-  </si>
-  <si>
-    <t>atone1jfwp4d5mg93sapd67r4274f8y8tg4xn768d2cz</t>
-  </si>
-  <si>
-    <t>atone1jtustv4ghy997d6catge3mgklszkvve6uhm576</t>
-  </si>
-  <si>
-    <t>atone1jujullnrumr8mplckscuxzfnzkspfm6lfjncpt</t>
-  </si>
-  <si>
-    <t>atone1npurzcjvq9rd29k29atvxd90732z4lwml7ft4e</t>
-  </si>
-  <si>
-    <t>atone1npu9lyaf0ve5hrr30xdc8r57jje98tu5ljgw62</t>
-  </si>
-  <si>
-    <t>atone1n9wl97cms52tkhc2j40mmktgew0e08aw6e23j2</t>
-  </si>
-  <si>
-    <t>atone1nf5f04rk9t56pzdwve6rhe5gvneq6gvkhscwk7</t>
-  </si>
-  <si>
-    <t>atone1n45t2sknp6gjj85f25sazprq7q8kyweqv4lc0n</t>
-  </si>
-  <si>
-    <t>atone15plqyst4mg0tz7mgdjglleztv54rm887mdx8n5</t>
-  </si>
-  <si>
-    <t>atone15rgk9gkgc0rfsflyh6ygkcn8vnnhnq49arvcdg</t>
-  </si>
-  <si>
-    <t>atone15gq8zpzagw6e5gzed8pfggsyvjdfmsss3l22dr</t>
-  </si>
-  <si>
-    <t>atone15wdtw54qpamprk4g4ea0w7elmhl9mhcva90alm</t>
-  </si>
-  <si>
-    <t>atone150q6ppu366x468pkhm7zcw7jk5jegg0swa8dn2</t>
-  </si>
-  <si>
-    <t>atone15n9me5yykqtedf80zsnk46lckeu07eeg33535k</t>
-  </si>
-  <si>
-    <t>atone15hmqrc245kryaehxlch7scl9d9znxa58wka40n</t>
-  </si>
-  <si>
-    <t>atone157qu9jpq3pasuc9s50tpd4hwu3tm45lrhs7vx4</t>
-  </si>
-  <si>
-    <t>atone14f5vpj2hdw37rng9zct7llkqax2znrhyg4vg84</t>
-  </si>
-  <si>
-    <t>atone1ky4l8why7jctxpwwxwy2en5txagy8j7x5kpc8n</t>
-  </si>
-  <si>
-    <t>atone1kal8h32wluskjd7gsqze9jlvk4zw7jp3fhq4l5</t>
-  </si>
-  <si>
-    <t>atone1hv4rlv94dwwsj3z7l6muye6ndmup0htacx6m3t</t>
-  </si>
-  <si>
-    <t>atone1hskks7nkcq4ys9u9frmj3rpj2pfdmp20w9mcr0</t>
-  </si>
-  <si>
-    <t>atone1h3l6dyvhg0zsh403q6v5c9xpne8ucl8jh72672</t>
-  </si>
-  <si>
-    <t>atone1h4yklnnd3a9tas43y0ey8z3vg5zzwjs0g2t8ma</t>
-  </si>
-  <si>
-    <t>atone1h4x2tx4679zjv77uet0x6e6v33dc8l82kgtzvx</t>
-  </si>
-  <si>
-    <t>atone1cqrky3t78np3a60kmdpylzyv594muagf04t72v</t>
-  </si>
-  <si>
-    <t>atone1cyhtq6e9x7f2haf6rn5l08svmhsrcqlvlkxzf6</t>
-  </si>
-  <si>
-    <t>atone1cgdty3246mz7jatqkg36h2aeqwnwf2m62hm7hv</t>
-  </si>
-  <si>
-    <t>atone1cthyr8req6svmza3euykd2sf5pzse6z2xk3dsz</t>
-  </si>
-  <si>
-    <t>atone1cdtyy29mre322xxpt2yvmz75crs3pl5tq0a30t</t>
-  </si>
-  <si>
-    <t>atone1c7pn0kv2x784cujvthxh5km8xxuftf85angsts</t>
-  </si>
-  <si>
-    <t>atone1ezr0cxsyt4qtsm2dd4ce50kdlps8w7wars8zrh</t>
-  </si>
-  <si>
-    <t>atone1eewlz3pl8rhs083nqrds45kfg93sm7vu7jafhk</t>
-  </si>
-  <si>
-    <t>atone1eujlkkfsyjf28ey9vce3yp0s0mdd0l94z7lxln</t>
-  </si>
-  <si>
-    <t>atone16yzm6qjjheafnyvlcjxnkmhj3hullgpl8u85xj</t>
-  </si>
-  <si>
-    <t>atone16tfjyefrgekf0l8zzccjy2c72nh2mscjvt8pxu</t>
-  </si>
-  <si>
-    <t>atone16wpn0gwepdalz0fnlq5nfy645wmwej2ctqmvyp</t>
-  </si>
-  <si>
-    <t>atone1602cse30jdmctgque3j8lc78w2frxzhnga4m5x</t>
-  </si>
-  <si>
-    <t>atone16j9m4s9hvz2ns2z6fk2s35egca5l6rw9rjupm8</t>
-  </si>
-  <si>
-    <t>atone166au0wp40n0p0yrj7vf9gce7yre3wyq0f7nmek</t>
-  </si>
-  <si>
-    <t>atone1mfq9n8ghfxga047m97wuvzp5t8t7ujxrmuwwzr</t>
-  </si>
-  <si>
-    <t>atone1mfje8fezn9mxc7dxnxzumr9kffhxtrn9xdggft</t>
-  </si>
-  <si>
-    <t>atone1m20wyugxnse56q2lfmm9txyk2fx39s6fq0l38r</t>
-  </si>
-  <si>
-    <t>atone1mhkuzfws4xgcpkq252nv22vtdk93j3xdyjt28l</t>
-  </si>
-  <si>
-    <t>atone1uznr6lmlyx66er4dvw54c7e25pyr0qg3at2q67</t>
-  </si>
-  <si>
-    <t>atone1ukt0nsy3drwzmm08ane6zarvmjpts27p0cxdls</t>
-  </si>
-  <si>
-    <t>atone1ucnzn86zszgjg8umz7ujzqvrcryxu46wjm3pfh</t>
-  </si>
-  <si>
-    <t>atone1uey077ygnn8zz78ce9g05vkzetf32er4vg50hj</t>
-  </si>
-  <si>
-    <t>atone1a3858f250ve4t6rp9ef2svpr7sj20aaxwlg6yk</t>
-  </si>
-  <si>
-    <t>atone17prz2ww2r89w8ds3nhjt32lf7rwu37enzh3tac</t>
-  </si>
-  <si>
-    <t>atone17zhqvql2khzue6kpmgmd9gz5m02j67vr53n24t</t>
-  </si>
-  <si>
-    <t>atone17yf8hsgezzhtl58gp3sqe7dcsj2wpqtzla05kh</t>
-  </si>
-  <si>
-    <t>atone17hr0kwjgklazhufht4sdpllmvm6047wd66z6s5</t>
-  </si>
-  <si>
-    <t>atone1lx2zuc7ls0rw0jf89y9366fg7w5l9clgu74lj3</t>
-  </si>
-  <si>
-    <t>atone1lx0my7kk7uy75y68r602ga62l7n8cwawxv8gts</t>
-  </si>
-  <si>
-    <t>atone1lft50ldy04u3szywhg38cnfpxfg7r548cx5ygl</t>
-  </si>
-  <si>
-    <t>atone1l2u72c838qe5yc2mn90an2cuqddehflm4hr07k</t>
-  </si>
-  <si>
-    <t>atone1ltdzw90gmtjslllkxz3a8mhw3lqyfuarl8z3vs</t>
-  </si>
-  <si>
-    <t>atone1l0tdzdyxsayestm8lu95xehgtc0s825pmq5rx5</t>
-  </si>
-  <si>
-    <t>atone1lul42lw2p4mv2mlte89cf4qnfg2jfduuz9syur</t>
-  </si>
-  <si>
-    <t>ъ</t>
+    <t>celestia1qz730hrlwfz5mt4u5xzxa98dh34yfnggtrpwf5</t>
+  </si>
+  <si>
+    <t>celestia1qvcy2gqxrdgnnypgsjcr2xz57lf4cs6nm6j2nl</t>
+  </si>
+  <si>
+    <t>celestia1qe6q4wwjzse3rkv07czlevhngxn56susv386gz</t>
+  </si>
+  <si>
+    <t>celestia1pduj08yt5w8thfp50lcvwhffrahpfpj5q06u4c</t>
+  </si>
+  <si>
+    <t>celestia1p34krywk2xt67yz0ju4c5dzz5u6lurs08y2xuy</t>
+  </si>
+  <si>
+    <t>celestia1pjmdtwxqevyr9u38ap4qchfejgyj93da0xjwgt</t>
+  </si>
+  <si>
+    <t>celestia1pa56a9fg5jhxrduru275vn2y7fpkxmx6up9jhw</t>
+  </si>
+  <si>
+    <t>celestia1zvn0400rgpyhvrse936p25mfkrnnr8elkjdzzt</t>
+  </si>
+  <si>
+    <t>celestia1zwtv7pplzh7m3t4m2zel8c0q78qsyptvqpjctt</t>
+  </si>
+  <si>
+    <t>celestia1z3wu5uh60kmczccpxxlk469ue4muh63h8d9xte</t>
+  </si>
+  <si>
+    <t>celestia1zmruurfzccvmdgcuw2rv5rla6etk36k62a6w3m</t>
+  </si>
+  <si>
+    <t>celestia1r3sglnjc34q2l0nf2rl2dh6slum564mmk5249m</t>
+  </si>
+  <si>
+    <t>celestia1r4rcrlggecyhajgfvxqlu5pdnma64h6hudyj6s</t>
+  </si>
+  <si>
+    <t>celestia1rhgsg2qedccgwrpws524tagm4v7rlpdrx9kz6h</t>
+  </si>
+  <si>
+    <t>celestia1yp542l3cwq8j0m9zkhcv8exrz2cp7l9quwrtys</t>
+  </si>
+  <si>
+    <t>celestia1yyvdwarlwt4sz6qslzs5sx5jlzu6guaj783tlx</t>
+  </si>
+  <si>
+    <t>celestia1ymwgg85shgthy4gsp7qf59jpf0pz4c3rz3aqqm</t>
+  </si>
+  <si>
+    <t>celestia19g9flltdr2ahajrkefdqxc34h5uc532d2v9pc9</t>
+  </si>
+  <si>
+    <t>celestia1xzq3z62dvsrlkpmsw8ju4unh95sr7svz8s7rjd</t>
+  </si>
+  <si>
+    <t>celestia1xkhs27xj8tjd74lyfhcgw4g03krnpn9wqz6mh7</t>
+  </si>
+  <si>
+    <t>celestia188q0e9vyq60edst5drr03sxahlzre6yhcnqqh7</t>
+  </si>
+  <si>
+    <t>celestia18gd7nsv2qrx9rv8n0gh37l0x8qmwnrhaj0wzrf</t>
+  </si>
+  <si>
+    <t>celestia18nf84jgwkqypaplz45xyf3yegpu4vvhzvrgllq</t>
+  </si>
+  <si>
+    <t>celestia184mdhx7jq5al582e6t3ssdev08ccghk5lm6awh</t>
+  </si>
+  <si>
+    <t>celestia1gfs3scxqhne0jg5eft55cplj4rlwfu458s7jc3</t>
+  </si>
+  <si>
+    <t>celestia12sxx3f0knswnxh763kpddwaygt8qfy0jke96gl</t>
+  </si>
+  <si>
+    <t>celestia1tgyqvzknt3l0qv6p98guu859mv8htpz6nmqvz0</t>
+  </si>
+  <si>
+    <t>celestia1vkngvnelw4tgahyn20sr0kvk9jq8wrfekx6ank</t>
+  </si>
+  <si>
+    <t>celestia1dqtfsays94pktsj2dachaju37v2jxpjsgz2acz</t>
+  </si>
+  <si>
+    <t>celestia1duls39pg7uqze7vpz65n22re72nycvmrgkg4kr</t>
+  </si>
+  <si>
+    <t>celestia1wgdegtthkx0n5fmyt2l2xn9jchywffac8q9eea</t>
+  </si>
+  <si>
+    <t>celestia1w2z74ln6kp08xac0smp2al35d7s7ju2rn5fuyj</t>
+  </si>
+  <si>
+    <t>celestia1wdnc6mfpcfs8md2cvm3gyfdzw8v3mcx8p2s6ux</t>
+  </si>
+  <si>
+    <t>celestia1wwf8fsyr3xj8a84k5qkf0tkmvq8gmhg3ks8fdm</t>
+  </si>
+  <si>
+    <t>celestia1wj22xy7mahsxldh3pmph6n94xuq20nusukn8mz</t>
+  </si>
+  <si>
+    <t>celestia10guvn4243qg2l8ey8gy9zwttz6v23232f0rvcr</t>
+  </si>
+  <si>
+    <t>celestia1s6fd9nyr2n4dgcwa8elkq4j7fv0s5tn44ne59f</t>
+  </si>
+  <si>
+    <t>celestia1smq0qz39r8e8awga8zaxlquftkzxldr8asa0ad</t>
+  </si>
+  <si>
+    <t>celestia1sltq5xnhhh02zelpphpkqqfy48w7rg47000900</t>
+  </si>
+  <si>
+    <t>celestia13zzlsjnauafxz764nvj6mgagrkt5vke3pcap23</t>
+  </si>
+  <si>
+    <t>celestia13hapz35dfzuf9ult9vw7qdsag83r99qzu3uczw</t>
+  </si>
+  <si>
+    <t>celestia1jr0e4le4kr7ewtsvujrqzcyjqn9r026sj9g8nz</t>
+  </si>
+  <si>
+    <t>celestia1j9rgp25pup9gp3rr89vaxu2np8ncw5rnacceck</t>
+  </si>
+  <si>
+    <t>celestia1jgpjmj0wlr34krplzhh7dywarfmkztuc6gz5wk</t>
+  </si>
+  <si>
+    <t>celestia1jttdtq9ah54rawwtsapt225unp8fdped37w4n8</t>
+  </si>
+  <si>
+    <t>celestia1jtustv4ghy997d6catge3mgklszkvve6rakrj0</t>
+  </si>
+  <si>
+    <t>celestia1jlu7fqmtfkd7wj3nz53ta7yj4xtvhf4kwldkg2</t>
+  </si>
+  <si>
+    <t>celestia1nnh4thxglkdcp0h2kr7t53rqakrmlwvyemsgc0</t>
+  </si>
+  <si>
+    <t>celestia1nnlvg9fcs7lfsfxgeaf69hg604nxag0ahhuyu0</t>
+  </si>
+  <si>
+    <t>celestia1n5jj462cvekx8z0syz8u2gmpf46g2csx75khaw</t>
+  </si>
+  <si>
+    <t>celestia1n5hmum0fpuswq4nerff9rrwqudlylxxvjfrn4e</t>
+  </si>
+  <si>
+    <t>celestia15scds0jq9crvvphgmnkxuvnycj64xj9lu8hnzg</t>
+  </si>
+  <si>
+    <t>celestia157qu9jpq3pasuc9s50tpd4hwu3tm45lrg6nm2q</t>
+  </si>
+  <si>
+    <t>celestia14a8ecps4lm2admgxdcq007kmgt4l9cxye4jv3w</t>
+  </si>
+  <si>
+    <t>celestia1kw6mw70wafdxgp2n8s4lscx04du8ka6dvul6jy</t>
+  </si>
+  <si>
+    <t>celestia1ksez8429rjftqa8f9wxxyg4l80ey7cfws3k6mw</t>
+  </si>
+  <si>
+    <t>celestia1hy4s6pku897sq4s52mwd2wegvgd0llestm3ffm</t>
+  </si>
+  <si>
+    <t>celestia1cpxcvc7e6k4c0mxz3vf7w4jd5szd6ynq362h3p</t>
+  </si>
+  <si>
+    <t>celestia1c65g3f5ujul79f4tv39rnx4k3fp0nwvrp3w397</t>
+  </si>
+  <si>
+    <t>celestia1ep7cpq9wa0cuds253ucwywqtl4ewx2y29zksfr</t>
+  </si>
+  <si>
+    <t>celestia1ege3jn6j509d7985jdefxtn7mcvngjp8qn9sk9</t>
+  </si>
+  <si>
+    <t>celestia1ehvppg4y9ar7dvnhjnqgjwxm2vd8yvsxpq6gre</t>
+  </si>
+  <si>
+    <t>celestia16z62k22z3xpq7x9sdhwums2lcks8wejc02rdw7</t>
+  </si>
+  <si>
+    <t>celestia16e8eese68zg9yvsd9f8f4urywq9vt276k09l7l</t>
+  </si>
+  <si>
+    <t>celestia1mfje8fezn9mxc7dxnxzumr9kffhxtrn9e89l97</t>
+  </si>
+  <si>
+    <t>celestia1m20wyugxnse56q2lfmm9txyk2fx39s6fl9jxtk</t>
+  </si>
+  <si>
+    <t>celestia1mu26reayvd7vwknxugmx3vw8fqmvladjcfhtv2</t>
+  </si>
+  <si>
+    <t>celestia1mud3fuxt5zw4kfysd9gjrn6fjj5rz9g6z5txff</t>
+  </si>
+  <si>
+    <t>celestia1ux8zlvpsvmvnnrqxm0an2kff2rr7950cwa83v7</t>
+  </si>
+  <si>
+    <t>celestia1ujepumwuauf5dv4jjc686f6xj4u29rtp09yr70</t>
+  </si>
+  <si>
+    <t>celestia1uah45eeda8k5qwqdapslalxu8kgf9deqfuakr5</t>
+  </si>
+  <si>
+    <t>celestia1aqcxtsz2u66fq92et6txlwywtetg467j8ggrp0</t>
+  </si>
+  <si>
+    <t>celestia1a2de4qm0ecg338cyqmww3fpv9a7et9fgcnj0uh</t>
+  </si>
+  <si>
+    <t>celestia1a3858f250ve4t6rp9ef2svpr7sj20aax349dgr</t>
+  </si>
+  <si>
+    <t>celestia17p3r5sd5a0hctry733y4f7f5etp9uxvk2g4snz</t>
+  </si>
+  <si>
+    <t>celestia177n4ptnw3utwjlrk8n28t4zf00afm379ej5k60</t>
+  </si>
+  <si>
+    <t>celestia177h5g6har2ne9rhn5ekwlpgv7dtkjxp2765yfs</t>
+  </si>
+  <si>
+    <t>celestia1lft50ldy04u3szywhg38cnfpxfg7r5488veny2</t>
   </si>
 </sst>
 </file>
@@ -448,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -462,6 +321,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -702,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>118436.0</v>
+        <v>28390.0</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>4969010.0</v>
+        <v>271661.0</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>116947.0</v>
+        <v>310900.0</v>
       </c>
     </row>
     <row r="5">
@@ -726,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>627844.0</v>
+        <v>31541.0</v>
       </c>
     </row>
     <row r="6">
@@ -734,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>201349.0</v>
+        <v>28606.0</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -743,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>821833.0</v>
+        <v>15990.0</v>
       </c>
     </row>
     <row r="8">
@@ -751,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>184913.0</v>
+        <v>66565.0</v>
       </c>
     </row>
     <row r="9">
@@ -759,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>452008.0</v>
+        <v>16562.0</v>
       </c>
     </row>
     <row r="10">
@@ -767,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>741710.0</v>
+        <v>64788.0</v>
       </c>
     </row>
     <row r="11">
@@ -775,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>419135.0</v>
+        <v>15514.0</v>
       </c>
     </row>
     <row r="12">
@@ -783,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>410902.0</v>
+        <v>16274.0</v>
       </c>
     </row>
     <row r="13">
@@ -791,23 +653,23 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>906446.0</v>
+        <v>32358.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>1.1594649E7</v>
+      <c r="B14" s="5">
+        <v>1.5E7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>256034.0</v>
+      <c r="B15" s="5">
+        <v>1.5E7</v>
       </c>
     </row>
     <row r="16">
@@ -815,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>205465.0</v>
+        <v>16620.0</v>
       </c>
     </row>
     <row r="17">
@@ -823,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>822777.0</v>
+        <v>23585.0</v>
       </c>
     </row>
     <row r="18">
@@ -831,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>308598.0</v>
+        <v>41769.0</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>143821.0</v>
+        <v>19080.0</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>92456.0</v>
+        <v>31489.0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>164367.0</v>
+        <v>42435.0</v>
       </c>
     </row>
     <row r="22">
@@ -863,7 +725,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>92045.0</v>
+        <v>51412.0</v>
       </c>
     </row>
     <row r="23">
@@ -871,7 +733,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>707599.0</v>
+        <v>18604.0</v>
       </c>
     </row>
     <row r="24">
@@ -879,7 +741,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>123614.0</v>
+        <v>15529.0</v>
       </c>
     </row>
     <row r="25">
@@ -887,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>410901.0</v>
+        <v>16374.0</v>
       </c>
     </row>
     <row r="26">
@@ -895,7 +757,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>103467.0</v>
+        <v>153750.0</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +765,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>89580.0</v>
+        <v>33395.0</v>
       </c>
     </row>
     <row r="28">
@@ -911,7 +773,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>558310.0</v>
+        <v>30765.0</v>
       </c>
     </row>
     <row r="29">
@@ -919,7 +781,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>83411.0</v>
+        <v>55092.0</v>
       </c>
     </row>
     <row r="30">
@@ -927,7 +789,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>410999.0</v>
+        <v>463034.0</v>
       </c>
     </row>
     <row r="31">
@@ -935,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4">
-        <v>182858.0</v>
+        <v>416127.0</v>
       </c>
     </row>
     <row r="32">
@@ -943,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4">
-        <v>188801.0</v>
+        <v>15541.0</v>
       </c>
     </row>
     <row r="33">
@@ -951,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4">
-        <v>234592.0</v>
+        <v>17584.0</v>
       </c>
     </row>
     <row r="34">
@@ -959,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4">
-        <v>91221.0</v>
+        <v>19349.0</v>
       </c>
     </row>
     <row r="35">
@@ -967,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4">
-        <v>123614.0</v>
+        <v>23724.0</v>
       </c>
     </row>
     <row r="36">
@@ -975,15 +837,15 @@
         <v>36</v>
       </c>
       <c r="B36" s="4">
-        <v>90402.0</v>
+        <v>19988.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4">
-        <v>205458.0</v>
+      <c r="B37" s="5">
+        <v>1.5E7</v>
       </c>
     </row>
     <row r="38">
@@ -991,7 +853,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4">
-        <v>137725.0</v>
+        <v>35363.0</v>
       </c>
     </row>
     <row r="39">
@@ -999,7 +861,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4">
-        <v>205458.0</v>
+        <v>52275.0</v>
       </c>
     </row>
     <row r="40">
@@ -1007,7 +869,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4">
-        <v>400233.0</v>
+        <v>54658.0</v>
       </c>
     </row>
     <row r="41">
@@ -1015,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4">
-        <v>246550.0</v>
+        <v>24311.0</v>
       </c>
     </row>
     <row r="42">
@@ -1023,7 +885,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4">
-        <v>229483.0</v>
+        <v>43624.0</v>
       </c>
     </row>
     <row r="43">
@@ -1031,7 +893,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4">
-        <v>229482.0</v>
+        <v>50975.0</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +901,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4">
-        <v>205541.0</v>
+        <v>19988.0</v>
       </c>
     </row>
     <row r="45">
@@ -1047,7 +909,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4">
-        <v>2212992.0</v>
+        <v>84757.0</v>
       </c>
     </row>
     <row r="46">
@@ -1055,7 +917,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4">
-        <v>82594.0</v>
+        <v>116637.0</v>
       </c>
     </row>
     <row r="47">
@@ -1063,7 +925,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4">
-        <v>123432.0</v>
+        <v>61543.0</v>
       </c>
     </row>
     <row r="48">
@@ -1071,7 +933,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4">
-        <v>87037.0</v>
+        <v>33773.0</v>
       </c>
     </row>
     <row r="49">
@@ -1079,7 +941,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4">
-        <v>821819.0</v>
+        <v>24234.0</v>
       </c>
     </row>
     <row r="50">
@@ -1087,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4">
-        <v>92045.0</v>
+        <v>23555.0</v>
       </c>
     </row>
     <row r="51">
@@ -1095,7 +957,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4">
-        <v>279881.0</v>
+        <v>31741.0</v>
       </c>
     </row>
     <row r="52">
@@ -1103,7 +965,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4">
-        <v>410901.0</v>
+        <v>18744.0</v>
       </c>
     </row>
     <row r="53">
@@ -1111,7 +973,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4">
-        <v>184913.0</v>
+        <v>46287.0</v>
       </c>
     </row>
     <row r="54">
@@ -1119,7 +981,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4">
-        <v>98039.0</v>
+        <v>38222.0</v>
       </c>
     </row>
     <row r="55">
@@ -1127,7 +989,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4">
-        <v>205458.0</v>
+        <v>33364.0</v>
       </c>
     </row>
     <row r="56">
@@ -1135,7 +997,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4">
-        <v>174706.0</v>
+        <v>922743.0</v>
       </c>
     </row>
     <row r="57">
@@ -1143,7 +1005,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4">
-        <v>85471.0</v>
+        <v>45027.0</v>
       </c>
     </row>
     <row r="58">
@@ -1151,7 +1013,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4">
-        <v>164454.0</v>
+        <v>33553.0</v>
       </c>
     </row>
     <row r="59">
@@ -1159,7 +1021,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4">
-        <v>226004.0</v>
+        <v>20295.0</v>
       </c>
     </row>
     <row r="60">
@@ -1167,7 +1029,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4">
-        <v>164856.0</v>
+        <v>355239.0</v>
       </c>
     </row>
     <row r="61">
@@ -1175,7 +1037,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4">
-        <v>84751.0</v>
+        <v>15673.0</v>
       </c>
     </row>
     <row r="62">
@@ -1183,7 +1045,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4">
-        <v>613184.0</v>
+        <v>47137.0</v>
       </c>
     </row>
     <row r="63">
@@ -1191,7 +1053,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4">
-        <v>2.1674361E7</v>
+        <v>30781.0</v>
       </c>
     </row>
     <row r="64">
@@ -1199,7 +1061,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4">
-        <v>122065.0</v>
+        <v>30838.0</v>
       </c>
     </row>
     <row r="65">
@@ -1207,7 +1069,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4">
-        <v>457006.0</v>
+        <v>32635.0</v>
       </c>
     </row>
     <row r="66">
@@ -1215,7 +1077,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4">
-        <v>410901.0</v>
+        <v>46125.0</v>
       </c>
     </row>
     <row r="67">
@@ -1223,7 +1085,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4">
-        <v>147301.0</v>
+        <v>15898.0</v>
       </c>
     </row>
     <row r="68">
@@ -1231,7 +1093,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4">
-        <v>290148.0</v>
+        <v>106157.0</v>
       </c>
     </row>
     <row r="69">
@@ -1239,7 +1101,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4">
-        <v>143821.0</v>
+        <v>846064.0</v>
       </c>
     </row>
     <row r="70">
@@ -1247,7 +1109,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4">
-        <v>410917.0</v>
+        <v>51245.0</v>
       </c>
     </row>
     <row r="71">
@@ -1255,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4">
-        <v>188183.0</v>
+        <v>24666.0</v>
       </c>
     </row>
     <row r="72">
@@ -1263,7 +1125,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4">
-        <v>85893.0</v>
+        <v>15831.0</v>
       </c>
     </row>
     <row r="73">
@@ -1271,7 +1133,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4">
-        <v>229391.0</v>
+        <v>36023.0</v>
       </c>
     </row>
     <row r="74">
@@ -1279,7 +1141,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4">
-        <v>3090646.0</v>
+        <v>19834.0</v>
       </c>
     </row>
     <row r="75">
@@ -1287,7 +1149,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4">
-        <v>113457.0</v>
+        <v>55086.0</v>
       </c>
     </row>
     <row r="76">
@@ -1295,7 +1157,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4">
-        <v>3195699.0</v>
+        <v>77691.0</v>
       </c>
     </row>
     <row r="77">
@@ -1303,7 +1165,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4">
-        <v>1.6127759E7</v>
+        <v>32541.0</v>
       </c>
     </row>
     <row r="78">
@@ -1311,7 +1173,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4">
-        <v>167547.0</v>
+        <v>115602.0</v>
       </c>
     </row>
     <row r="79">
@@ -1319,3426 +1181,3240 @@
         <v>79</v>
       </c>
       <c r="B79" s="4">
-        <v>287070.0</v>
+        <v>171358.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="4">
-        <v>360028.0</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="4">
-        <v>2.7635554E7</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="4">
-        <v>248605.0</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="4">
-        <v>106124.0</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="4">
-        <v>181210.0</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="4">
-        <v>766183.0</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="4">
-        <v>2023408.0</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="4">
-        <v>975684.0</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="4">
-        <v>246550.0</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="4">
-        <v>103140.0</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="4">
-        <v>123614.0</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="4">
-        <v>206646.0</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="4">
-        <v>1232750.0</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="4">
-        <v>410917.0</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="4">
-        <v>188949.0</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="4">
-        <v>410902.0</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="4">
-        <v>277933.0</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="4">
-        <v>4520083.0</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="4">
-        <v>84753.0</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="4">
-        <v>205458.0</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="4">
-        <v>229299.0</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="4">
-        <v>229369.0</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="4">
-        <v>277940.0</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="4">
-        <v>103140.0</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="4">
-        <v>217299.0</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="4">
-        <v>4428436.0</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="4">
-        <v>187288.0</v>
-      </c>
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="4">
-        <v>123275.0</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="4">
-        <v>238365.0</v>
-      </c>
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="4">
-        <v>88347.0</v>
-      </c>
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="4">
-        <v>821819.0</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="4">
-        <v>98349.0</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="4">
-        <v>86703.0</v>
-      </c>
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="4">
-        <v>94909.0</v>
-      </c>
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="4">
-        <v>86733.0</v>
-      </c>
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="4">
-        <v>184913.0</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="4">
-        <v>259541.0</v>
-      </c>
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="4">
-        <v>1068383.0</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="4">
-        <v>206694.0</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="4">
-        <v>123432.0</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" s="4">
-        <v>176377.0</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" s="4">
-        <v>823964.0</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" s="4">
-        <v>206452.0</v>
-      </c>
+      <c r="A122" s="3"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" s="4">
-        <v>91265.0</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="4">
-        <v>4199255.0</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" s="4">
-        <v>528850.0</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A126" s="3"/>
       <c r="B126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="5"/>
+      <c r="A127" s="3"/>
       <c r="B127" s="4"/>
     </row>
     <row r="128">
-      <c r="A128" s="5"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="5"/>
+      <c r="A129" s="3"/>
       <c r="B129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="5"/>
+      <c r="A130" s="3"/>
       <c r="B130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="5"/>
+      <c r="A131" s="3"/>
       <c r="B131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="5"/>
+      <c r="A132" s="3"/>
       <c r="B132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="5"/>
+      <c r="A133" s="3"/>
       <c r="B133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="5"/>
+      <c r="A134" s="3"/>
       <c r="B134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="5"/>
+      <c r="A135" s="3"/>
       <c r="B135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="5"/>
+      <c r="A136" s="3"/>
       <c r="B136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="5"/>
+      <c r="A137" s="3"/>
       <c r="B137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="5"/>
+      <c r="A138" s="3"/>
       <c r="B138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="5"/>
+      <c r="A139" s="3"/>
       <c r="B139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="5"/>
+      <c r="A140" s="6"/>
       <c r="B140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="5"/>
+      <c r="A141" s="6"/>
       <c r="B141" s="4"/>
     </row>
     <row r="142">
-      <c r="A142" s="5"/>
+      <c r="A142" s="6"/>
       <c r="B142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="5"/>
+      <c r="A143" s="6"/>
       <c r="B143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="5"/>
+      <c r="A144" s="6"/>
       <c r="B144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="5"/>
+      <c r="A145" s="6"/>
       <c r="B145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="5"/>
+      <c r="A146" s="6"/>
       <c r="B146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="5"/>
+      <c r="A147" s="6"/>
       <c r="B147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="5"/>
+      <c r="A148" s="6"/>
       <c r="B148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="5"/>
+      <c r="A149" s="6"/>
       <c r="B149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="5"/>
+      <c r="A150" s="6"/>
       <c r="B150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="5"/>
+      <c r="A151" s="6"/>
       <c r="B151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="5"/>
+      <c r="A152" s="6"/>
       <c r="B152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="5"/>
+      <c r="A153" s="6"/>
       <c r="B153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="5"/>
+      <c r="A154" s="6"/>
       <c r="B154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="5"/>
+      <c r="A155" s="6"/>
       <c r="B155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="5"/>
+      <c r="A156" s="6"/>
       <c r="B156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="5"/>
+      <c r="A157" s="6"/>
       <c r="B157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="5"/>
+      <c r="A158" s="6"/>
       <c r="B158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="5"/>
+      <c r="A159" s="6"/>
       <c r="B159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="5"/>
+      <c r="A160" s="6"/>
       <c r="B160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="5"/>
+      <c r="A161" s="6"/>
       <c r="B161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="5"/>
+      <c r="A162" s="6"/>
       <c r="B162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="5"/>
+      <c r="A163" s="6"/>
       <c r="B163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="5"/>
+      <c r="A164" s="6"/>
       <c r="B164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="5"/>
+      <c r="A165" s="6"/>
       <c r="B165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="5"/>
+      <c r="A166" s="6"/>
       <c r="B166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="5"/>
+      <c r="A167" s="6"/>
       <c r="B167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="5"/>
+      <c r="A168" s="6"/>
       <c r="B168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="5"/>
+      <c r="A169" s="6"/>
       <c r="B169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="5"/>
+      <c r="A170" s="6"/>
       <c r="B170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="5"/>
+      <c r="A171" s="6"/>
       <c r="B171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="5"/>
+      <c r="A172" s="6"/>
       <c r="B172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="5"/>
+      <c r="A173" s="6"/>
       <c r="B173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="5"/>
+      <c r="A174" s="6"/>
       <c r="B174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="5"/>
+      <c r="A175" s="6"/>
       <c r="B175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="5"/>
+      <c r="A176" s="6"/>
       <c r="B176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="5"/>
+      <c r="A177" s="6"/>
       <c r="B177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="5"/>
+      <c r="A178" s="6"/>
       <c r="B178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="5"/>
+      <c r="A179" s="6"/>
       <c r="B179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="5"/>
+      <c r="A180" s="6"/>
       <c r="B180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="5"/>
+      <c r="A181" s="6"/>
       <c r="B181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="5"/>
+      <c r="A182" s="6"/>
       <c r="B182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="5"/>
+      <c r="A183" s="6"/>
       <c r="B183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="5"/>
+      <c r="A184" s="6"/>
       <c r="B184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="5"/>
+      <c r="A185" s="6"/>
       <c r="B185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="5"/>
+      <c r="A186" s="6"/>
       <c r="B186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="5"/>
+      <c r="A187" s="6"/>
       <c r="B187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="5"/>
+      <c r="A188" s="6"/>
       <c r="B188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="5"/>
+      <c r="A189" s="6"/>
       <c r="B189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="5"/>
+      <c r="A190" s="6"/>
       <c r="B190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="5"/>
+      <c r="A191" s="6"/>
       <c r="B191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="5"/>
+      <c r="A192" s="6"/>
       <c r="B192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="5"/>
+      <c r="A193" s="6"/>
       <c r="B193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="5"/>
+      <c r="A194" s="6"/>
       <c r="B194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="5"/>
+      <c r="A195" s="6"/>
       <c r="B195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="5"/>
+      <c r="A196" s="6"/>
       <c r="B196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="5"/>
+      <c r="A197" s="6"/>
       <c r="B197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="5"/>
+      <c r="A198" s="6"/>
       <c r="B198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="5"/>
+      <c r="A199" s="6"/>
       <c r="B199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="5"/>
+      <c r="A200" s="6"/>
       <c r="B200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="5"/>
+      <c r="A201" s="6"/>
       <c r="B201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="5"/>
+      <c r="A202" s="6"/>
       <c r="B202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="5"/>
+      <c r="A203" s="6"/>
       <c r="B203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="5"/>
+      <c r="A204" s="6"/>
       <c r="B204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="5"/>
+      <c r="A205" s="6"/>
       <c r="B205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="5"/>
+      <c r="A206" s="6"/>
       <c r="B206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="5"/>
+      <c r="A207" s="6"/>
       <c r="B207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="5"/>
+      <c r="A208" s="6"/>
       <c r="B208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="5"/>
+      <c r="A209" s="6"/>
       <c r="B209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="5"/>
+      <c r="A210" s="6"/>
       <c r="B210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="5"/>
+      <c r="A211" s="6"/>
       <c r="B211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="5"/>
+      <c r="A212" s="6"/>
       <c r="B212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="5"/>
+      <c r="A213" s="6"/>
       <c r="B213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="5"/>
+      <c r="A214" s="6"/>
       <c r="B214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="5"/>
+      <c r="A215" s="6"/>
       <c r="B215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="5"/>
+      <c r="A216" s="6"/>
       <c r="B216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="5"/>
+      <c r="A217" s="6"/>
       <c r="B217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="5"/>
+      <c r="A218" s="6"/>
       <c r="B218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="5"/>
+      <c r="A219" s="6"/>
       <c r="B219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="5"/>
+      <c r="A220" s="6"/>
       <c r="B220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="5"/>
+      <c r="A221" s="6"/>
       <c r="B221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="5"/>
+      <c r="A222" s="6"/>
       <c r="B222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="5"/>
+      <c r="A223" s="6"/>
       <c r="B223" s="4"/>
     </row>
     <row r="224">
-      <c r="A224" s="5"/>
+      <c r="A224" s="6"/>
       <c r="B224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="5"/>
+      <c r="A225" s="6"/>
       <c r="B225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="5"/>
+      <c r="A226" s="6"/>
       <c r="B226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="5"/>
+      <c r="A227" s="6"/>
       <c r="B227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="5"/>
+      <c r="A228" s="6"/>
       <c r="B228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="5"/>
+      <c r="A229" s="6"/>
       <c r="B229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="5"/>
+      <c r="A230" s="6"/>
       <c r="B230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="5"/>
+      <c r="A231" s="6"/>
       <c r="B231" s="4"/>
     </row>
     <row r="232">
-      <c r="A232" s="5"/>
+      <c r="A232" s="6"/>
       <c r="B232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="5"/>
+      <c r="A233" s="6"/>
       <c r="B233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="5"/>
+      <c r="A234" s="6"/>
       <c r="B234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="5"/>
+      <c r="A235" s="6"/>
       <c r="B235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="5"/>
+      <c r="A236" s="6"/>
       <c r="B236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="5"/>
+      <c r="A237" s="6"/>
       <c r="B237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="5"/>
+      <c r="A238" s="6"/>
       <c r="B238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="5"/>
+      <c r="A239" s="6"/>
       <c r="B239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="5"/>
+      <c r="A240" s="6"/>
       <c r="B240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="5"/>
+      <c r="A241" s="6"/>
       <c r="B241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="5"/>
+      <c r="A242" s="6"/>
       <c r="B242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="5"/>
+      <c r="A243" s="6"/>
       <c r="B243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="5"/>
+      <c r="A244" s="6"/>
       <c r="B244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="5"/>
+      <c r="A245" s="6"/>
       <c r="B245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="5"/>
+      <c r="A246" s="6"/>
       <c r="B246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="5"/>
+      <c r="A247" s="6"/>
       <c r="B247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="5"/>
+      <c r="A248" s="6"/>
       <c r="B248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="5"/>
+      <c r="A249" s="6"/>
       <c r="B249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="5"/>
+      <c r="A250" s="6"/>
       <c r="B250" s="4"/>
     </row>
     <row r="251">
-      <c r="A251" s="5"/>
+      <c r="A251" s="6"/>
       <c r="B251" s="4"/>
     </row>
     <row r="252">
-      <c r="A252" s="5"/>
+      <c r="A252" s="6"/>
       <c r="B252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="5"/>
+      <c r="A253" s="6"/>
       <c r="B253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="5"/>
+      <c r="A254" s="6"/>
       <c r="B254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="5"/>
+      <c r="A255" s="6"/>
       <c r="B255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="5"/>
+      <c r="A256" s="6"/>
       <c r="B256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="5"/>
+      <c r="A257" s="6"/>
       <c r="B257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="5"/>
+      <c r="A258" s="6"/>
       <c r="B258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="5"/>
+      <c r="A259" s="6"/>
       <c r="B259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="5"/>
+      <c r="A260" s="6"/>
       <c r="B260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="5"/>
+      <c r="A261" s="6"/>
       <c r="B261" s="4"/>
     </row>
     <row r="262">
-      <c r="A262" s="5"/>
+      <c r="A262" s="6"/>
       <c r="B262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="5"/>
+      <c r="A263" s="6"/>
       <c r="B263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="5"/>
+      <c r="A264" s="6"/>
       <c r="B264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="5"/>
+      <c r="A265" s="6"/>
       <c r="B265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="5"/>
+      <c r="A266" s="6"/>
       <c r="B266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="5"/>
+      <c r="A267" s="6"/>
       <c r="B267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="5"/>
+      <c r="A268" s="6"/>
       <c r="B268" s="4"/>
     </row>
     <row r="269">
-      <c r="A269" s="5"/>
+      <c r="A269" s="6"/>
       <c r="B269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="5"/>
+      <c r="A270" s="6"/>
       <c r="B270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="5"/>
+      <c r="A271" s="6"/>
       <c r="B271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="5"/>
+      <c r="A272" s="6"/>
       <c r="B272" s="4"/>
     </row>
     <row r="273">
-      <c r="A273" s="5"/>
+      <c r="A273" s="6"/>
       <c r="B273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="5"/>
+      <c r="A274" s="6"/>
       <c r="B274" s="4"/>
     </row>
     <row r="275">
-      <c r="A275" s="5"/>
+      <c r="A275" s="6"/>
       <c r="B275" s="4"/>
     </row>
     <row r="276">
-      <c r="A276" s="5"/>
+      <c r="A276" s="6"/>
       <c r="B276" s="4"/>
     </row>
     <row r="277">
-      <c r="A277" s="5"/>
+      <c r="A277" s="6"/>
       <c r="B277" s="4"/>
     </row>
     <row r="278">
-      <c r="A278" s="5"/>
+      <c r="A278" s="6"/>
       <c r="B278" s="4"/>
     </row>
     <row r="279">
-      <c r="A279" s="5"/>
+      <c r="A279" s="6"/>
       <c r="B279" s="4"/>
     </row>
     <row r="280">
-      <c r="A280" s="5"/>
+      <c r="A280" s="6"/>
       <c r="B280" s="4"/>
     </row>
     <row r="281">
-      <c r="A281" s="5"/>
+      <c r="A281" s="6"/>
       <c r="B281" s="4"/>
     </row>
     <row r="282">
-      <c r="A282" s="5"/>
+      <c r="A282" s="6"/>
       <c r="B282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="5"/>
+      <c r="A283" s="6"/>
       <c r="B283" s="4"/>
     </row>
     <row r="284">
-      <c r="A284" s="5"/>
+      <c r="A284" s="6"/>
       <c r="B284" s="4"/>
     </row>
     <row r="285">
-      <c r="A285" s="5"/>
+      <c r="A285" s="6"/>
       <c r="B285" s="4"/>
     </row>
     <row r="286">
-      <c r="A286" s="5"/>
+      <c r="A286" s="6"/>
       <c r="B286" s="4"/>
     </row>
     <row r="287">
-      <c r="A287" s="5"/>
+      <c r="A287" s="6"/>
       <c r="B287" s="4"/>
     </row>
     <row r="288">
-      <c r="A288" s="5"/>
+      <c r="A288" s="6"/>
       <c r="B288" s="4"/>
     </row>
     <row r="289">
-      <c r="A289" s="5"/>
+      <c r="A289" s="6"/>
       <c r="B289" s="4"/>
     </row>
     <row r="290">
-      <c r="A290" s="5"/>
+      <c r="A290" s="6"/>
       <c r="B290" s="4"/>
     </row>
     <row r="291">
-      <c r="A291" s="5"/>
+      <c r="A291" s="6"/>
       <c r="B291" s="4"/>
     </row>
     <row r="292">
-      <c r="A292" s="5"/>
+      <c r="A292" s="6"/>
       <c r="B292" s="4"/>
     </row>
     <row r="293">
-      <c r="A293" s="5"/>
+      <c r="A293" s="6"/>
       <c r="B293" s="4"/>
     </row>
     <row r="294">
-      <c r="A294" s="5"/>
+      <c r="A294" s="6"/>
       <c r="B294" s="4"/>
     </row>
     <row r="295">
-      <c r="A295" s="5"/>
+      <c r="A295" s="6"/>
       <c r="B295" s="4"/>
     </row>
     <row r="296">
-      <c r="A296" s="5"/>
+      <c r="A296" s="6"/>
       <c r="B296" s="4"/>
     </row>
     <row r="297">
-      <c r="A297" s="5"/>
+      <c r="A297" s="6"/>
       <c r="B297" s="4"/>
     </row>
     <row r="298">
-      <c r="A298" s="5"/>
+      <c r="A298" s="6"/>
       <c r="B298" s="4"/>
     </row>
     <row r="299">
-      <c r="A299" s="5"/>
+      <c r="A299" s="6"/>
       <c r="B299" s="4"/>
     </row>
     <row r="300">
-      <c r="A300" s="5"/>
+      <c r="A300" s="6"/>
       <c r="B300" s="4"/>
     </row>
     <row r="301">
-      <c r="A301" s="5"/>
+      <c r="A301" s="6"/>
       <c r="B301" s="4"/>
     </row>
     <row r="302">
-      <c r="A302" s="5"/>
+      <c r="A302" s="6"/>
       <c r="B302" s="4"/>
     </row>
     <row r="303">
-      <c r="A303" s="5"/>
+      <c r="A303" s="6"/>
       <c r="B303" s="4"/>
     </row>
     <row r="304">
-      <c r="A304" s="5"/>
+      <c r="A304" s="6"/>
       <c r="B304" s="4"/>
     </row>
     <row r="305">
-      <c r="A305" s="5"/>
+      <c r="A305" s="6"/>
       <c r="B305" s="4"/>
     </row>
     <row r="306">
-      <c r="A306" s="5"/>
+      <c r="A306" s="6"/>
       <c r="B306" s="4"/>
     </row>
     <row r="307">
-      <c r="A307" s="5"/>
+      <c r="A307" s="6"/>
       <c r="B307" s="4"/>
     </row>
     <row r="308">
-      <c r="A308" s="5"/>
+      <c r="A308" s="6"/>
       <c r="B308" s="4"/>
     </row>
     <row r="309">
-      <c r="A309" s="5"/>
+      <c r="A309" s="6"/>
       <c r="B309" s="4"/>
     </row>
     <row r="310">
-      <c r="A310" s="5"/>
+      <c r="A310" s="6"/>
       <c r="B310" s="4"/>
     </row>
     <row r="311">
-      <c r="A311" s="5"/>
+      <c r="A311" s="6"/>
       <c r="B311" s="4"/>
     </row>
     <row r="312">
-      <c r="A312" s="5"/>
+      <c r="A312" s="6"/>
       <c r="B312" s="4"/>
     </row>
     <row r="313">
-      <c r="A313" s="5"/>
+      <c r="A313" s="6"/>
       <c r="B313" s="4"/>
     </row>
     <row r="314">
-      <c r="A314" s="5"/>
+      <c r="A314" s="6"/>
       <c r="B314" s="4"/>
     </row>
     <row r="315">
-      <c r="A315" s="5"/>
+      <c r="A315" s="6"/>
       <c r="B315" s="4"/>
     </row>
     <row r="316">
-      <c r="A316" s="5"/>
+      <c r="A316" s="6"/>
       <c r="B316" s="4"/>
     </row>
     <row r="317">
-      <c r="A317" s="5"/>
+      <c r="A317" s="6"/>
       <c r="B317" s="4"/>
     </row>
     <row r="318">
-      <c r="A318" s="5"/>
+      <c r="A318" s="6"/>
       <c r="B318" s="4"/>
     </row>
     <row r="319">
-      <c r="A319" s="5"/>
+      <c r="A319" s="6"/>
       <c r="B319" s="4"/>
     </row>
     <row r="320">
-      <c r="A320" s="5"/>
+      <c r="A320" s="6"/>
       <c r="B320" s="4"/>
     </row>
     <row r="321">
-      <c r="A321" s="5"/>
+      <c r="A321" s="6"/>
       <c r="B321" s="4"/>
     </row>
     <row r="322">
-      <c r="A322" s="5"/>
+      <c r="A322" s="6"/>
       <c r="B322" s="4"/>
     </row>
     <row r="323">
-      <c r="A323" s="5"/>
+      <c r="A323" s="6"/>
       <c r="B323" s="4"/>
     </row>
     <row r="324">
-      <c r="A324" s="5"/>
+      <c r="A324" s="6"/>
       <c r="B324" s="4"/>
     </row>
     <row r="325">
-      <c r="A325" s="5"/>
+      <c r="A325" s="6"/>
       <c r="B325" s="4"/>
     </row>
     <row r="326">
-      <c r="A326" s="5"/>
+      <c r="A326" s="6"/>
       <c r="B326" s="4"/>
     </row>
     <row r="327">
-      <c r="A327" s="5"/>
+      <c r="A327" s="6"/>
       <c r="B327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="5"/>
+      <c r="A328" s="6"/>
       <c r="B328" s="4"/>
     </row>
     <row r="329">
-      <c r="A329" s="5"/>
+      <c r="A329" s="6"/>
       <c r="B329" s="4"/>
     </row>
     <row r="330">
-      <c r="A330" s="5"/>
+      <c r="A330" s="6"/>
       <c r="B330" s="4"/>
     </row>
     <row r="331">
-      <c r="A331" s="5"/>
+      <c r="A331" s="6"/>
       <c r="B331" s="4"/>
     </row>
     <row r="332">
-      <c r="A332" s="5"/>
+      <c r="A332" s="6"/>
       <c r="B332" s="4"/>
     </row>
     <row r="333">
-      <c r="A333" s="5"/>
+      <c r="A333" s="6"/>
       <c r="B333" s="4"/>
     </row>
     <row r="334">
-      <c r="A334" s="5"/>
+      <c r="A334" s="6"/>
       <c r="B334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="5"/>
+      <c r="A335" s="6"/>
       <c r="B335" s="4"/>
     </row>
     <row r="336">
-      <c r="A336" s="5"/>
+      <c r="A336" s="6"/>
       <c r="B336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="5"/>
+      <c r="A337" s="6"/>
       <c r="B337" s="4"/>
     </row>
     <row r="338">
-      <c r="A338" s="5"/>
+      <c r="A338" s="6"/>
       <c r="B338" s="4"/>
     </row>
     <row r="339">
-      <c r="A339" s="5"/>
+      <c r="A339" s="6"/>
       <c r="B339" s="4"/>
     </row>
     <row r="340">
-      <c r="A340" s="5"/>
+      <c r="A340" s="6"/>
       <c r="B340" s="4"/>
     </row>
     <row r="341">
-      <c r="A341" s="5"/>
+      <c r="A341" s="6"/>
       <c r="B341" s="4"/>
     </row>
     <row r="342">
-      <c r="A342" s="5"/>
+      <c r="A342" s="6"/>
       <c r="B342" s="4"/>
     </row>
     <row r="343">
-      <c r="A343" s="5"/>
+      <c r="A343" s="6"/>
       <c r="B343" s="4"/>
     </row>
     <row r="344">
-      <c r="A344" s="5"/>
+      <c r="A344" s="6"/>
       <c r="B344" s="4"/>
     </row>
     <row r="345">
-      <c r="A345" s="5"/>
+      <c r="A345" s="6"/>
       <c r="B345" s="4"/>
     </row>
     <row r="346">
-      <c r="A346" s="5"/>
+      <c r="A346" s="6"/>
       <c r="B346" s="4"/>
     </row>
     <row r="347">
-      <c r="A347" s="5"/>
+      <c r="A347" s="6"/>
       <c r="B347" s="4"/>
     </row>
     <row r="348">
-      <c r="A348" s="5"/>
+      <c r="A348" s="6"/>
       <c r="B348" s="4"/>
     </row>
     <row r="349">
-      <c r="A349" s="5"/>
+      <c r="A349" s="6"/>
       <c r="B349" s="4"/>
     </row>
     <row r="350">
-      <c r="A350" s="5"/>
+      <c r="A350" s="6"/>
       <c r="B350" s="4"/>
     </row>
     <row r="351">
-      <c r="A351" s="5"/>
+      <c r="A351" s="6"/>
       <c r="B351" s="4"/>
     </row>
     <row r="352">
-      <c r="A352" s="5"/>
+      <c r="A352" s="6"/>
       <c r="B352" s="4"/>
     </row>
     <row r="353">
-      <c r="A353" s="5"/>
+      <c r="A353" s="6"/>
       <c r="B353" s="4"/>
     </row>
     <row r="354">
-      <c r="A354" s="5"/>
+      <c r="A354" s="6"/>
       <c r="B354" s="4"/>
     </row>
     <row r="355">
-      <c r="A355" s="5"/>
+      <c r="A355" s="6"/>
       <c r="B355" s="4"/>
     </row>
     <row r="356">
-      <c r="A356" s="5"/>
+      <c r="A356" s="6"/>
       <c r="B356" s="4"/>
     </row>
     <row r="357">
-      <c r="A357" s="5"/>
+      <c r="A357" s="6"/>
       <c r="B357" s="4"/>
     </row>
     <row r="358">
-      <c r="A358" s="5"/>
+      <c r="A358" s="6"/>
       <c r="B358" s="4"/>
     </row>
     <row r="359">
-      <c r="A359" s="5"/>
+      <c r="A359" s="6"/>
       <c r="B359" s="4"/>
     </row>
     <row r="360">
-      <c r="A360" s="5"/>
+      <c r="A360" s="6"/>
       <c r="B360" s="4"/>
     </row>
     <row r="361">
-      <c r="A361" s="5"/>
+      <c r="A361" s="6"/>
       <c r="B361" s="4"/>
     </row>
     <row r="362">
-      <c r="A362" s="5"/>
+      <c r="A362" s="6"/>
       <c r="B362" s="4"/>
     </row>
     <row r="363">
-      <c r="A363" s="5"/>
+      <c r="A363" s="6"/>
       <c r="B363" s="4"/>
     </row>
     <row r="364">
-      <c r="A364" s="5"/>
+      <c r="A364" s="6"/>
       <c r="B364" s="4"/>
     </row>
     <row r="365">
-      <c r="A365" s="5"/>
+      <c r="A365" s="6"/>
       <c r="B365" s="4"/>
     </row>
     <row r="366">
-      <c r="A366" s="5"/>
+      <c r="A366" s="6"/>
       <c r="B366" s="4"/>
     </row>
     <row r="367">
-      <c r="A367" s="5"/>
+      <c r="A367" s="6"/>
       <c r="B367" s="4"/>
     </row>
     <row r="368">
-      <c r="A368" s="5"/>
+      <c r="A368" s="6"/>
       <c r="B368" s="4"/>
     </row>
     <row r="369">
-      <c r="A369" s="5"/>
+      <c r="A369" s="6"/>
       <c r="B369" s="4"/>
     </row>
     <row r="370">
-      <c r="A370" s="5"/>
+      <c r="A370" s="6"/>
       <c r="B370" s="4"/>
     </row>
     <row r="371">
-      <c r="A371" s="5"/>
+      <c r="A371" s="6"/>
       <c r="B371" s="4"/>
     </row>
     <row r="372">
-      <c r="A372" s="5"/>
+      <c r="A372" s="6"/>
       <c r="B372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="5"/>
+      <c r="A373" s="6"/>
       <c r="B373" s="4"/>
     </row>
     <row r="374">
-      <c r="A374" s="5"/>
+      <c r="A374" s="6"/>
       <c r="B374" s="4"/>
     </row>
     <row r="375">
-      <c r="A375" s="5"/>
+      <c r="A375" s="6"/>
       <c r="B375" s="4"/>
     </row>
     <row r="376">
-      <c r="A376" s="5"/>
+      <c r="A376" s="6"/>
       <c r="B376" s="4"/>
     </row>
     <row r="377">
-      <c r="A377" s="5"/>
+      <c r="A377" s="6"/>
       <c r="B377" s="4"/>
     </row>
     <row r="378">
-      <c r="A378" s="5"/>
+      <c r="A378" s="6"/>
       <c r="B378" s="4"/>
     </row>
     <row r="379">
-      <c r="A379" s="5"/>
+      <c r="A379" s="6"/>
       <c r="B379" s="4"/>
     </row>
     <row r="380">
-      <c r="A380" s="5"/>
+      <c r="A380" s="6"/>
       <c r="B380" s="4"/>
     </row>
     <row r="381">
-      <c r="A381" s="5"/>
+      <c r="A381" s="6"/>
       <c r="B381" s="4"/>
     </row>
     <row r="382">
-      <c r="A382" s="5"/>
+      <c r="A382" s="6"/>
       <c r="B382" s="4"/>
     </row>
     <row r="383">
-      <c r="A383" s="5"/>
+      <c r="A383" s="6"/>
       <c r="B383" s="4"/>
     </row>
     <row r="384">
-      <c r="A384" s="5"/>
+      <c r="A384" s="6"/>
       <c r="B384" s="4"/>
     </row>
     <row r="385">
-      <c r="A385" s="5"/>
+      <c r="A385" s="6"/>
       <c r="B385" s="4"/>
     </row>
     <row r="386">
-      <c r="A386" s="5"/>
+      <c r="A386" s="6"/>
       <c r="B386" s="4"/>
     </row>
     <row r="387">
-      <c r="A387" s="5"/>
+      <c r="A387" s="6"/>
       <c r="B387" s="4"/>
     </row>
     <row r="388">
-      <c r="A388" s="5"/>
+      <c r="A388" s="6"/>
       <c r="B388" s="4"/>
     </row>
     <row r="389">
-      <c r="A389" s="5"/>
+      <c r="A389" s="6"/>
       <c r="B389" s="4"/>
     </row>
     <row r="390">
-      <c r="A390" s="5"/>
+      <c r="A390" s="6"/>
       <c r="B390" s="4"/>
     </row>
     <row r="391">
-      <c r="A391" s="5"/>
+      <c r="A391" s="6"/>
       <c r="B391" s="4"/>
     </row>
     <row r="392">
-      <c r="A392" s="5"/>
+      <c r="A392" s="6"/>
       <c r="B392" s="4"/>
     </row>
     <row r="393">
-      <c r="A393" s="5"/>
+      <c r="A393" s="6"/>
       <c r="B393" s="4"/>
     </row>
     <row r="394">
-      <c r="A394" s="5"/>
+      <c r="A394" s="6"/>
       <c r="B394" s="4"/>
     </row>
     <row r="395">
-      <c r="A395" s="5"/>
+      <c r="A395" s="6"/>
       <c r="B395" s="4"/>
     </row>
     <row r="396">
-      <c r="A396" s="5"/>
+      <c r="A396" s="6"/>
       <c r="B396" s="4"/>
     </row>
     <row r="397">
-      <c r="A397" s="5"/>
+      <c r="A397" s="6"/>
       <c r="B397" s="4"/>
     </row>
     <row r="398">
-      <c r="A398" s="5"/>
+      <c r="A398" s="6"/>
       <c r="B398" s="4"/>
     </row>
     <row r="399">
-      <c r="A399" s="5"/>
+      <c r="A399" s="6"/>
       <c r="B399" s="4"/>
     </row>
     <row r="400">
-      <c r="A400" s="5"/>
+      <c r="A400" s="6"/>
       <c r="B400" s="4"/>
     </row>
     <row r="401">
-      <c r="A401" s="5"/>
+      <c r="A401" s="6"/>
       <c r="B401" s="4"/>
     </row>
     <row r="402">
-      <c r="A402" s="5"/>
+      <c r="A402" s="6"/>
       <c r="B402" s="4"/>
     </row>
     <row r="403">
-      <c r="A403" s="5"/>
+      <c r="A403" s="6"/>
       <c r="B403" s="4"/>
     </row>
     <row r="404">
-      <c r="A404" s="5"/>
+      <c r="A404" s="6"/>
       <c r="B404" s="4"/>
     </row>
     <row r="405">
-      <c r="A405" s="5"/>
+      <c r="A405" s="6"/>
       <c r="B405" s="4"/>
     </row>
     <row r="406">
-      <c r="A406" s="5"/>
+      <c r="A406" s="6"/>
       <c r="B406" s="4"/>
     </row>
     <row r="407">
-      <c r="A407" s="5"/>
+      <c r="A407" s="6"/>
       <c r="B407" s="4"/>
     </row>
     <row r="408">
-      <c r="A408" s="5"/>
+      <c r="A408" s="6"/>
       <c r="B408" s="4"/>
     </row>
     <row r="409">
-      <c r="A409" s="5"/>
+      <c r="A409" s="6"/>
       <c r="B409" s="4"/>
     </row>
     <row r="410">
-      <c r="A410" s="5"/>
+      <c r="A410" s="6"/>
       <c r="B410" s="4"/>
     </row>
     <row r="411">
-      <c r="A411" s="5"/>
+      <c r="A411" s="6"/>
       <c r="B411" s="4"/>
     </row>
     <row r="412">
-      <c r="A412" s="5"/>
+      <c r="A412" s="6"/>
       <c r="B412" s="4"/>
     </row>
     <row r="413">
-      <c r="A413" s="5"/>
+      <c r="A413" s="6"/>
       <c r="B413" s="4"/>
     </row>
     <row r="414">
-      <c r="A414" s="5"/>
+      <c r="A414" s="6"/>
       <c r="B414" s="4"/>
     </row>
     <row r="415">
-      <c r="A415" s="5"/>
+      <c r="A415" s="6"/>
       <c r="B415" s="4"/>
     </row>
     <row r="416">
-      <c r="A416" s="5"/>
+      <c r="A416" s="6"/>
       <c r="B416" s="4"/>
     </row>
     <row r="417">
-      <c r="A417" s="5"/>
+      <c r="A417" s="6"/>
       <c r="B417" s="4"/>
     </row>
     <row r="418">
-      <c r="A418" s="5"/>
+      <c r="A418" s="6"/>
       <c r="B418" s="4"/>
     </row>
     <row r="419">
-      <c r="A419" s="5"/>
+      <c r="A419" s="6"/>
       <c r="B419" s="4"/>
     </row>
     <row r="420">
-      <c r="A420" s="5"/>
+      <c r="A420" s="6"/>
       <c r="B420" s="4"/>
     </row>
     <row r="421">
-      <c r="A421" s="5"/>
+      <c r="A421" s="6"/>
       <c r="B421" s="4"/>
     </row>
     <row r="422">
-      <c r="A422" s="5"/>
+      <c r="A422" s="6"/>
       <c r="B422" s="4"/>
     </row>
     <row r="423">
-      <c r="A423" s="5"/>
+      <c r="A423" s="6"/>
       <c r="B423" s="4"/>
     </row>
     <row r="424">
-      <c r="A424" s="5"/>
+      <c r="A424" s="6"/>
       <c r="B424" s="4"/>
     </row>
     <row r="425">
-      <c r="A425" s="5"/>
+      <c r="A425" s="6"/>
       <c r="B425" s="4"/>
     </row>
     <row r="426">
-      <c r="A426" s="5"/>
+      <c r="A426" s="6"/>
       <c r="B426" s="4"/>
     </row>
     <row r="427">
-      <c r="A427" s="5"/>
+      <c r="A427" s="6"/>
       <c r="B427" s="4"/>
     </row>
     <row r="428">
-      <c r="A428" s="5"/>
+      <c r="A428" s="6"/>
       <c r="B428" s="4"/>
     </row>
     <row r="429">
-      <c r="A429" s="5"/>
+      <c r="A429" s="6"/>
       <c r="B429" s="4"/>
     </row>
     <row r="430">
-      <c r="A430" s="5"/>
+      <c r="A430" s="6"/>
       <c r="B430" s="4"/>
     </row>
     <row r="431">
-      <c r="A431" s="5"/>
+      <c r="A431" s="6"/>
       <c r="B431" s="4"/>
     </row>
     <row r="432">
-      <c r="A432" s="5"/>
+      <c r="A432" s="6"/>
       <c r="B432" s="4"/>
     </row>
     <row r="433">
-      <c r="A433" s="5"/>
+      <c r="A433" s="6"/>
       <c r="B433" s="4"/>
     </row>
     <row r="434">
-      <c r="A434" s="5"/>
+      <c r="A434" s="6"/>
       <c r="B434" s="4"/>
     </row>
     <row r="435">
-      <c r="A435" s="5"/>
+      <c r="A435" s="6"/>
       <c r="B435" s="4"/>
     </row>
     <row r="436">
-      <c r="A436" s="5"/>
+      <c r="A436" s="6"/>
       <c r="B436" s="4"/>
     </row>
     <row r="437">
-      <c r="A437" s="5"/>
+      <c r="A437" s="6"/>
       <c r="B437" s="4"/>
     </row>
     <row r="438">
-      <c r="A438" s="5"/>
+      <c r="A438" s="6"/>
       <c r="B438" s="4"/>
     </row>
     <row r="439">
-      <c r="A439" s="5"/>
+      <c r="A439" s="6"/>
       <c r="B439" s="4"/>
     </row>
     <row r="440">
-      <c r="A440" s="5"/>
+      <c r="A440" s="6"/>
       <c r="B440" s="4"/>
     </row>
     <row r="441">
-      <c r="A441" s="5"/>
+      <c r="A441" s="6"/>
       <c r="B441" s="4"/>
     </row>
     <row r="442">
-      <c r="A442" s="5"/>
+      <c r="A442" s="6"/>
       <c r="B442" s="4"/>
     </row>
     <row r="443">
-      <c r="A443" s="5"/>
+      <c r="A443" s="6"/>
       <c r="B443" s="4"/>
     </row>
     <row r="444">
-      <c r="A444" s="5"/>
+      <c r="A444" s="6"/>
       <c r="B444" s="4"/>
     </row>
     <row r="445">
-      <c r="A445" s="5"/>
+      <c r="A445" s="6"/>
       <c r="B445" s="4"/>
     </row>
     <row r="446">
-      <c r="A446" s="5"/>
+      <c r="A446" s="6"/>
       <c r="B446" s="4"/>
     </row>
     <row r="447">
-      <c r="A447" s="5"/>
+      <c r="A447" s="6"/>
       <c r="B447" s="4"/>
     </row>
     <row r="448">
-      <c r="A448" s="5"/>
+      <c r="A448" s="6"/>
       <c r="B448" s="4"/>
     </row>
     <row r="449">
-      <c r="A449" s="5"/>
+      <c r="A449" s="6"/>
       <c r="B449" s="4"/>
     </row>
     <row r="450">
-      <c r="A450" s="5"/>
+      <c r="A450" s="6"/>
       <c r="B450" s="4"/>
     </row>
     <row r="451">
-      <c r="A451" s="5"/>
+      <c r="A451" s="6"/>
       <c r="B451" s="4"/>
     </row>
     <row r="452">
-      <c r="A452" s="5"/>
+      <c r="A452" s="6"/>
       <c r="B452" s="4"/>
     </row>
     <row r="453">
-      <c r="A453" s="5"/>
+      <c r="A453" s="6"/>
       <c r="B453" s="4"/>
     </row>
     <row r="454">
-      <c r="A454" s="5"/>
+      <c r="A454" s="6"/>
       <c r="B454" s="4"/>
     </row>
     <row r="455">
-      <c r="A455" s="5"/>
+      <c r="A455" s="6"/>
       <c r="B455" s="4"/>
     </row>
     <row r="456">
-      <c r="A456" s="5"/>
+      <c r="A456" s="6"/>
       <c r="B456" s="4"/>
     </row>
     <row r="457">
-      <c r="A457" s="5"/>
+      <c r="A457" s="6"/>
       <c r="B457" s="4"/>
     </row>
     <row r="458">
-      <c r="A458" s="5"/>
+      <c r="A458" s="6"/>
       <c r="B458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="5"/>
+      <c r="A459" s="6"/>
       <c r="B459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="5"/>
+      <c r="A460" s="6"/>
       <c r="B460" s="4"/>
     </row>
     <row r="461">
-      <c r="A461" s="5"/>
+      <c r="A461" s="6"/>
       <c r="B461" s="4"/>
     </row>
     <row r="462">
-      <c r="A462" s="5"/>
+      <c r="A462" s="6"/>
       <c r="B462" s="4"/>
     </row>
     <row r="463">
-      <c r="A463" s="5"/>
+      <c r="A463" s="6"/>
       <c r="B463" s="4"/>
     </row>
     <row r="464">
-      <c r="A464" s="5"/>
+      <c r="A464" s="6"/>
       <c r="B464" s="4"/>
     </row>
     <row r="465">
-      <c r="A465" s="5"/>
+      <c r="A465" s="6"/>
       <c r="B465" s="4"/>
     </row>
     <row r="466">
-      <c r="A466" s="5"/>
+      <c r="A466" s="6"/>
       <c r="B466" s="4"/>
     </row>
     <row r="467">
-      <c r="A467" s="5"/>
+      <c r="A467" s="6"/>
       <c r="B467" s="4"/>
     </row>
     <row r="468">
-      <c r="A468" s="5"/>
+      <c r="A468" s="6"/>
       <c r="B468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="5"/>
+      <c r="A469" s="6"/>
       <c r="B469" s="4"/>
     </row>
     <row r="470">
-      <c r="A470" s="5"/>
+      <c r="A470" s="6"/>
       <c r="B470" s="4"/>
     </row>
     <row r="471">
-      <c r="A471" s="5"/>
+      <c r="A471" s="6"/>
       <c r="B471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="5"/>
+      <c r="A472" s="6"/>
       <c r="B472" s="4"/>
     </row>
     <row r="473">
-      <c r="A473" s="5"/>
+      <c r="A473" s="6"/>
       <c r="B473" s="4"/>
     </row>
     <row r="474">
-      <c r="A474" s="5"/>
+      <c r="A474" s="6"/>
       <c r="B474" s="4"/>
     </row>
     <row r="475">
-      <c r="A475" s="5"/>
+      <c r="A475" s="6"/>
       <c r="B475" s="4"/>
     </row>
     <row r="476">
-      <c r="A476" s="5"/>
+      <c r="A476" s="6"/>
       <c r="B476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="5"/>
+      <c r="A477" s="6"/>
       <c r="B477" s="4"/>
     </row>
     <row r="478">
-      <c r="A478" s="5"/>
+      <c r="A478" s="6"/>
       <c r="B478" s="4"/>
     </row>
     <row r="479">
-      <c r="A479" s="5"/>
+      <c r="A479" s="6"/>
       <c r="B479" s="4"/>
     </row>
     <row r="480">
-      <c r="A480" s="5"/>
+      <c r="A480" s="6"/>
       <c r="B480" s="4"/>
     </row>
     <row r="481">
-      <c r="A481" s="5"/>
+      <c r="A481" s="6"/>
       <c r="B481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="5"/>
+      <c r="A482" s="6"/>
       <c r="B482" s="4"/>
     </row>
     <row r="483">
-      <c r="A483" s="5"/>
+      <c r="A483" s="6"/>
       <c r="B483" s="4"/>
     </row>
     <row r="484">
-      <c r="A484" s="5"/>
+      <c r="A484" s="6"/>
       <c r="B484" s="4"/>
     </row>
     <row r="485">
-      <c r="A485" s="5"/>
+      <c r="A485" s="6"/>
       <c r="B485" s="4"/>
     </row>
     <row r="486">
-      <c r="A486" s="5"/>
+      <c r="A486" s="6"/>
       <c r="B486" s="4"/>
     </row>
     <row r="487">
-      <c r="A487" s="5"/>
+      <c r="A487" s="6"/>
       <c r="B487" s="4"/>
     </row>
     <row r="488">
-      <c r="A488" s="5"/>
+      <c r="A488" s="6"/>
       <c r="B488" s="4"/>
     </row>
     <row r="489">
-      <c r="A489" s="5"/>
+      <c r="A489" s="6"/>
       <c r="B489" s="4"/>
     </row>
     <row r="490">
-      <c r="A490" s="5"/>
+      <c r="A490" s="6"/>
       <c r="B490" s="4"/>
     </row>
     <row r="491">
-      <c r="A491" s="5"/>
+      <c r="A491" s="6"/>
       <c r="B491" s="4"/>
     </row>
     <row r="492">
-      <c r="A492" s="5"/>
+      <c r="A492" s="6"/>
       <c r="B492" s="4"/>
     </row>
     <row r="493">
-      <c r="A493" s="5"/>
+      <c r="A493" s="6"/>
       <c r="B493" s="4"/>
     </row>
     <row r="494">
-      <c r="A494" s="5"/>
+      <c r="A494" s="6"/>
       <c r="B494" s="4"/>
     </row>
     <row r="495">
-      <c r="A495" s="5"/>
+      <c r="A495" s="6"/>
       <c r="B495" s="4"/>
     </row>
     <row r="496">
-      <c r="A496" s="5"/>
+      <c r="A496" s="6"/>
       <c r="B496" s="4"/>
     </row>
     <row r="497">
-      <c r="A497" s="5"/>
+      <c r="A497" s="6"/>
       <c r="B497" s="4"/>
     </row>
     <row r="498">
-      <c r="A498" s="5"/>
+      <c r="A498" s="6"/>
       <c r="B498" s="4"/>
     </row>
     <row r="499">
-      <c r="A499" s="5"/>
+      <c r="A499" s="6"/>
       <c r="B499" s="4"/>
     </row>
     <row r="500">
-      <c r="A500" s="5"/>
+      <c r="A500" s="6"/>
       <c r="B500" s="4"/>
     </row>
     <row r="501">
-      <c r="A501" s="5"/>
+      <c r="A501" s="6"/>
       <c r="B501" s="4"/>
     </row>
     <row r="502">
-      <c r="A502" s="5"/>
+      <c r="A502" s="6"/>
       <c r="B502" s="4"/>
     </row>
     <row r="503">
-      <c r="A503" s="5"/>
+      <c r="A503" s="6"/>
       <c r="B503" s="4"/>
     </row>
     <row r="504">
-      <c r="A504" s="5"/>
+      <c r="A504" s="6"/>
       <c r="B504" s="4"/>
     </row>
     <row r="505">
-      <c r="A505" s="5"/>
+      <c r="A505" s="6"/>
       <c r="B505" s="4"/>
     </row>
     <row r="506">
-      <c r="A506" s="5"/>
+      <c r="A506" s="6"/>
       <c r="B506" s="4"/>
     </row>
     <row r="507">
-      <c r="A507" s="5"/>
+      <c r="A507" s="6"/>
       <c r="B507" s="4"/>
     </row>
     <row r="508">
-      <c r="A508" s="5"/>
+      <c r="A508" s="6"/>
       <c r="B508" s="4"/>
     </row>
     <row r="509">
-      <c r="A509" s="5"/>
+      <c r="A509" s="6"/>
       <c r="B509" s="4"/>
     </row>
     <row r="510">
-      <c r="A510" s="5"/>
+      <c r="A510" s="6"/>
       <c r="B510" s="4"/>
     </row>
     <row r="511">
-      <c r="A511" s="5"/>
+      <c r="A511" s="6"/>
       <c r="B511" s="4"/>
     </row>
     <row r="512">
-      <c r="A512" s="5"/>
+      <c r="A512" s="6"/>
       <c r="B512" s="4"/>
     </row>
     <row r="513">
-      <c r="A513" s="5"/>
+      <c r="A513" s="6"/>
       <c r="B513" s="4"/>
     </row>
     <row r="514">
-      <c r="A514" s="5"/>
+      <c r="A514" s="6"/>
       <c r="B514" s="4"/>
     </row>
     <row r="515">
-      <c r="A515" s="5"/>
+      <c r="A515" s="6"/>
       <c r="B515" s="4"/>
     </row>
     <row r="516">
-      <c r="A516" s="5"/>
+      <c r="A516" s="6"/>
       <c r="B516" s="4"/>
     </row>
     <row r="517">
-      <c r="A517" s="5"/>
+      <c r="A517" s="6"/>
       <c r="B517" s="4"/>
     </row>
     <row r="518">
-      <c r="A518" s="5"/>
+      <c r="A518" s="6"/>
       <c r="B518" s="4"/>
     </row>
     <row r="519">
-      <c r="A519" s="5"/>
+      <c r="A519" s="6"/>
       <c r="B519" s="4"/>
     </row>
     <row r="520">
-      <c r="A520" s="5"/>
+      <c r="A520" s="6"/>
       <c r="B520" s="4"/>
     </row>
     <row r="521">
-      <c r="A521" s="5"/>
+      <c r="A521" s="6"/>
       <c r="B521" s="4"/>
     </row>
     <row r="522">
-      <c r="A522" s="5"/>
+      <c r="A522" s="6"/>
       <c r="B522" s="4"/>
     </row>
     <row r="523">
-      <c r="A523" s="5"/>
+      <c r="A523" s="6"/>
       <c r="B523" s="4"/>
     </row>
     <row r="524">
-      <c r="A524" s="5"/>
+      <c r="A524" s="6"/>
       <c r="B524" s="4"/>
     </row>
     <row r="525">
-      <c r="A525" s="5"/>
+      <c r="A525" s="6"/>
       <c r="B525" s="4"/>
     </row>
     <row r="526">
-      <c r="A526" s="5"/>
+      <c r="A526" s="6"/>
       <c r="B526" s="4"/>
     </row>
     <row r="527">
-      <c r="A527" s="5"/>
+      <c r="A527" s="6"/>
       <c r="B527" s="4"/>
     </row>
     <row r="528">
-      <c r="A528" s="5"/>
+      <c r="A528" s="6"/>
       <c r="B528" s="4"/>
     </row>
     <row r="529">
-      <c r="A529" s="5"/>
+      <c r="A529" s="6"/>
       <c r="B529" s="4"/>
     </row>
     <row r="530">
-      <c r="A530" s="5"/>
+      <c r="A530" s="6"/>
       <c r="B530" s="4"/>
     </row>
     <row r="531">
-      <c r="A531" s="5"/>
+      <c r="A531" s="6"/>
       <c r="B531" s="4"/>
     </row>
     <row r="532">
-      <c r="A532" s="5"/>
+      <c r="A532" s="6"/>
       <c r="B532" s="4"/>
     </row>
     <row r="533">
-      <c r="A533" s="5"/>
+      <c r="A533" s="6"/>
       <c r="B533" s="4"/>
     </row>
     <row r="534">
-      <c r="A534" s="5"/>
+      <c r="A534" s="6"/>
       <c r="B534" s="4"/>
     </row>
     <row r="535">
-      <c r="A535" s="5"/>
+      <c r="A535" s="6"/>
       <c r="B535" s="4"/>
     </row>
     <row r="536">
-      <c r="A536" s="5"/>
+      <c r="A536" s="6"/>
       <c r="B536" s="4"/>
     </row>
     <row r="537">
-      <c r="A537" s="5"/>
+      <c r="A537" s="6"/>
       <c r="B537" s="4"/>
     </row>
     <row r="538">
-      <c r="A538" s="5"/>
+      <c r="A538" s="6"/>
       <c r="B538" s="4"/>
     </row>
     <row r="539">
-      <c r="A539" s="5"/>
+      <c r="A539" s="6"/>
       <c r="B539" s="4"/>
     </row>
     <row r="540">
-      <c r="A540" s="5"/>
+      <c r="A540" s="6"/>
       <c r="B540" s="4"/>
     </row>
     <row r="541">
-      <c r="A541" s="5"/>
+      <c r="A541" s="6"/>
       <c r="B541" s="4"/>
     </row>
     <row r="542">
-      <c r="A542" s="5"/>
+      <c r="A542" s="6"/>
       <c r="B542" s="4"/>
     </row>
     <row r="543">
-      <c r="A543" s="5"/>
+      <c r="A543" s="6"/>
       <c r="B543" s="4"/>
     </row>
     <row r="544">
-      <c r="A544" s="5"/>
+      <c r="A544" s="6"/>
       <c r="B544" s="4"/>
     </row>
     <row r="545">
-      <c r="A545" s="5"/>
+      <c r="A545" s="6"/>
       <c r="B545" s="4"/>
     </row>
     <row r="546">
-      <c r="A546" s="5"/>
+      <c r="A546" s="6"/>
       <c r="B546" s="4"/>
     </row>
     <row r="547">
-      <c r="A547" s="5"/>
+      <c r="A547" s="6"/>
       <c r="B547" s="4"/>
     </row>
     <row r="548">
-      <c r="A548" s="5"/>
+      <c r="A548" s="6"/>
       <c r="B548" s="4"/>
     </row>
     <row r="549">
-      <c r="A549" s="5"/>
+      <c r="A549" s="6"/>
       <c r="B549" s="4"/>
     </row>
     <row r="550">
-      <c r="A550" s="5"/>
+      <c r="A550" s="6"/>
       <c r="B550" s="4"/>
     </row>
     <row r="551">
-      <c r="A551" s="5"/>
+      <c r="A551" s="6"/>
       <c r="B551" s="4"/>
     </row>
     <row r="552">
-      <c r="A552" s="5"/>
+      <c r="A552" s="6"/>
       <c r="B552" s="4"/>
     </row>
     <row r="553">
-      <c r="A553" s="5"/>
+      <c r="A553" s="6"/>
       <c r="B553" s="4"/>
     </row>
     <row r="554">
-      <c r="A554" s="5"/>
+      <c r="A554" s="6"/>
       <c r="B554" s="4"/>
     </row>
     <row r="555">
-      <c r="A555" s="5"/>
+      <c r="A555" s="6"/>
       <c r="B555" s="4"/>
     </row>
     <row r="556">
-      <c r="A556" s="5"/>
+      <c r="A556" s="6"/>
       <c r="B556" s="4"/>
     </row>
     <row r="557">
-      <c r="A557" s="5"/>
+      <c r="A557" s="6"/>
       <c r="B557" s="4"/>
     </row>
     <row r="558">
-      <c r="A558" s="5"/>
+      <c r="A558" s="6"/>
       <c r="B558" s="4"/>
     </row>
     <row r="559">
-      <c r="A559" s="5"/>
+      <c r="A559" s="6"/>
       <c r="B559" s="4"/>
     </row>
     <row r="560">
-      <c r="A560" s="5"/>
+      <c r="A560" s="6"/>
       <c r="B560" s="4"/>
     </row>
     <row r="561">
-      <c r="A561" s="5"/>
+      <c r="A561" s="6"/>
       <c r="B561" s="4"/>
     </row>
     <row r="562">
-      <c r="A562" s="5"/>
+      <c r="A562" s="6"/>
       <c r="B562" s="4"/>
     </row>
     <row r="563">
-      <c r="A563" s="5"/>
+      <c r="A563" s="6"/>
       <c r="B563" s="4"/>
     </row>
     <row r="564">
-      <c r="A564" s="5"/>
+      <c r="A564" s="6"/>
       <c r="B564" s="4"/>
     </row>
     <row r="565">
-      <c r="A565" s="5"/>
+      <c r="A565" s="6"/>
       <c r="B565" s="4"/>
     </row>
     <row r="566">
-      <c r="A566" s="5"/>
+      <c r="A566" s="6"/>
       <c r="B566" s="4"/>
     </row>
     <row r="567">
-      <c r="A567" s="5"/>
+      <c r="A567" s="6"/>
       <c r="B567" s="4"/>
     </row>
     <row r="568">
-      <c r="A568" s="5"/>
+      <c r="A568" s="6"/>
       <c r="B568" s="4"/>
     </row>
     <row r="569">
-      <c r="A569" s="5"/>
+      <c r="A569" s="6"/>
       <c r="B569" s="4"/>
     </row>
     <row r="570">
-      <c r="A570" s="5"/>
+      <c r="A570" s="6"/>
       <c r="B570" s="4"/>
     </row>
     <row r="571">
-      <c r="A571" s="5"/>
+      <c r="A571" s="6"/>
       <c r="B571" s="4"/>
     </row>
     <row r="572">
-      <c r="A572" s="5"/>
+      <c r="A572" s="6"/>
       <c r="B572" s="4"/>
     </row>
     <row r="573">
-      <c r="A573" s="5"/>
+      <c r="A573" s="6"/>
       <c r="B573" s="4"/>
     </row>
     <row r="574">
-      <c r="A574" s="5"/>
+      <c r="A574" s="6"/>
       <c r="B574" s="4"/>
     </row>
     <row r="575">
-      <c r="A575" s="5"/>
+      <c r="A575" s="6"/>
       <c r="B575" s="4"/>
     </row>
     <row r="576">
-      <c r="A576" s="5"/>
+      <c r="A576" s="6"/>
       <c r="B576" s="4"/>
     </row>
     <row r="577">
-      <c r="A577" s="5"/>
+      <c r="A577" s="6"/>
       <c r="B577" s="4"/>
     </row>
     <row r="578">
-      <c r="A578" s="5"/>
+      <c r="A578" s="6"/>
       <c r="B578" s="4"/>
     </row>
     <row r="579">
-      <c r="A579" s="5"/>
+      <c r="A579" s="6"/>
       <c r="B579" s="4"/>
     </row>
     <row r="580">
-      <c r="A580" s="5"/>
+      <c r="A580" s="6"/>
       <c r="B580" s="4"/>
     </row>
     <row r="581">
-      <c r="A581" s="5"/>
+      <c r="A581" s="6"/>
       <c r="B581" s="4"/>
     </row>
     <row r="582">
-      <c r="A582" s="5"/>
+      <c r="A582" s="6"/>
       <c r="B582" s="4"/>
     </row>
     <row r="583">
-      <c r="A583" s="5"/>
+      <c r="A583" s="6"/>
       <c r="B583" s="4"/>
     </row>
     <row r="584">
-      <c r="A584" s="5"/>
+      <c r="A584" s="6"/>
       <c r="B584" s="4"/>
     </row>
     <row r="585">
-      <c r="A585" s="5"/>
+      <c r="A585" s="6"/>
       <c r="B585" s="4"/>
     </row>
     <row r="586">
-      <c r="A586" s="5"/>
+      <c r="A586" s="6"/>
       <c r="B586" s="4"/>
     </row>
     <row r="587">
-      <c r="A587" s="5"/>
+      <c r="A587" s="6"/>
       <c r="B587" s="4"/>
     </row>
     <row r="588">
-      <c r="A588" s="5"/>
+      <c r="A588" s="6"/>
       <c r="B588" s="4"/>
     </row>
     <row r="589">
-      <c r="A589" s="5"/>
+      <c r="A589" s="6"/>
       <c r="B589" s="4"/>
     </row>
     <row r="590">
-      <c r="A590" s="5"/>
+      <c r="A590" s="6"/>
       <c r="B590" s="4"/>
     </row>
     <row r="591">
-      <c r="A591" s="5"/>
+      <c r="A591" s="6"/>
       <c r="B591" s="4"/>
     </row>
     <row r="592">
-      <c r="A592" s="5"/>
+      <c r="A592" s="6"/>
       <c r="B592" s="4"/>
     </row>
     <row r="593">
-      <c r="A593" s="5"/>
+      <c r="A593" s="6"/>
       <c r="B593" s="4"/>
     </row>
     <row r="594">
-      <c r="A594" s="5"/>
+      <c r="A594" s="6"/>
       <c r="B594" s="4"/>
     </row>
     <row r="595">
-      <c r="A595" s="5"/>
+      <c r="A595" s="6"/>
       <c r="B595" s="4"/>
     </row>
     <row r="596">
-      <c r="A596" s="5"/>
+      <c r="A596" s="6"/>
       <c r="B596" s="4"/>
     </row>
     <row r="597">
-      <c r="A597" s="5"/>
+      <c r="A597" s="6"/>
       <c r="B597" s="4"/>
     </row>
     <row r="598">
-      <c r="A598" s="5"/>
+      <c r="A598" s="6"/>
       <c r="B598" s="4"/>
     </row>
     <row r="599">
-      <c r="A599" s="5"/>
+      <c r="A599" s="6"/>
       <c r="B599" s="4"/>
     </row>
     <row r="600">
-      <c r="A600" s="5"/>
+      <c r="A600" s="6"/>
       <c r="B600" s="4"/>
     </row>
     <row r="601">
-      <c r="A601" s="5"/>
+      <c r="A601" s="6"/>
       <c r="B601" s="4"/>
     </row>
     <row r="602">
-      <c r="A602" s="5"/>
+      <c r="A602" s="6"/>
       <c r="B602" s="4"/>
     </row>
     <row r="603">
-      <c r="A603" s="5"/>
+      <c r="A603" s="6"/>
       <c r="B603" s="4"/>
     </row>
     <row r="604">
-      <c r="A604" s="5"/>
+      <c r="A604" s="6"/>
       <c r="B604" s="4"/>
     </row>
     <row r="605">
-      <c r="A605" s="5"/>
+      <c r="A605" s="6"/>
       <c r="B605" s="4"/>
     </row>
     <row r="606">
-      <c r="A606" s="5"/>
+      <c r="A606" s="6"/>
       <c r="B606" s="4"/>
     </row>
     <row r="607">
-      <c r="A607" s="5"/>
+      <c r="A607" s="6"/>
       <c r="B607" s="4"/>
     </row>
     <row r="608">
-      <c r="A608" s="5"/>
+      <c r="A608" s="6"/>
       <c r="B608" s="4"/>
     </row>
     <row r="609">
-      <c r="A609" s="5"/>
+      <c r="A609" s="6"/>
       <c r="B609" s="4"/>
     </row>
     <row r="610">
-      <c r="A610" s="5"/>
+      <c r="A610" s="6"/>
       <c r="B610" s="4"/>
     </row>
     <row r="611">
-      <c r="A611" s="5"/>
+      <c r="A611" s="6"/>
       <c r="B611" s="4"/>
     </row>
     <row r="612">
-      <c r="A612" s="5"/>
+      <c r="A612" s="6"/>
       <c r="B612" s="4"/>
     </row>
     <row r="613">
-      <c r="A613" s="5"/>
+      <c r="A613" s="6"/>
       <c r="B613" s="4"/>
     </row>
     <row r="614">
-      <c r="A614" s="5"/>
+      <c r="A614" s="6"/>
       <c r="B614" s="4"/>
     </row>
     <row r="615">
-      <c r="A615" s="5"/>
+      <c r="A615" s="6"/>
       <c r="B615" s="4"/>
     </row>
     <row r="616">
-      <c r="A616" s="5"/>
+      <c r="A616" s="6"/>
       <c r="B616" s="4"/>
     </row>
     <row r="617">
-      <c r="A617" s="5"/>
+      <c r="A617" s="6"/>
       <c r="B617" s="4"/>
     </row>
     <row r="618">
-      <c r="A618" s="5"/>
+      <c r="A618" s="6"/>
       <c r="B618" s="4"/>
     </row>
     <row r="619">
-      <c r="A619" s="5"/>
+      <c r="A619" s="6"/>
       <c r="B619" s="4"/>
     </row>
     <row r="620">
-      <c r="A620" s="5"/>
+      <c r="A620" s="6"/>
       <c r="B620" s="4"/>
     </row>
     <row r="621">
-      <c r="A621" s="5"/>
+      <c r="A621" s="6"/>
       <c r="B621" s="4"/>
     </row>
     <row r="622">
-      <c r="A622" s="5"/>
+      <c r="A622" s="6"/>
       <c r="B622" s="4"/>
     </row>
     <row r="623">
-      <c r="A623" s="5"/>
+      <c r="A623" s="6"/>
       <c r="B623" s="4"/>
     </row>
     <row r="624">
-      <c r="A624" s="5"/>
+      <c r="A624" s="6"/>
       <c r="B624" s="4"/>
     </row>
     <row r="625">
-      <c r="A625" s="5"/>
+      <c r="A625" s="6"/>
       <c r="B625" s="4"/>
     </row>
     <row r="626">
-      <c r="A626" s="5"/>
+      <c r="A626" s="6"/>
       <c r="B626" s="4"/>
     </row>
     <row r="627">
-      <c r="A627" s="5"/>
+      <c r="A627" s="6"/>
       <c r="B627" s="4"/>
     </row>
     <row r="628">
-      <c r="A628" s="5"/>
+      <c r="A628" s="6"/>
       <c r="B628" s="4"/>
     </row>
     <row r="629">
-      <c r="A629" s="5"/>
+      <c r="A629" s="6"/>
       <c r="B629" s="4"/>
     </row>
     <row r="630">
-      <c r="A630" s="5"/>
+      <c r="A630" s="6"/>
       <c r="B630" s="4"/>
     </row>
     <row r="631">
-      <c r="A631" s="5"/>
+      <c r="A631" s="6"/>
       <c r="B631" s="4"/>
     </row>
     <row r="632">
-      <c r="A632" s="5"/>
+      <c r="A632" s="6"/>
       <c r="B632" s="4"/>
     </row>
     <row r="633">
-      <c r="A633" s="5"/>
+      <c r="A633" s="6"/>
       <c r="B633" s="4"/>
     </row>
     <row r="634">
-      <c r="A634" s="5"/>
+      <c r="A634" s="6"/>
       <c r="B634" s="4"/>
     </row>
     <row r="635">
-      <c r="A635" s="5"/>
+      <c r="A635" s="6"/>
       <c r="B635" s="4"/>
     </row>
     <row r="636">
-      <c r="A636" s="5"/>
+      <c r="A636" s="6"/>
       <c r="B636" s="4"/>
     </row>
     <row r="637">
-      <c r="A637" s="5"/>
+      <c r="A637" s="6"/>
       <c r="B637" s="4"/>
     </row>
     <row r="638">
-      <c r="A638" s="5"/>
+      <c r="A638" s="6"/>
       <c r="B638" s="4"/>
     </row>
     <row r="639">
-      <c r="A639" s="6"/>
+      <c r="A639" s="7"/>
     </row>
     <row r="640">
-      <c r="A640" s="6"/>
+      <c r="A640" s="7"/>
     </row>
     <row r="641">
-      <c r="A641" s="6"/>
+      <c r="A641" s="7"/>
     </row>
     <row r="642">
-      <c r="A642" s="6"/>
+      <c r="A642" s="7"/>
     </row>
     <row r="643">
-      <c r="A643" s="6"/>
+      <c r="A643" s="7"/>
     </row>
     <row r="644">
-      <c r="A644" s="6"/>
+      <c r="A644" s="7"/>
     </row>
     <row r="645">
-      <c r="A645" s="6"/>
+      <c r="A645" s="7"/>
     </row>
     <row r="646">
-      <c r="A646" s="6"/>
+      <c r="A646" s="7"/>
     </row>
     <row r="647">
-      <c r="A647" s="6"/>
+      <c r="A647" s="7"/>
     </row>
     <row r="648">
-      <c r="A648" s="6"/>
+      <c r="A648" s="7"/>
     </row>
     <row r="649">
-      <c r="A649" s="6"/>
+      <c r="A649" s="7"/>
     </row>
     <row r="650">
-      <c r="A650" s="6"/>
+      <c r="A650" s="7"/>
     </row>
     <row r="651">
-      <c r="A651" s="6"/>
+      <c r="A651" s="7"/>
     </row>
     <row r="652">
-      <c r="A652" s="6"/>
+      <c r="A652" s="7"/>
     </row>
     <row r="653">
-      <c r="A653" s="6"/>
+      <c r="A653" s="7"/>
     </row>
     <row r="654">
-      <c r="A654" s="6"/>
+      <c r="A654" s="7"/>
     </row>
     <row r="655">
-      <c r="A655" s="6"/>
+      <c r="A655" s="7"/>
     </row>
     <row r="656">
-      <c r="A656" s="6"/>
+      <c r="A656" s="7"/>
     </row>
     <row r="657">
-      <c r="A657" s="6"/>
+      <c r="A657" s="7"/>
     </row>
     <row r="658">
-      <c r="A658" s="6"/>
+      <c r="A658" s="7"/>
     </row>
     <row r="659">
-      <c r="A659" s="6"/>
+      <c r="A659" s="7"/>
     </row>
     <row r="660">
-      <c r="A660" s="6"/>
+      <c r="A660" s="7"/>
     </row>
     <row r="661">
-      <c r="A661" s="6"/>
+      <c r="A661" s="7"/>
     </row>
     <row r="662">
-      <c r="A662" s="6"/>
+      <c r="A662" s="7"/>
     </row>
     <row r="663">
-      <c r="A663" s="6"/>
+      <c r="A663" s="7"/>
     </row>
     <row r="664">
-      <c r="A664" s="6"/>
+      <c r="A664" s="7"/>
     </row>
     <row r="665">
-      <c r="A665" s="6"/>
+      <c r="A665" s="7"/>
     </row>
     <row r="666">
-      <c r="A666" s="6"/>
+      <c r="A666" s="7"/>
     </row>
     <row r="667">
-      <c r="A667" s="6"/>
+      <c r="A667" s="7"/>
     </row>
     <row r="668">
-      <c r="A668" s="6"/>
+      <c r="A668" s="7"/>
     </row>
     <row r="669">
-      <c r="A669" s="6"/>
+      <c r="A669" s="7"/>
     </row>
     <row r="670">
-      <c r="A670" s="6"/>
+      <c r="A670" s="7"/>
     </row>
     <row r="671">
-      <c r="A671" s="6"/>
+      <c r="A671" s="7"/>
     </row>
     <row r="672">
-      <c r="A672" s="6"/>
+      <c r="A672" s="7"/>
     </row>
     <row r="673">
-      <c r="A673" s="6"/>
+      <c r="A673" s="7"/>
     </row>
     <row r="674">
-      <c r="A674" s="6"/>
+      <c r="A674" s="7"/>
     </row>
     <row r="675">
-      <c r="A675" s="6"/>
+      <c r="A675" s="7"/>
     </row>
     <row r="676">
-      <c r="A676" s="6"/>
+      <c r="A676" s="7"/>
     </row>
     <row r="677">
-      <c r="A677" s="6"/>
+      <c r="A677" s="7"/>
     </row>
     <row r="678">
-      <c r="A678" s="6"/>
+      <c r="A678" s="7"/>
     </row>
     <row r="679">
-      <c r="A679" s="6"/>
+      <c r="A679" s="7"/>
     </row>
     <row r="680">
-      <c r="A680" s="6"/>
+      <c r="A680" s="7"/>
     </row>
     <row r="681">
-      <c r="A681" s="6"/>
+      <c r="A681" s="7"/>
     </row>
     <row r="682">
-      <c r="A682" s="6"/>
+      <c r="A682" s="7"/>
     </row>
     <row r="683">
-      <c r="A683" s="6"/>
+      <c r="A683" s="7"/>
     </row>
     <row r="684">
-      <c r="A684" s="6"/>
+      <c r="A684" s="7"/>
     </row>
     <row r="685">
-      <c r="A685" s="6"/>
+      <c r="A685" s="7"/>
     </row>
     <row r="686">
-      <c r="A686" s="6"/>
+      <c r="A686" s="7"/>
     </row>
     <row r="687">
-      <c r="A687" s="6"/>
+      <c r="A687" s="7"/>
     </row>
     <row r="688">
-      <c r="A688" s="6"/>
+      <c r="A688" s="7"/>
     </row>
     <row r="689">
-      <c r="A689" s="6"/>
+      <c r="A689" s="7"/>
     </row>
     <row r="690">
-      <c r="A690" s="6"/>
+      <c r="A690" s="7"/>
     </row>
     <row r="691">
-      <c r="A691" s="6"/>
+      <c r="A691" s="7"/>
     </row>
     <row r="692">
-      <c r="A692" s="6"/>
+      <c r="A692" s="7"/>
     </row>
     <row r="693">
-      <c r="A693" s="6"/>
+      <c r="A693" s="7"/>
     </row>
     <row r="694">
-      <c r="A694" s="6"/>
+      <c r="A694" s="7"/>
     </row>
     <row r="695">
-      <c r="A695" s="6"/>
+      <c r="A695" s="7"/>
     </row>
     <row r="696">
-      <c r="A696" s="6"/>
+      <c r="A696" s="7"/>
     </row>
     <row r="697">
-      <c r="A697" s="6"/>
+      <c r="A697" s="7"/>
     </row>
     <row r="698">
-      <c r="A698" s="6"/>
+      <c r="A698" s="7"/>
     </row>
     <row r="699">
-      <c r="A699" s="6"/>
+      <c r="A699" s="7"/>
     </row>
     <row r="700">
-      <c r="A700" s="6"/>
+      <c r="A700" s="7"/>
     </row>
     <row r="701">
-      <c r="A701" s="6"/>
+      <c r="A701" s="7"/>
     </row>
     <row r="702">
-      <c r="A702" s="6"/>
+      <c r="A702" s="7"/>
     </row>
     <row r="703">
-      <c r="A703" s="6"/>
+      <c r="A703" s="7"/>
     </row>
     <row r="704">
-      <c r="A704" s="6"/>
+      <c r="A704" s="7"/>
     </row>
     <row r="705">
-      <c r="A705" s="6"/>
+      <c r="A705" s="7"/>
     </row>
     <row r="706">
-      <c r="A706" s="6"/>
+      <c r="A706" s="7"/>
     </row>
     <row r="707">
-      <c r="A707" s="6"/>
+      <c r="A707" s="7"/>
     </row>
     <row r="708">
-      <c r="A708" s="6"/>
+      <c r="A708" s="7"/>
     </row>
     <row r="709">
-      <c r="A709" s="6"/>
+      <c r="A709" s="7"/>
     </row>
     <row r="710">
-      <c r="A710" s="6"/>
+      <c r="A710" s="7"/>
     </row>
     <row r="711">
-      <c r="A711" s="6"/>
+      <c r="A711" s="7"/>
     </row>
     <row r="712">
-      <c r="A712" s="6"/>
+      <c r="A712" s="7"/>
     </row>
     <row r="713">
-      <c r="A713" s="6"/>
+      <c r="A713" s="7"/>
     </row>
     <row r="714">
-      <c r="A714" s="6"/>
+      <c r="A714" s="7"/>
     </row>
     <row r="715">
-      <c r="A715" s="6"/>
+      <c r="A715" s="7"/>
     </row>
     <row r="716">
-      <c r="A716" s="6"/>
+      <c r="A716" s="7"/>
     </row>
     <row r="717">
-      <c r="A717" s="6"/>
+      <c r="A717" s="7"/>
     </row>
     <row r="718">
-      <c r="A718" s="6"/>
+      <c r="A718" s="7"/>
     </row>
     <row r="719">
-      <c r="A719" s="6"/>
+      <c r="A719" s="7"/>
     </row>
     <row r="720">
-      <c r="A720" s="6"/>
+      <c r="A720" s="7"/>
     </row>
     <row r="721">
-      <c r="A721" s="6"/>
+      <c r="A721" s="7"/>
     </row>
     <row r="722">
-      <c r="A722" s="6"/>
+      <c r="A722" s="7"/>
     </row>
     <row r="723">
-      <c r="A723" s="6"/>
+      <c r="A723" s="7"/>
     </row>
     <row r="724">
-      <c r="A724" s="6"/>
+      <c r="A724" s="7"/>
     </row>
     <row r="725">
-      <c r="A725" s="6"/>
+      <c r="A725" s="7"/>
     </row>
     <row r="726">
-      <c r="A726" s="6"/>
+      <c r="A726" s="7"/>
     </row>
     <row r="727">
-      <c r="A727" s="6"/>
+      <c r="A727" s="7"/>
     </row>
     <row r="728">
-      <c r="A728" s="6"/>
+      <c r="A728" s="7"/>
     </row>
     <row r="729">
-      <c r="A729" s="6"/>
+      <c r="A729" s="7"/>
     </row>
     <row r="730">
-      <c r="A730" s="6"/>
+      <c r="A730" s="7"/>
     </row>
     <row r="731">
-      <c r="A731" s="6"/>
+      <c r="A731" s="7"/>
     </row>
     <row r="732">
-      <c r="A732" s="6"/>
+      <c r="A732" s="7"/>
     </row>
     <row r="733">
-      <c r="A733" s="6"/>
+      <c r="A733" s="7"/>
     </row>
     <row r="734">
-      <c r="A734" s="6"/>
+      <c r="A734" s="7"/>
     </row>
     <row r="735">
-      <c r="A735" s="6"/>
+      <c r="A735" s="7"/>
     </row>
     <row r="736">
-      <c r="A736" s="6"/>
+      <c r="A736" s="7"/>
     </row>
     <row r="737">
-      <c r="A737" s="6"/>
+      <c r="A737" s="7"/>
     </row>
     <row r="738">
-      <c r="A738" s="6"/>
+      <c r="A738" s="7"/>
     </row>
     <row r="739">
-      <c r="A739" s="6"/>
+      <c r="A739" s="7"/>
     </row>
     <row r="740">
-      <c r="A740" s="6"/>
+      <c r="A740" s="7"/>
     </row>
     <row r="741">
-      <c r="A741" s="6"/>
+      <c r="A741" s="7"/>
     </row>
     <row r="742">
-      <c r="A742" s="6"/>
+      <c r="A742" s="7"/>
     </row>
     <row r="743">
-      <c r="A743" s="6"/>
+      <c r="A743" s="7"/>
     </row>
     <row r="744">
-      <c r="A744" s="6"/>
+      <c r="A744" s="7"/>
     </row>
     <row r="745">
-      <c r="A745" s="6"/>
+      <c r="A745" s="7"/>
     </row>
     <row r="746">
-      <c r="A746" s="6"/>
+      <c r="A746" s="7"/>
     </row>
     <row r="747">
-      <c r="A747" s="6"/>
+      <c r="A747" s="7"/>
     </row>
     <row r="748">
-      <c r="A748" s="6"/>
+      <c r="A748" s="7"/>
     </row>
     <row r="749">
-      <c r="A749" s="6"/>
+      <c r="A749" s="7"/>
     </row>
     <row r="750">
-      <c r="A750" s="6"/>
+      <c r="A750" s="7"/>
     </row>
     <row r="751">
-      <c r="A751" s="6"/>
+      <c r="A751" s="7"/>
     </row>
     <row r="752">
-      <c r="A752" s="6"/>
+      <c r="A752" s="7"/>
     </row>
     <row r="753">
-      <c r="A753" s="6"/>
+      <c r="A753" s="7"/>
     </row>
     <row r="754">
-      <c r="A754" s="6"/>
+      <c r="A754" s="7"/>
     </row>
     <row r="755">
-      <c r="A755" s="6"/>
+      <c r="A755" s="7"/>
     </row>
     <row r="756">
-      <c r="A756" s="6"/>
+      <c r="A756" s="7"/>
     </row>
     <row r="757">
-      <c r="A757" s="6"/>
+      <c r="A757" s="7"/>
     </row>
     <row r="758">
-      <c r="A758" s="6"/>
+      <c r="A758" s="7"/>
     </row>
     <row r="759">
-      <c r="A759" s="6"/>
+      <c r="A759" s="7"/>
     </row>
     <row r="760">
-      <c r="A760" s="6"/>
+      <c r="A760" s="7"/>
     </row>
     <row r="761">
-      <c r="A761" s="6"/>
+      <c r="A761" s="7"/>
     </row>
     <row r="762">
-      <c r="A762" s="6"/>
+      <c r="A762" s="7"/>
     </row>
     <row r="763">
-      <c r="A763" s="6"/>
+      <c r="A763" s="7"/>
     </row>
     <row r="764">
-      <c r="A764" s="6"/>
+      <c r="A764" s="7"/>
     </row>
     <row r="765">
-      <c r="A765" s="6"/>
+      <c r="A765" s="7"/>
     </row>
     <row r="766">
-      <c r="A766" s="6"/>
+      <c r="A766" s="7"/>
     </row>
     <row r="767">
-      <c r="A767" s="6"/>
+      <c r="A767" s="7"/>
     </row>
     <row r="768">
-      <c r="A768" s="6"/>
+      <c r="A768" s="7"/>
     </row>
     <row r="769">
-      <c r="A769" s="6"/>
+      <c r="A769" s="7"/>
     </row>
     <row r="770">
-      <c r="A770" s="6"/>
+      <c r="A770" s="7"/>
     </row>
     <row r="771">
-      <c r="A771" s="6"/>
+      <c r="A771" s="7"/>
     </row>
     <row r="772">
-      <c r="A772" s="6"/>
+      <c r="A772" s="7"/>
     </row>
     <row r="773">
-      <c r="A773" s="6"/>
+      <c r="A773" s="7"/>
     </row>
     <row r="774">
-      <c r="A774" s="6"/>
+      <c r="A774" s="7"/>
     </row>
     <row r="775">
-      <c r="A775" s="6"/>
+      <c r="A775" s="7"/>
     </row>
     <row r="776">
-      <c r="A776" s="6"/>
+      <c r="A776" s="7"/>
     </row>
     <row r="777">
-      <c r="A777" s="6"/>
+      <c r="A777" s="7"/>
     </row>
     <row r="778">
-      <c r="A778" s="6"/>
+      <c r="A778" s="7"/>
     </row>
     <row r="779">
-      <c r="A779" s="6"/>
+      <c r="A779" s="7"/>
     </row>
     <row r="780">
-      <c r="A780" s="6"/>
+      <c r="A780" s="7"/>
     </row>
     <row r="781">
-      <c r="A781" s="6"/>
+      <c r="A781" s="7"/>
     </row>
     <row r="782">
-      <c r="A782" s="6"/>
+      <c r="A782" s="7"/>
     </row>
     <row r="783">
-      <c r="A783" s="6"/>
+      <c r="A783" s="7"/>
     </row>
     <row r="784">
-      <c r="A784" s="6"/>
+      <c r="A784" s="7"/>
     </row>
     <row r="785">
-      <c r="A785" s="6"/>
+      <c r="A785" s="7"/>
     </row>
     <row r="786">
-      <c r="A786" s="6"/>
+      <c r="A786" s="7"/>
     </row>
     <row r="787">
-      <c r="A787" s="6"/>
+      <c r="A787" s="7"/>
     </row>
     <row r="788">
-      <c r="A788" s="6"/>
+      <c r="A788" s="7"/>
     </row>
     <row r="789">
-      <c r="A789" s="6"/>
+      <c r="A789" s="7"/>
     </row>
     <row r="790">
-      <c r="A790" s="6"/>
+      <c r="A790" s="7"/>
     </row>
     <row r="791">
-      <c r="A791" s="6"/>
+      <c r="A791" s="7"/>
     </row>
     <row r="792">
-      <c r="A792" s="6"/>
+      <c r="A792" s="7"/>
     </row>
     <row r="793">
-      <c r="A793" s="6"/>
+      <c r="A793" s="7"/>
     </row>
     <row r="794">
-      <c r="A794" s="6"/>
+      <c r="A794" s="7"/>
     </row>
     <row r="795">
-      <c r="A795" s="6"/>
+      <c r="A795" s="7"/>
     </row>
     <row r="796">
-      <c r="A796" s="6"/>
+      <c r="A796" s="7"/>
     </row>
     <row r="797">
-      <c r="A797" s="6"/>
+      <c r="A797" s="7"/>
     </row>
     <row r="798">
-      <c r="A798" s="6"/>
+      <c r="A798" s="7"/>
     </row>
     <row r="799">
-      <c r="A799" s="6"/>
+      <c r="A799" s="7"/>
     </row>
     <row r="800">
-      <c r="A800" s="6"/>
+      <c r="A800" s="7"/>
     </row>
     <row r="801">
-      <c r="A801" s="6"/>
+      <c r="A801" s="7"/>
     </row>
     <row r="802">
-      <c r="A802" s="6"/>
+      <c r="A802" s="7"/>
     </row>
     <row r="803">
-      <c r="A803" s="6"/>
+      <c r="A803" s="7"/>
     </row>
     <row r="804">
-      <c r="A804" s="6"/>
+      <c r="A804" s="7"/>
     </row>
     <row r="805">
-      <c r="A805" s="6"/>
+      <c r="A805" s="7"/>
     </row>
     <row r="806">
-      <c r="A806" s="6"/>
+      <c r="A806" s="7"/>
     </row>
     <row r="807">
-      <c r="A807" s="6"/>
+      <c r="A807" s="7"/>
     </row>
     <row r="808">
-      <c r="A808" s="6"/>
+      <c r="A808" s="7"/>
     </row>
     <row r="809">
-      <c r="A809" s="6"/>
+      <c r="A809" s="7"/>
     </row>
     <row r="810">
-      <c r="A810" s="6"/>
+      <c r="A810" s="7"/>
     </row>
     <row r="811">
-      <c r="A811" s="6"/>
+      <c r="A811" s="7"/>
     </row>
     <row r="812">
-      <c r="A812" s="6"/>
+      <c r="A812" s="7"/>
     </row>
     <row r="813">
-      <c r="A813" s="6"/>
+      <c r="A813" s="7"/>
     </row>
     <row r="814">
-      <c r="A814" s="6"/>
+      <c r="A814" s="7"/>
     </row>
     <row r="815">
-      <c r="A815" s="6"/>
+      <c r="A815" s="7"/>
     </row>
     <row r="816">
-      <c r="A816" s="6"/>
+      <c r="A816" s="7"/>
     </row>
     <row r="817">
-      <c r="A817" s="6"/>
+      <c r="A817" s="7"/>
     </row>
     <row r="818">
-      <c r="A818" s="6"/>
+      <c r="A818" s="7"/>
     </row>
     <row r="819">
-      <c r="A819" s="6"/>
+      <c r="A819" s="7"/>
     </row>
     <row r="820">
-      <c r="A820" s="6"/>
+      <c r="A820" s="7"/>
     </row>
     <row r="821">
-      <c r="A821" s="6"/>
+      <c r="A821" s="7"/>
     </row>
     <row r="822">
-      <c r="A822" s="6"/>
+      <c r="A822" s="7"/>
     </row>
     <row r="823">
-      <c r="A823" s="6"/>
+      <c r="A823" s="7"/>
     </row>
     <row r="824">
-      <c r="A824" s="6"/>
+      <c r="A824" s="7"/>
     </row>
     <row r="825">
-      <c r="A825" s="6"/>
+      <c r="A825" s="7"/>
     </row>
     <row r="826">
-      <c r="A826" s="6"/>
+      <c r="A826" s="7"/>
     </row>
     <row r="827">
-      <c r="A827" s="6"/>
+      <c r="A827" s="7"/>
     </row>
     <row r="828">
-      <c r="A828" s="6"/>
+      <c r="A828" s="7"/>
     </row>
     <row r="829">
-      <c r="A829" s="6"/>
+      <c r="A829" s="7"/>
     </row>
     <row r="830">
-      <c r="A830" s="6"/>
+      <c r="A830" s="7"/>
     </row>
     <row r="831">
-      <c r="A831" s="6"/>
+      <c r="A831" s="7"/>
     </row>
     <row r="832">
-      <c r="A832" s="6"/>
+      <c r="A832" s="7"/>
     </row>
     <row r="833">
-      <c r="A833" s="6"/>
+      <c r="A833" s="7"/>
     </row>
     <row r="834">
-      <c r="A834" s="6"/>
+      <c r="A834" s="7"/>
     </row>
     <row r="835">
-      <c r="A835" s="6"/>
+      <c r="A835" s="7"/>
     </row>
     <row r="836">
-      <c r="A836" s="6"/>
+      <c r="A836" s="7"/>
     </row>
     <row r="837">
-      <c r="A837" s="6"/>
+      <c r="A837" s="7"/>
     </row>
     <row r="838">
-      <c r="A838" s="6"/>
+      <c r="A838" s="7"/>
     </row>
     <row r="839">
-      <c r="A839" s="6"/>
+      <c r="A839" s="7"/>
     </row>
     <row r="840">
-      <c r="A840" s="6"/>
+      <c r="A840" s="7"/>
     </row>
     <row r="841">
-      <c r="A841" s="6"/>
+      <c r="A841" s="7"/>
     </row>
     <row r="842">
-      <c r="A842" s="6"/>
+      <c r="A842" s="7"/>
     </row>
     <row r="843">
-      <c r="A843" s="6"/>
+      <c r="A843" s="7"/>
     </row>
     <row r="844">
-      <c r="A844" s="6"/>
+      <c r="A844" s="7"/>
     </row>
     <row r="845">
-      <c r="A845" s="6"/>
+      <c r="A845" s="7"/>
     </row>
     <row r="846">
-      <c r="A846" s="6"/>
+      <c r="A846" s="7"/>
     </row>
     <row r="847">
-      <c r="A847" s="6"/>
+      <c r="A847" s="7"/>
     </row>
     <row r="848">
-      <c r="A848" s="6"/>
+      <c r="A848" s="7"/>
     </row>
     <row r="849">
-      <c r="A849" s="6"/>
+      <c r="A849" s="7"/>
     </row>
     <row r="850">
-      <c r="A850" s="6"/>
+      <c r="A850" s="7"/>
     </row>
     <row r="851">
-      <c r="A851" s="6"/>
+      <c r="A851" s="7"/>
     </row>
     <row r="852">
-      <c r="A852" s="6"/>
+      <c r="A852" s="7"/>
     </row>
     <row r="853">
-      <c r="A853" s="6"/>
+      <c r="A853" s="7"/>
     </row>
     <row r="854">
-      <c r="A854" s="6"/>
+      <c r="A854" s="7"/>
     </row>
     <row r="855">
-      <c r="A855" s="6"/>
+      <c r="A855" s="7"/>
     </row>
     <row r="856">
-      <c r="A856" s="6"/>
+      <c r="A856" s="7"/>
     </row>
     <row r="857">
-      <c r="A857" s="6"/>
+      <c r="A857" s="7"/>
     </row>
     <row r="858">
-      <c r="A858" s="6"/>
+      <c r="A858" s="7"/>
     </row>
     <row r="859">
-      <c r="A859" s="6"/>
+      <c r="A859" s="7"/>
     </row>
     <row r="860">
-      <c r="A860" s="6"/>
+      <c r="A860" s="7"/>
     </row>
     <row r="861">
-      <c r="A861" s="6"/>
+      <c r="A861" s="7"/>
     </row>
     <row r="862">
-      <c r="A862" s="6"/>
+      <c r="A862" s="7"/>
     </row>
     <row r="863">
-      <c r="A863" s="6"/>
+      <c r="A863" s="7"/>
     </row>
     <row r="864">
-      <c r="A864" s="6"/>
+      <c r="A864" s="7"/>
     </row>
     <row r="865">
-      <c r="A865" s="6"/>
+      <c r="A865" s="7"/>
     </row>
     <row r="866">
-      <c r="A866" s="6"/>
+      <c r="A866" s="7"/>
     </row>
     <row r="867">
-      <c r="A867" s="6"/>
+      <c r="A867" s="7"/>
     </row>
     <row r="868">
-      <c r="A868" s="6"/>
+      <c r="A868" s="7"/>
     </row>
     <row r="869">
-      <c r="A869" s="6"/>
+      <c r="A869" s="7"/>
     </row>
     <row r="870">
-      <c r="A870" s="6"/>
+      <c r="A870" s="7"/>
     </row>
     <row r="871">
-      <c r="A871" s="6"/>
+      <c r="A871" s="7"/>
     </row>
     <row r="872">
-      <c r="A872" s="6"/>
+      <c r="A872" s="7"/>
     </row>
     <row r="873">
-      <c r="A873" s="6"/>
+      <c r="A873" s="7"/>
     </row>
     <row r="874">
-      <c r="A874" s="6"/>
+      <c r="A874" s="7"/>
     </row>
     <row r="875">
-      <c r="A875" s="6"/>
+      <c r="A875" s="7"/>
     </row>
     <row r="876">
-      <c r="A876" s="6"/>
+      <c r="A876" s="7"/>
     </row>
     <row r="877">
-      <c r="A877" s="6"/>
+      <c r="A877" s="7"/>
     </row>
     <row r="878">
-      <c r="A878" s="6"/>
+      <c r="A878" s="7"/>
     </row>
     <row r="879">
-      <c r="A879" s="6"/>
+      <c r="A879" s="7"/>
     </row>
     <row r="880">
-      <c r="A880" s="6"/>
+      <c r="A880" s="7"/>
     </row>
     <row r="881">
-      <c r="A881" s="6"/>
+      <c r="A881" s="7"/>
     </row>
     <row r="882">
-      <c r="A882" s="6"/>
+      <c r="A882" s="7"/>
     </row>
     <row r="883">
-      <c r="A883" s="6"/>
+      <c r="A883" s="7"/>
     </row>
     <row r="884">
-      <c r="A884" s="6"/>
+      <c r="A884" s="7"/>
     </row>
     <row r="885">
-      <c r="A885" s="6"/>
+      <c r="A885" s="7"/>
     </row>
     <row r="886">
-      <c r="A886" s="6"/>
+      <c r="A886" s="7"/>
     </row>
     <row r="887">
-      <c r="A887" s="6"/>
+      <c r="A887" s="7"/>
     </row>
     <row r="888">
-      <c r="A888" s="6"/>
+      <c r="A888" s="7"/>
     </row>
     <row r="889">
-      <c r="A889" s="6"/>
+      <c r="A889" s="7"/>
     </row>
     <row r="890">
-      <c r="A890" s="6"/>
+      <c r="A890" s="7"/>
     </row>
     <row r="891">
-      <c r="A891" s="6"/>
+      <c r="A891" s="7"/>
     </row>
     <row r="892">
-      <c r="A892" s="6"/>
+      <c r="A892" s="7"/>
     </row>
     <row r="893">
-      <c r="A893" s="6"/>
+      <c r="A893" s="7"/>
     </row>
     <row r="894">
-      <c r="A894" s="6"/>
+      <c r="A894" s="7"/>
     </row>
     <row r="895">
-      <c r="A895" s="6"/>
+      <c r="A895" s="7"/>
     </row>
     <row r="896">
-      <c r="A896" s="6"/>
+      <c r="A896" s="7"/>
     </row>
     <row r="897">
-      <c r="A897" s="6"/>
+      <c r="A897" s="7"/>
     </row>
     <row r="898">
-      <c r="A898" s="6"/>
+      <c r="A898" s="7"/>
     </row>
     <row r="899">
-      <c r="A899" s="6"/>
+      <c r="A899" s="7"/>
     </row>
     <row r="900">
-      <c r="A900" s="6"/>
+      <c r="A900" s="7"/>
     </row>
     <row r="901">
-      <c r="A901" s="6"/>
+      <c r="A901" s="7"/>
     </row>
     <row r="902">
-      <c r="A902" s="6"/>
+      <c r="A902" s="7"/>
     </row>
     <row r="903">
-      <c r="A903" s="6"/>
+      <c r="A903" s="7"/>
     </row>
     <row r="904">
-      <c r="A904" s="6"/>
+      <c r="A904" s="7"/>
     </row>
     <row r="905">
-      <c r="A905" s="6"/>
+      <c r="A905" s="7"/>
     </row>
     <row r="906">
-      <c r="A906" s="6"/>
+      <c r="A906" s="7"/>
     </row>
     <row r="907">
-      <c r="A907" s="6"/>
+      <c r="A907" s="7"/>
     </row>
     <row r="908">
-      <c r="A908" s="6"/>
+      <c r="A908" s="7"/>
     </row>
     <row r="909">
-      <c r="A909" s="6"/>
+      <c r="A909" s="7"/>
     </row>
     <row r="910">
-      <c r="A910" s="6"/>
+      <c r="A910" s="7"/>
     </row>
     <row r="911">
-      <c r="A911" s="6"/>
+      <c r="A911" s="7"/>
     </row>
     <row r="912">
-      <c r="A912" s="6"/>
+      <c r="A912" s="7"/>
     </row>
     <row r="913">
-      <c r="A913" s="6"/>
+      <c r="A913" s="7"/>
     </row>
     <row r="914">
-      <c r="A914" s="6"/>
+      <c r="A914" s="7"/>
     </row>
     <row r="915">
-      <c r="A915" s="6"/>
+      <c r="A915" s="7"/>
     </row>
     <row r="916">
-      <c r="A916" s="6"/>
+      <c r="A916" s="7"/>
     </row>
     <row r="917">
-      <c r="A917" s="6"/>
+      <c r="A917" s="7"/>
     </row>
     <row r="918">
-      <c r="A918" s="6"/>
+      <c r="A918" s="7"/>
     </row>
     <row r="919">
-      <c r="A919" s="6"/>
+      <c r="A919" s="7"/>
     </row>
     <row r="920">
-      <c r="A920" s="6"/>
+      <c r="A920" s="7"/>
     </row>
     <row r="921">
-      <c r="A921" s="6"/>
+      <c r="A921" s="7"/>
     </row>
     <row r="922">
-      <c r="A922" s="6"/>
+      <c r="A922" s="7"/>
     </row>
     <row r="923">
-      <c r="A923" s="6"/>
+      <c r="A923" s="7"/>
     </row>
     <row r="924">
-      <c r="A924" s="6"/>
+      <c r="A924" s="7"/>
     </row>
     <row r="925">
-      <c r="A925" s="6"/>
+      <c r="A925" s="7"/>
     </row>
     <row r="926">
-      <c r="A926" s="6"/>
+      <c r="A926" s="7"/>
     </row>
     <row r="927">
-      <c r="A927" s="6"/>
+      <c r="A927" s="7"/>
     </row>
     <row r="928">
-      <c r="A928" s="6"/>
+      <c r="A928" s="7"/>
     </row>
     <row r="929">
-      <c r="A929" s="6"/>
+      <c r="A929" s="7"/>
     </row>
     <row r="930">
-      <c r="A930" s="6"/>
+      <c r="A930" s="7"/>
     </row>
     <row r="931">
-      <c r="A931" s="6"/>
+      <c r="A931" s="7"/>
     </row>
     <row r="932">
-      <c r="A932" s="6"/>
+      <c r="A932" s="7"/>
     </row>
     <row r="933">
-      <c r="A933" s="6"/>
+      <c r="A933" s="7"/>
     </row>
     <row r="934">
-      <c r="A934" s="6"/>
+      <c r="A934" s="7"/>
     </row>
     <row r="935">
-      <c r="A935" s="6"/>
+      <c r="A935" s="7"/>
     </row>
     <row r="936">
-      <c r="A936" s="6"/>
+      <c r="A936" s="7"/>
     </row>
     <row r="937">
-      <c r="A937" s="6"/>
+      <c r="A937" s="7"/>
     </row>
     <row r="938">
-      <c r="A938" s="6"/>
+      <c r="A938" s="7"/>
     </row>
     <row r="939">
-      <c r="A939" s="6"/>
+      <c r="A939" s="7"/>
     </row>
     <row r="940">
-      <c r="A940" s="6"/>
+      <c r="A940" s="7"/>
     </row>
     <row r="941">
-      <c r="A941" s="6"/>
+      <c r="A941" s="7"/>
     </row>
     <row r="942">
-      <c r="A942" s="6"/>
+      <c r="A942" s="7"/>
     </row>
     <row r="943">
-      <c r="A943" s="6"/>
+      <c r="A943" s="7"/>
     </row>
     <row r="944">
-      <c r="A944" s="6"/>
+      <c r="A944" s="7"/>
     </row>
     <row r="945">
-      <c r="A945" s="6"/>
+      <c r="A945" s="7"/>
     </row>
     <row r="946">
-      <c r="A946" s="6"/>
+      <c r="A946" s="7"/>
     </row>
     <row r="947">
-      <c r="A947" s="6"/>
+      <c r="A947" s="7"/>
     </row>
     <row r="948">
-      <c r="A948" s="6"/>
+      <c r="A948" s="7"/>
     </row>
     <row r="949">
-      <c r="A949" s="6"/>
+      <c r="A949" s="7"/>
     </row>
     <row r="950">
-      <c r="A950" s="6"/>
+      <c r="A950" s="7"/>
     </row>
     <row r="951">
-      <c r="A951" s="6"/>
+      <c r="A951" s="7"/>
     </row>
     <row r="952">
-      <c r="A952" s="6"/>
+      <c r="A952" s="7"/>
     </row>
     <row r="953">
-      <c r="A953" s="6"/>
+      <c r="A953" s="7"/>
     </row>
     <row r="954">
-      <c r="A954" s="6"/>
+      <c r="A954" s="7"/>
     </row>
     <row r="955">
-      <c r="A955" s="6"/>
+      <c r="A955" s="7"/>
     </row>
     <row r="956">
-      <c r="A956" s="6"/>
+      <c r="A956" s="7"/>
     </row>
     <row r="957">
-      <c r="A957" s="6"/>
+      <c r="A957" s="7"/>
     </row>
     <row r="958">
-      <c r="A958" s="6"/>
+      <c r="A958" s="7"/>
     </row>
     <row r="959">
-      <c r="A959" s="6"/>
+      <c r="A959" s="7"/>
     </row>
     <row r="960">
-      <c r="A960" s="6"/>
+      <c r="A960" s="7"/>
     </row>
     <row r="961">
-      <c r="A961" s="6"/>
+      <c r="A961" s="7"/>
     </row>
     <row r="962">
-      <c r="A962" s="6"/>
+      <c r="A962" s="7"/>
     </row>
     <row r="963">
-      <c r="A963" s="6"/>
+      <c r="A963" s="7"/>
     </row>
     <row r="964">
-      <c r="A964" s="6"/>
+      <c r="A964" s="7"/>
     </row>
     <row r="965">
-      <c r="A965" s="6"/>
+      <c r="A965" s="7"/>
     </row>
     <row r="966">
-      <c r="A966" s="6"/>
+      <c r="A966" s="7"/>
     </row>
     <row r="967">
-      <c r="A967" s="6"/>
+      <c r="A967" s="7"/>
     </row>
     <row r="968">
-      <c r="A968" s="6"/>
+      <c r="A968" s="7"/>
     </row>
     <row r="969">
-      <c r="A969" s="6"/>
+      <c r="A969" s="7"/>
     </row>
     <row r="970">
-      <c r="A970" s="6"/>
+      <c r="A970" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
